--- a/resource_api/maliyet_raporlar/dosyalar/ayo_maliyet_listesi.xlsx
+++ b/resource_api/maliyet_raporlar/dosyalar/ayo_maliyet_listesi.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -16,10 +16,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt formatCode="[$$-409]#,##0.00;\([$$-409]#,##0.00\);[$$-409]#,##0.00;@" numFmtId="164"/>
-    <numFmt formatCode="&quot; &quot;#,#00.00\ &quot;TL&quot;" numFmtId="165"/>
-    <numFmt formatCode="&quot; &quot;dd\.mm\.yyyy" numFmtId="166"/>
-    <numFmt formatCode="&quot;₺&quot;#,##0.00" numFmtId="167"/>
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;\([$$-409]#,##0.00\);[$$-409]#,##0.00;@"/>
+    <numFmt numFmtId="165" formatCode="&quot; &quot;#,#00.00\ &quot;TL&quot;"/>
+    <numFmt numFmtId="166" formatCode="&quot; &quot;dd\.mm\.yyyy"/>
+    <numFmt numFmtId="167" formatCode="&quot;₺&quot;#,##0.00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -186,126 +186,194 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" readingOrder="1" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" readingOrder="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" readingOrder="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" readingOrder="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" readingOrder="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="5" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" readingOrder="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" readingOrder="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="7" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" readingOrder="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="7" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" readingOrder="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" readingOrder="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" readingOrder="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" readingOrder="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" readingOrder="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="8" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" readingOrder="1" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="6" fontId="1" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" readingOrder="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="8" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" readingOrder="1" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="6" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" readingOrder="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" readingOrder="1" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" readingOrder="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" readingOrder="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" readingOrder="1" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" readingOrder="1" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" readingOrder="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" readingOrder="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" readingOrder="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" readingOrder="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="7" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" readingOrder="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" readingOrder="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" readingOrder="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="5" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" readingOrder="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" readingOrder="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -584,33 +652,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="11.4"/>
   <cols>
-    <col customWidth="1" max="3" min="1" style="27" width="10.5546875"/>
-    <col customWidth="1" max="5" min="4" style="25" width="8.109375"/>
-    <col customWidth="1" max="6" min="6" style="15" width="10.109375"/>
-    <col customWidth="1" max="7" min="7" style="15" width="10.6640625"/>
-    <col customWidth="1" max="8" min="8" style="2" width="10.6640625"/>
-    <col customWidth="1" max="9" min="9" style="2" width="9.88671875"/>
-    <col customWidth="1" max="10" min="10" style="2" width="7.5546875"/>
-    <col customWidth="1" max="11" min="11" style="2" width="11.88671875"/>
-    <col customWidth="1" max="13" min="12" style="2" width="10.109375"/>
-    <col customWidth="1" max="14" min="14" style="2" width="10.6640625"/>
-    <col customWidth="1" max="15" min="15" style="2" width="8.109375"/>
-    <col customWidth="1" max="18" min="16" style="2" width="8"/>
-    <col customWidth="1" max="19" min="19" style="2" width="8.44140625"/>
-    <col customWidth="1" max="23" min="20" style="2" width="11.109375"/>
-    <col customWidth="1" max="24" min="24" style="2" width="12.21875"/>
-    <col customWidth="1" max="25" min="25" style="2" width="9.21875"/>
-    <col customWidth="1" max="26" min="26" style="2" width="8.109375"/>
-    <col customWidth="1" max="27" min="27" style="2" width="11.44140625"/>
-    <col customWidth="1" max="28" min="28" style="2" width="8.109375"/>
-    <col customWidth="1" max="29" min="29" style="2" width="10.109375"/>
-    <col customWidth="1" max="30" min="30" style="2" width="9.88671875"/>
-    <col customWidth="1" max="31" min="31" style="2" width="10.6640625"/>
-    <col customWidth="1" max="32" min="32" style="15" width="13"/>
-    <col customWidth="1" max="16384" min="33" style="2" width="9.109375"/>
+    <col width="10.5546875" customWidth="1" style="27" min="1" max="3"/>
+    <col width="8.109375" customWidth="1" style="25" min="4" max="5"/>
+    <col width="10.109375" customWidth="1" style="15" min="6" max="6"/>
+    <col width="10.6640625" customWidth="1" style="15" min="7" max="7"/>
+    <col width="10.6640625" customWidth="1" style="2" min="8" max="8"/>
+    <col width="9.88671875" customWidth="1" style="2" min="9" max="9"/>
+    <col width="7.5546875" customWidth="1" style="2" min="10" max="10"/>
+    <col width="11.88671875" customWidth="1" style="2" min="11" max="11"/>
+    <col width="10.109375" customWidth="1" style="2" min="12" max="13"/>
+    <col width="10.6640625" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.109375" customWidth="1" style="2" min="15" max="15"/>
+    <col width="8" customWidth="1" style="2" min="16" max="18"/>
+    <col width="8.44140625" customWidth="1" style="2" min="19" max="19"/>
+    <col width="11.109375" customWidth="1" style="2" min="20" max="23"/>
+    <col width="12.21875" customWidth="1" style="2" min="24" max="24"/>
+    <col width="9.21875" customWidth="1" style="2" min="25" max="25"/>
+    <col width="8.109375" customWidth="1" style="2" min="26" max="26"/>
+    <col width="11.44140625" customWidth="1" style="2" min="27" max="27"/>
+    <col width="8.109375" customWidth="1" style="2" min="28" max="28"/>
+    <col width="10.109375" customWidth="1" style="2" min="29" max="29"/>
+    <col width="9.88671875" customWidth="1" style="2" min="30" max="30"/>
+    <col width="10.6640625" customWidth="1" style="2" min="31" max="31"/>
+    <col width="13" customWidth="1" style="15" min="32" max="32"/>
+    <col width="9.109375" customWidth="1" style="2" min="33" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="16.5" r="1">
+    <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="26" t="inlineStr">
         <is>
           <t>Satışçı</t>
@@ -772,20 +840,20 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2">
+    <row r="2" ht="30" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
+          <t>Fatih</t>
+        </is>
+      </c>
+      <c r="B2" s="13" t="inlineStr">
+        <is>
           <t>Ozlem</t>
         </is>
       </c>
-      <c r="B2" s="13" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>22AFG33</t>
+          <t>21NOVA42</t>
         </is>
       </c>
       <c r="D2" s="22" t="inlineStr">
@@ -800,34 +868,34 @@
       </c>
       <c r="F2" s="32" t="inlineStr">
         <is>
-          <t>24-02-2022</t>
+          <t>06-12-2021</t>
         </is>
       </c>
       <c r="G2" s="32" t="inlineStr">
         <is>
-          <t>01-08-2022</t>
+          <t>05-01-2022</t>
         </is>
       </c>
       <c r="H2" s="12" t="inlineStr">
         <is>
-          <t>Bruce - USA</t>
+          <t>Nova - Elaine</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>FOB</t>
+          <t>CFR</t>
         </is>
       </c>
       <c r="K2" s="33" t="n">
-        <v>10540.31</v>
+        <v>15910.9</v>
       </c>
       <c r="L2" s="34" t="n">
-        <v>7960.762</v>
+        <v>12081.25</v>
       </c>
       <c r="M2" s="34" t="n">
         <v>0</v>
@@ -836,22 +904,22 @@
         <v>0</v>
       </c>
       <c r="O2" s="34" t="n">
-        <v>528.23</v>
+        <v>243.62</v>
       </c>
       <c r="P2" s="34" t="n">
-        <v>31.43</v>
+        <v>33.83</v>
       </c>
       <c r="Q2" s="35" t="n">
-        <v>0</v>
+        <v>14.03</v>
       </c>
       <c r="R2" s="35" t="n">
-        <v>278</v>
+        <v>400</v>
       </c>
       <c r="S2" s="35" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="35" t="n">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="U2" s="35" t="n">
         <v>0</v>
@@ -878,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="37" t="n">
-        <v>8798.422</v>
+        <v>14022.73</v>
       </c>
       <c r="AD2" s="38" t="n">
         <v>0</v>
@@ -892,7 +960,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="3">
+    <row r="3" ht="30" customHeight="1">
       <c r="A3" s="13" t="inlineStr">
         <is>
           <t>Gizem</t>
@@ -905,7 +973,7 @@
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>22ALG02</t>
+          <t>21VEIK77-02</t>
         </is>
       </c>
       <c r="D3" s="22" t="inlineStr">
@@ -915,27 +983,27 @@
       </c>
       <c r="E3" s="22" t="inlineStr">
         <is>
-          <t>Efes</t>
+          <t>Mekmar</t>
         </is>
       </c>
       <c r="F3" s="32" t="inlineStr">
         <is>
-          <t>16-06-2022</t>
+          <t>13-12-2021</t>
         </is>
       </c>
       <c r="G3" s="32" t="inlineStr">
         <is>
-          <t>01-08-2022</t>
+          <t>05-01-2022</t>
         </is>
       </c>
       <c r="H3" s="12" t="inlineStr">
         <is>
-          <t>Ahmed Alghunaim - Kuwait</t>
+          <t>VEIK - UAE</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -944,25 +1012,25 @@
         </is>
       </c>
       <c r="K3" s="33" t="n">
-        <v>12804.03</v>
+        <v>5866.25</v>
       </c>
       <c r="L3" s="34" t="n">
-        <v>0</v>
+        <v>2762.76</v>
       </c>
       <c r="M3" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="34" t="n">
-        <v>5055.72</v>
+        <v>338.6502</v>
       </c>
       <c r="O3" s="34" t="n">
-        <v>0</v>
+        <v>245.36</v>
       </c>
       <c r="P3" s="34" t="n">
-        <v>49.82</v>
+        <v>4.63</v>
       </c>
       <c r="Q3" s="35" t="n">
-        <v>0</v>
+        <v>14.03</v>
       </c>
       <c r="R3" s="35" t="n">
         <v>400</v>
@@ -971,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="35" t="n">
-        <v>865</v>
+        <v>1250</v>
       </c>
       <c r="U3" s="35" t="n">
         <v>0</v>
@@ -986,2135 +1054,4113 @@
         <v>0</v>
       </c>
       <c r="Y3" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="36" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB3" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="37" t="n">
+        <v>5052.4302</v>
+      </c>
+      <c r="AD3" s="38" t="n">
+        <v>813.8198</v>
+      </c>
+      <c r="AE3" s="17" t="n">
+        <v>11051.672884</v>
+      </c>
+      <c r="AF3" s="19" t="inlineStr">
+        <is>
+          <t>10-02-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1">
+      <c r="A4" s="13" t="inlineStr">
+        <is>
+          <t>Su</t>
+        </is>
+      </c>
+      <c r="B4" s="13" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C4" s="13" t="inlineStr">
+        <is>
+          <t>21SU110</t>
+        </is>
+      </c>
+      <c r="D4" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E4" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F4" s="32" t="inlineStr">
+        <is>
+          <t>10-01-2022</t>
+        </is>
+      </c>
+      <c r="G4" s="32" t="inlineStr">
+        <is>
+          <t>10-01-2022</t>
+        </is>
+      </c>
+      <c r="H4" s="12" t="inlineStr">
+        <is>
+          <t>Tamer ($)</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>FCA</t>
+        </is>
+      </c>
+      <c r="K4" s="33" t="n">
+        <v>4475.43</v>
+      </c>
+      <c r="L4" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="34" t="n">
+        <v>1959.15</v>
+      </c>
+      <c r="O4" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="34" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="Q4" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="37" t="n">
+        <v>1985.45</v>
+      </c>
+      <c r="AD4" s="38" t="n">
+        <v>2489.98</v>
+      </c>
+      <c r="AE4" s="17" t="n">
+        <v>33714.3292</v>
+      </c>
+      <c r="AF4" s="19" t="inlineStr">
+        <is>
+          <t>11-02-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B5" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C5" s="13" t="inlineStr">
+        <is>
+          <t>21PP10-2</t>
+        </is>
+      </c>
+      <c r="D5" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E5" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F5" s="32" t="inlineStr">
+        <is>
+          <t>22-10-2021</t>
+        </is>
+      </c>
+      <c r="G5" s="32" t="inlineStr">
+        <is>
+          <t>11-01-2022</t>
+        </is>
+      </c>
+      <c r="H5" s="12" t="inlineStr">
+        <is>
+          <t>Bigeni - Malta</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="K5" s="33" t="n">
+        <v>24117.75</v>
+      </c>
+      <c r="L5" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="34" t="n">
+        <v>15022.0643</v>
+      </c>
+      <c r="O5" s="34" t="n">
+        <v>221.4</v>
+      </c>
+      <c r="P5" s="34" t="n">
+        <v>44.35</v>
+      </c>
+      <c r="Q5" s="35" t="n">
+        <v>14</v>
+      </c>
+      <c r="R5" s="35" t="n">
+        <v>340</v>
+      </c>
+      <c r="S5" s="35" t="n">
+        <v>20</v>
+      </c>
+      <c r="T5" s="35" t="n">
+        <v>1618</v>
+      </c>
+      <c r="U5" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="36" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="AB5" s="36" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="AC5" s="37" t="n">
+        <v>17309.1943</v>
+      </c>
+      <c r="AD5" s="38" t="n">
+        <v>6808.5557</v>
+      </c>
+      <c r="AE5" s="17" t="n">
+        <v>92187.844178</v>
+      </c>
+      <c r="AF5" s="19" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1">
+      <c r="A6" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B6" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C6" s="13" t="inlineStr">
+        <is>
+          <t>21SEAN03</t>
+        </is>
+      </c>
+      <c r="D6" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E6" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F6" s="32" t="inlineStr">
+        <is>
+          <t>01-11-2021</t>
+        </is>
+      </c>
+      <c r="G6" s="32" t="inlineStr">
+        <is>
+          <t>11-01-2022</t>
+        </is>
+      </c>
+      <c r="H6" s="12" t="inlineStr">
+        <is>
+          <t>Sean - MALTA</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K6" s="33" t="n">
+        <v>8257.190000000001</v>
+      </c>
+      <c r="L6" s="34" t="n">
+        <v>794.34</v>
+      </c>
+      <c r="M6" s="34" t="n">
+        <v>144.15</v>
+      </c>
+      <c r="N6" s="34" t="n">
+        <v>3378.54</v>
+      </c>
+      <c r="O6" s="34" t="n">
+        <v>514.23</v>
+      </c>
+      <c r="P6" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="35" t="n">
+        <v>14</v>
+      </c>
+      <c r="R6" s="35" t="n">
+        <v>340</v>
+      </c>
+      <c r="S6" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="35" t="n">
+        <v>1618</v>
+      </c>
+      <c r="U6" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="36" t="n">
+        <v>45.22</v>
+      </c>
+      <c r="AB6" s="36" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="AC6" s="37" t="n">
+        <v>6864.23</v>
+      </c>
+      <c r="AD6" s="38" t="n">
+        <v>1392.96</v>
+      </c>
+      <c r="AE6" s="17" t="n">
+        <v>18860.6784</v>
+      </c>
+      <c r="AF6" s="19" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1">
+      <c r="A7" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B7" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C7" s="13" t="inlineStr">
+        <is>
+          <t>21STP02</t>
+        </is>
+      </c>
+      <c r="D7" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E7" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F7" s="32" t="inlineStr">
+        <is>
+          <t>09-11-2021</t>
+        </is>
+      </c>
+      <c r="G7" s="32" t="inlineStr">
+        <is>
+          <t>11-01-2022</t>
+        </is>
+      </c>
+      <c r="H7" s="12" t="inlineStr">
+        <is>
+          <t>Stolp Agni - Poland</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>FCA</t>
+        </is>
+      </c>
+      <c r="K7" s="33" t="n">
+        <v>10162.79</v>
+      </c>
+      <c r="L7" s="34" t="n">
+        <v>469.92</v>
+      </c>
+      <c r="M7" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="34" t="n">
+        <v>6972</v>
+      </c>
+      <c r="O7" s="34" t="n">
+        <v>59.47</v>
+      </c>
+      <c r="P7" s="34" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="Q7" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="36" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="AB7" s="36" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="AC7" s="37" t="n">
+        <v>7596.51</v>
+      </c>
+      <c r="AD7" s="38" t="n">
+        <v>2566.28</v>
+      </c>
+      <c r="AE7" s="17" t="n">
+        <v>34439.4776</v>
+      </c>
+      <c r="AF7" s="19" t="inlineStr">
+        <is>
+          <t>03-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1">
+      <c r="A8" s="13" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B8" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C8" s="13" t="inlineStr">
+        <is>
+          <t>22VEIK78</t>
+        </is>
+      </c>
+      <c r="D8" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E8" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F8" s="32" t="inlineStr">
+        <is>
+          <t>04-01-2022</t>
+        </is>
+      </c>
+      <c r="G8" s="32" t="inlineStr">
+        <is>
+          <t>17-01-2022</t>
+        </is>
+      </c>
+      <c r="H8" s="12" t="inlineStr">
+        <is>
+          <t>VEIK - UAE</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K8" s="33" t="n">
+        <v>47926</v>
+      </c>
+      <c r="L8" s="34" t="n">
+        <v>36727</v>
+      </c>
+      <c r="M8" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="34" t="n">
+        <v>735.11</v>
+      </c>
+      <c r="P8" s="34" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="Q8" s="35" t="n">
+        <v>42.53</v>
+      </c>
+      <c r="R8" s="35" t="n">
+        <v>1350</v>
+      </c>
+      <c r="S8" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="35" t="n">
+        <v>4350</v>
+      </c>
+      <c r="U8" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="36" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB8" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="37" t="n">
+        <v>43275.09</v>
+      </c>
+      <c r="AD8" s="38" t="n">
+        <v>4650.91</v>
+      </c>
+      <c r="AE8" s="17" t="n">
+        <v>63531.4306</v>
+      </c>
+      <c r="AF8" s="19" t="inlineStr">
+        <is>
+          <t>08-02-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" s="13" t="inlineStr">
+        <is>
+          <t>Sema</t>
+        </is>
+      </c>
+      <c r="B9" s="13" t="inlineStr">
+        <is>
+          <t>Sema</t>
+        </is>
+      </c>
+      <c r="C9" s="13" t="inlineStr">
+        <is>
+          <t>22CST01</t>
+        </is>
+      </c>
+      <c r="D9" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E9" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F9" s="32" t="inlineStr">
+        <is>
+          <t>03-01-2022</t>
+        </is>
+      </c>
+      <c r="G9" s="32" t="inlineStr">
+        <is>
+          <t>28-01-2022</t>
+        </is>
+      </c>
+      <c r="H9" s="12" t="inlineStr">
+        <is>
+          <t>Cosmin Tache - Romania</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>FCA</t>
+        </is>
+      </c>
+      <c r="K9" s="33" t="n">
+        <v>9150.24</v>
+      </c>
+      <c r="L9" s="34" t="n">
+        <v>4453.98</v>
+      </c>
+      <c r="M9" s="34" t="n">
+        <v>3316.5</v>
+      </c>
+      <c r="N9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="34" t="n">
+        <v>24.83</v>
+      </c>
+      <c r="Q9" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="37" t="n">
+        <v>7795.31</v>
+      </c>
+      <c r="AD9" s="38" t="n">
+        <v>1354.93</v>
+      </c>
+      <c r="AE9" s="17" t="n">
+        <v>18359.3015</v>
+      </c>
+      <c r="AF9" s="19" t="inlineStr">
+        <is>
+          <t>26-01-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1">
+      <c r="A10" s="13" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B10" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C10" s="13" t="inlineStr">
+        <is>
+          <t>21BKF06</t>
+        </is>
+      </c>
+      <c r="D10" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E10" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F10" s="32" t="inlineStr">
+        <is>
+          <t>08-12-2021</t>
+        </is>
+      </c>
+      <c r="G10" s="32" t="inlineStr">
+        <is>
+          <t>29-01-2022</t>
+        </is>
+      </c>
+      <c r="H10" s="12" t="inlineStr">
+        <is>
+          <t>BKF - USA</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>FOB</t>
+        </is>
+      </c>
+      <c r="K10" s="33" t="n">
+        <v>10781.88</v>
+      </c>
+      <c r="L10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="34" t="n">
+        <v>8556.200000000001</v>
+      </c>
+      <c r="O10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="35" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="R10" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="37" t="n">
+        <v>8570.120000000001</v>
+      </c>
+      <c r="AD10" s="38" t="n">
+        <v>2211.76</v>
+      </c>
+      <c r="AE10" s="17" t="n">
+        <v>32711.9304</v>
+      </c>
+      <c r="AF10" s="19" t="inlineStr">
+        <is>
+          <t>10-03-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1">
+      <c r="A11" s="13" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B11" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C11" s="13" t="inlineStr">
+        <is>
+          <t>21BKF05</t>
+        </is>
+      </c>
+      <c r="D11" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E11" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F11" s="32" t="inlineStr">
+        <is>
+          <t>08-12-2021</t>
+        </is>
+      </c>
+      <c r="G11" s="32" t="inlineStr">
+        <is>
+          <t>29-01-2022</t>
+        </is>
+      </c>
+      <c r="H11" s="12" t="inlineStr">
+        <is>
+          <t>BKF - USA</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>FOB</t>
+        </is>
+      </c>
+      <c r="K11" s="33" t="n">
+        <v>14103.89</v>
+      </c>
+      <c r="L11" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="34" t="n">
+        <v>10511.74</v>
+      </c>
+      <c r="O11" s="34" t="n">
+        <v>1017.89</v>
+      </c>
+      <c r="P11" s="34" t="n">
+        <v>51.83</v>
+      </c>
+      <c r="Q11" s="35" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="R11" s="35" t="n">
+        <v>740</v>
+      </c>
+      <c r="S11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="37" t="n">
+        <v>12335.38</v>
+      </c>
+      <c r="AD11" s="38" t="n">
+        <v>1768.51</v>
+      </c>
+      <c r="AE11" s="17" t="n">
+        <v>26156.2629</v>
+      </c>
+      <c r="AF11" s="19" t="inlineStr">
+        <is>
+          <t>10-03-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1">
+      <c r="A12" s="13" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B12" s="13" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C12" s="13" t="inlineStr">
+        <is>
+          <t>21UNIQ03</t>
+        </is>
+      </c>
+      <c r="D12" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E12" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F12" s="32" t="inlineStr">
+        <is>
+          <t>23-12-2021</t>
+        </is>
+      </c>
+      <c r="G12" s="32" t="inlineStr">
+        <is>
+          <t>01-02-2022</t>
+        </is>
+      </c>
+      <c r="H12" s="12" t="inlineStr">
+        <is>
+          <t>Brett, UHA - USA</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>DAP</t>
+        </is>
+      </c>
+      <c r="K12" s="33" t="n">
+        <v>14759.1</v>
+      </c>
+      <c r="L12" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="34" t="n">
+        <v>4337.5</v>
+      </c>
+      <c r="O12" s="34" t="n">
+        <v>320.63</v>
+      </c>
+      <c r="P12" s="34" t="n">
+        <v>25.79</v>
+      </c>
+      <c r="Q12" s="35" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="R12" s="35" t="n">
+        <v>395</v>
+      </c>
+      <c r="S12" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="35" t="n">
+        <v>7455</v>
+      </c>
+      <c r="U12" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="36" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="AB12" s="36" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="AC12" s="37" t="n">
+        <v>12576.89</v>
+      </c>
+      <c r="AD12" s="38" t="n">
+        <v>2182.21</v>
+      </c>
+      <c r="AE12" s="17" t="n">
+        <v>32624.0395</v>
+      </c>
+      <c r="AF12" s="19" t="inlineStr">
+        <is>
+          <t>11-03-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1">
+      <c r="A13" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B13" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C13" s="13" t="inlineStr">
+        <is>
+          <t>22VA01</t>
+        </is>
+      </c>
+      <c r="D13" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E13" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F13" s="32" t="inlineStr">
+        <is>
+          <t>20-01-2022</t>
+        </is>
+      </c>
+      <c r="G13" s="32" t="inlineStr">
+        <is>
+          <t>01-02-2022</t>
+        </is>
+      </c>
+      <c r="H13" s="12" t="inlineStr">
+        <is>
+          <t>Valerie Alaimo - USA</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>DDP</t>
+        </is>
+      </c>
+      <c r="K13" s="33" t="n">
+        <v>1975.29</v>
+      </c>
+      <c r="L13" s="34" t="n">
+        <v>723.04</v>
+      </c>
+      <c r="M13" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" s="35" t="n">
+        <v>350</v>
+      </c>
+      <c r="U13" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" s="35" t="n">
+        <v>270.9</v>
+      </c>
+      <c r="Y13" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="36" t="n">
+        <v>72.45</v>
+      </c>
+      <c r="AB13" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="37" t="n">
+        <v>1416.39</v>
+      </c>
+      <c r="AD13" s="38" t="n">
+        <v>558.9</v>
+      </c>
+      <c r="AE13" s="17" t="n">
+        <v>9344.808000000001</v>
+      </c>
+      <c r="AF13" s="19" t="inlineStr">
+        <is>
+          <t>30-06-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1">
+      <c r="A14" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B14" s="13" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C14" s="13" t="inlineStr">
+        <is>
+          <t>21LSA02</t>
+        </is>
+      </c>
+      <c r="D14" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E14" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F14" s="32" t="inlineStr">
+        <is>
+          <t>21-12-2021</t>
+        </is>
+      </c>
+      <c r="G14" s="32" t="inlineStr">
+        <is>
+          <t>03-02-2022</t>
+        </is>
+      </c>
+      <c r="H14" s="12" t="inlineStr">
+        <is>
+          <t>Lissa - Greece</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K14" s="33" t="n">
+        <v>4175</v>
+      </c>
+      <c r="L14" s="34" t="n">
+        <v>1870</v>
+      </c>
+      <c r="M14" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="34" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="O14" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="34" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="Q14" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="35" t="n">
+        <v>738.46</v>
+      </c>
+      <c r="U14" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="36" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="AC14" s="37" t="n">
+        <v>2824.36</v>
+      </c>
+      <c r="AD14" s="38" t="n">
+        <v>1350.64</v>
+      </c>
+      <c r="AE14" s="17" t="n">
+        <v>18139.0952</v>
+      </c>
+      <c r="AF14" s="19" t="inlineStr">
+        <is>
+          <t>03-02-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1">
+      <c r="A15" s="13" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B15" s="13" t="inlineStr">
+        <is>
+          <t>Sema</t>
+        </is>
+      </c>
+      <c r="C15" s="13" t="inlineStr">
+        <is>
+          <t>21BRP07</t>
+        </is>
+      </c>
+      <c r="D15" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E15" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F15" s="32" t="inlineStr">
+        <is>
+          <t>08-09-2021</t>
+        </is>
+      </c>
+      <c r="G15" s="32" t="inlineStr">
+        <is>
+          <t>07-02-2022</t>
+        </is>
+      </c>
+      <c r="H15" s="12" t="inlineStr">
+        <is>
+          <t>Tracy - AU</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>DAP</t>
+        </is>
+      </c>
+      <c r="K15" s="33" t="n">
+        <v>20636.98</v>
+      </c>
+      <c r="L15" s="34" t="n">
+        <v>3007.1439</v>
+      </c>
+      <c r="M15" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="34" t="n">
+        <v>7097.16</v>
+      </c>
+      <c r="O15" s="34" t="n">
+        <v>544.03</v>
+      </c>
+      <c r="P15" s="34" t="n">
+        <v>31.65</v>
+      </c>
+      <c r="Q15" s="35" t="n">
+        <v>130</v>
+      </c>
+      <c r="R15" s="35" t="n">
+        <v>430</v>
+      </c>
+      <c r="S15" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" s="35" t="n">
+        <v>7720</v>
+      </c>
+      <c r="U15" s="35" t="n">
+        <v>191.12</v>
+      </c>
+      <c r="V15" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="36" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AB15" s="36" t="n">
+        <v>19.67</v>
+      </c>
+      <c r="AC15" s="37" t="n">
+        <v>19172.3139</v>
+      </c>
+      <c r="AD15" s="38" t="n">
+        <v>1464.6661</v>
+      </c>
+      <c r="AE15" s="17" t="n">
+        <v>20197.745519</v>
+      </c>
+      <c r="AF15" s="19" t="inlineStr">
+        <is>
+          <t>22-02-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="30" customHeight="1">
+      <c r="A16" s="13" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="B16" s="13" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C16" s="13" t="inlineStr">
+        <is>
+          <t>22WS20</t>
+        </is>
+      </c>
+      <c r="D16" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E16" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F16" s="32" t="inlineStr">
+        <is>
+          <t>02-02-2022</t>
+        </is>
+      </c>
+      <c r="G16" s="32" t="inlineStr">
+        <is>
+          <t>09-02-2022</t>
+        </is>
+      </c>
+      <c r="H16" s="12" t="inlineStr">
+        <is>
+          <t>Radu &amp; Eugen - USA</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>DDP</t>
+        </is>
+      </c>
+      <c r="K16" s="33" t="n">
+        <v>2023</v>
+      </c>
+      <c r="L16" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="34" t="n">
+        <v>669</v>
+      </c>
+      <c r="O16" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" s="35" t="n">
+        <v>230</v>
+      </c>
+      <c r="U16" s="35" t="n">
+        <v>288</v>
+      </c>
+      <c r="V16" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" s="35" t="n">
+        <v>200.7</v>
+      </c>
+      <c r="Y16" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="36" t="n">
+        <v>13.03</v>
+      </c>
+      <c r="AB16" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="37" t="n">
+        <v>1400.73</v>
+      </c>
+      <c r="AD16" s="38" t="n">
+        <v>622.27</v>
+      </c>
+      <c r="AE16" s="17" t="n">
+        <v>8462.871999999999</v>
+      </c>
+      <c r="AF16" s="19" t="inlineStr">
+        <is>
+          <t>04-02-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="30" customHeight="1">
+      <c r="A17" s="13" t="inlineStr">
+        <is>
+          <t>Mehmet</t>
+        </is>
+      </c>
+      <c r="B17" s="13" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="C17" s="13" t="inlineStr">
+        <is>
+          <t>22HOSI03</t>
+        </is>
+      </c>
+      <c r="D17" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E17" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F17" s="32" t="inlineStr">
+        <is>
+          <t>15-02-2022</t>
+        </is>
+      </c>
+      <c r="G17" s="32" t="inlineStr">
+        <is>
+          <t>15-02-2022</t>
+        </is>
+      </c>
+      <c r="H17" s="12" t="inlineStr">
+        <is>
+          <t>Senyo Hosi - Ghana</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>FCA</t>
+        </is>
+      </c>
+      <c r="K17" s="33" t="n">
+        <v>3157.5</v>
+      </c>
+      <c r="L17" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="34" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="Q17" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="37" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="AD17" s="38" t="n">
+        <v>3135.41</v>
+      </c>
+      <c r="AE17" s="17" t="n">
+        <v>46278.6516</v>
+      </c>
+      <c r="AF17" s="19" t="inlineStr">
+        <is>
+          <t>22-04-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="30" customHeight="1">
+      <c r="A18" s="13" t="inlineStr">
+        <is>
+          <t>Fatih</t>
+        </is>
+      </c>
+      <c r="B18" s="13" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C18" s="13" t="inlineStr">
+        <is>
+          <t>22FAS73</t>
+        </is>
+      </c>
+      <c r="D18" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E18" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F18" s="32" t="inlineStr">
+        <is>
+          <t>02-01-2022</t>
+        </is>
+      </c>
+      <c r="G18" s="32" t="inlineStr">
+        <is>
+          <t>16-02-2022</t>
+        </is>
+      </c>
+      <c r="H18" s="21" t="inlineStr">
+        <is>
+          <t>Bennis - Morocco</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K18" s="33" t="n">
+        <v>8748</v>
+      </c>
+      <c r="L18" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="34" t="n">
+        <v>6561</v>
+      </c>
+      <c r="O18" s="34" t="n">
+        <v>241.57</v>
+      </c>
+      <c r="P18" s="34" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="Q18" s="35" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="R18" s="35" t="n">
+        <v>400</v>
+      </c>
+      <c r="S18" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" s="35" t="n">
+        <v>3175</v>
+      </c>
+      <c r="U18" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="36" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB18" s="36" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="AC18" s="37" t="n">
+        <v>10479.11</v>
+      </c>
+      <c r="AD18" s="38" t="n">
+        <v>-1731.11</v>
+      </c>
+      <c r="AE18" s="17" t="n">
+        <v>-25481.9392</v>
+      </c>
+      <c r="AF18" s="19" t="inlineStr">
+        <is>
+          <t>16-03-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="30" customHeight="1">
+      <c r="A19" s="13" t="inlineStr">
+        <is>
+          <t>Fatih</t>
+        </is>
+      </c>
+      <c r="B19" s="13" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C19" s="13" t="inlineStr">
+        <is>
+          <t>22PORCE06</t>
+        </is>
+      </c>
+      <c r="D19" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E19" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F19" s="32" t="inlineStr">
+        <is>
+          <t>08-01-2022</t>
+        </is>
+      </c>
+      <c r="G19" s="32" t="inlineStr">
+        <is>
+          <t>17-02-2022</t>
+        </is>
+      </c>
+      <c r="H19" s="22" t="inlineStr">
+        <is>
+          <t>Porcemar - Venezuela</t>
+        </is>
+      </c>
+      <c r="I19" s="12" t="inlineStr">
+        <is>
+          <t>Venezuela</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K19" s="33" t="n">
+        <v>19367.4</v>
+      </c>
+      <c r="L19" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="34" t="n">
+        <v>9422.700000000001</v>
+      </c>
+      <c r="O19" s="34" t="n">
+        <v>388.46</v>
+      </c>
+      <c r="P19" s="34" t="n">
+        <v>30.93</v>
+      </c>
+      <c r="Q19" s="35" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="R19" s="35" t="n">
+        <v>475</v>
+      </c>
+      <c r="S19" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" s="35" t="n">
+        <v>7210</v>
+      </c>
+      <c r="U19" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="36" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="AC19" s="37" t="n">
+        <v>17556.83</v>
+      </c>
+      <c r="AD19" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="34.8" customHeight="1">
+      <c r="A20" s="13" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B20" s="13" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C20" s="13" t="inlineStr">
+        <is>
+          <t>21RAKN02</t>
+        </is>
+      </c>
+      <c r="D20" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E20" s="22" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F20" s="32" t="inlineStr">
+        <is>
+          <t>29-11-2021</t>
+        </is>
+      </c>
+      <c r="G20" s="32" t="inlineStr">
+        <is>
+          <t>21-02-2022</t>
+        </is>
+      </c>
+      <c r="H20" s="22" t="inlineStr">
+        <is>
+          <t>Rakeen - Qatar</t>
+        </is>
+      </c>
+      <c r="I20" s="12" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="J20" s="9" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K20" s="33" t="n">
+        <v>38525.2</v>
+      </c>
+      <c r="L20" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="34" t="n">
+        <v>24217.6</v>
+      </c>
+      <c r="O20" s="34" t="n">
+        <v>483.98</v>
+      </c>
+      <c r="P20" s="34" t="n">
+        <v>60.83</v>
+      </c>
+      <c r="Q20" s="35" t="n">
+        <v>27.38</v>
+      </c>
+      <c r="R20" s="35" t="n">
+        <v>700</v>
+      </c>
+      <c r="S20" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" s="35" t="n">
+        <v>2800</v>
+      </c>
+      <c r="U20" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="36" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="AC20" s="37" t="n">
+        <v>28308.2</v>
+      </c>
+      <c r="AD20" s="38" t="n">
+        <v>10217</v>
+      </c>
+      <c r="AE20" s="17" t="n">
+        <v>143957.53</v>
+      </c>
+      <c r="AF20" s="19" t="inlineStr">
+        <is>
+          <t>02-03-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="30" customHeight="1">
+      <c r="A21" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B21" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C21" s="28" t="inlineStr">
+        <is>
+          <t>22FLOS43</t>
+        </is>
+      </c>
+      <c r="D21" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E21" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F21" s="31" t="inlineStr">
+        <is>
+          <t>11-01-2022</t>
+        </is>
+      </c>
+      <c r="G21" s="31" t="inlineStr">
+        <is>
+          <t>21-02-2022</t>
+        </is>
+      </c>
+      <c r="H21" s="22" t="inlineStr">
+        <is>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="I21" s="12" t="inlineStr">
+        <is>
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="J21" s="9" t="inlineStr">
+        <is>
+          <t>FOB</t>
+        </is>
+      </c>
+      <c r="K21" s="33" t="n">
+        <v>17639.6</v>
+      </c>
+      <c r="L21" s="34" t="n">
+        <v>1792.605</v>
+      </c>
+      <c r="M21" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="34" t="n">
+        <v>10756.025</v>
+      </c>
+      <c r="O21" s="34" t="n">
+        <v>238.6</v>
+      </c>
+      <c r="P21" s="34" t="n">
+        <v>37.41</v>
+      </c>
+      <c r="Q21" s="35" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="R21" s="35" t="n">
+        <v>515</v>
+      </c>
+      <c r="S21" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="37" t="n">
+        <v>13344.69</v>
+      </c>
+      <c r="AD21" s="38" t="n">
+        <v>4294.91</v>
+      </c>
+      <c r="AE21" s="17" t="n">
+        <v>61631.9585</v>
+      </c>
+      <c r="AF21" s="19" t="inlineStr">
+        <is>
+          <t>07-03-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="30" customHeight="1">
+      <c r="A22" s="28" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="B22" s="28" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C22" s="28" t="inlineStr">
+        <is>
+          <t>22MH04</t>
+        </is>
+      </c>
+      <c r="D22" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E22" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F22" s="31" t="inlineStr">
+        <is>
+          <t>04-02-2022</t>
+        </is>
+      </c>
+      <c r="G22" s="31" t="inlineStr">
+        <is>
+          <t>22-02-2022</t>
+        </is>
+      </c>
+      <c r="H22" s="22" t="inlineStr">
+        <is>
+          <t>Mahmoud - USA</t>
+        </is>
+      </c>
+      <c r="I22" s="12" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="J22" s="9" t="inlineStr">
+        <is>
+          <t>DDP</t>
+        </is>
+      </c>
+      <c r="K22" s="33" t="n">
+        <v>4096.35</v>
+      </c>
+      <c r="L22" s="34" t="n">
+        <v>900.54</v>
+      </c>
+      <c r="M22" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="34" t="n">
+        <v>210</v>
+      </c>
+      <c r="O22" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" s="35" t="n">
         <v>950</v>
       </c>
-      <c r="Z3" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="36" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="AB3" s="36" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="AC3" s="37" t="n">
-        <v>7349.49</v>
-      </c>
-      <c r="AD3" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="4">
-      <c r="A4" s="13" t="inlineStr">
+      <c r="U22" s="35" t="n">
+        <v>1010</v>
+      </c>
+      <c r="V22" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" s="35" t="n">
+        <v>390.18</v>
+      </c>
+      <c r="Y22" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="36" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AB22" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="37" t="n">
+        <v>3461.17</v>
+      </c>
+      <c r="AD22" s="38" t="n">
+        <v>635.1799999999999</v>
+      </c>
+      <c r="AE22" s="17" t="n">
+        <v>9838.938200000001</v>
+      </c>
+      <c r="AF22" s="19" t="inlineStr">
+        <is>
+          <t>13-05-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="30" customHeight="1">
+      <c r="A23" s="28" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="B23" s="28" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C23" s="28" t="inlineStr">
+        <is>
+          <t>22WS21</t>
+        </is>
+      </c>
+      <c r="D23" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E23" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F23" s="31" t="inlineStr">
+        <is>
+          <t>16-02-2022</t>
+        </is>
+      </c>
+      <c r="G23" s="31" t="inlineStr">
+        <is>
+          <t>22-02-2022</t>
+        </is>
+      </c>
+      <c r="H23" s="22" t="inlineStr">
+        <is>
+          <t>Radu &amp; Eugen - USA</t>
+        </is>
+      </c>
+      <c r="I23" s="12" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="J23" s="9" t="inlineStr">
+        <is>
+          <t>DDP</t>
+        </is>
+      </c>
+      <c r="K23" s="33" t="n">
+        <v>3768.84</v>
+      </c>
+      <c r="L23" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="34" t="n">
+        <v>1204.2</v>
+      </c>
+      <c r="O23" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" s="35" t="n">
+        <v>360</v>
+      </c>
+      <c r="U23" s="35" t="n">
+        <v>461</v>
+      </c>
+      <c r="V23" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" s="35" t="n">
+        <v>401.4</v>
+      </c>
+      <c r="Y23" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="37" t="n">
+        <v>2426.6</v>
+      </c>
+      <c r="AD23" s="38" t="n">
+        <v>1342.24</v>
+      </c>
+      <c r="AE23" s="17" t="n">
+        <v>18334.9984</v>
+      </c>
+      <c r="AF23" s="19" t="inlineStr">
+        <is>
+          <t>16-02-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="30" customHeight="1">
+      <c r="A24" s="28" t="inlineStr">
+        <is>
+          <t>Fatih</t>
+        </is>
+      </c>
+      <c r="B24" s="28" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C24" s="28" t="inlineStr">
+        <is>
+          <t>21ATA18</t>
+        </is>
+      </c>
+      <c r="D24" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E24" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F24" s="31" t="inlineStr">
+        <is>
+          <t>13-11-2021</t>
+        </is>
+      </c>
+      <c r="G24" s="31" t="inlineStr">
+        <is>
+          <t>24-02-2022</t>
+        </is>
+      </c>
+      <c r="H24" s="22" t="inlineStr">
+        <is>
+          <t>Ata Sab. - Kuwait</t>
+        </is>
+      </c>
+      <c r="I24" s="12" t="inlineStr">
+        <is>
+          <t>Kuwait</t>
+        </is>
+      </c>
+      <c r="J24" s="9" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K24" s="33" t="n">
+        <v>28122.09</v>
+      </c>
+      <c r="L24" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="34" t="n">
+        <v>20027.7</v>
+      </c>
+      <c r="O24" s="34" t="n">
+        <v>233.53</v>
+      </c>
+      <c r="P24" s="34" t="n">
+        <v>47.25</v>
+      </c>
+      <c r="Q24" s="35" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="R24" s="35" t="n">
+        <v>350</v>
+      </c>
+      <c r="S24" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" s="35" t="n">
+        <v>1550</v>
+      </c>
+      <c r="U24" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="36" t="n">
+        <v>90.09</v>
+      </c>
+      <c r="AB24" s="36" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="AC24" s="37" t="n">
+        <v>22330.43</v>
+      </c>
+      <c r="AD24" s="38" t="n">
+        <v>5791.66</v>
+      </c>
+      <c r="AE24" s="17" t="n">
+        <v>86121.98420000001</v>
+      </c>
+      <c r="AF24" s="19" t="inlineStr">
+        <is>
+          <t>28-03-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="30" customHeight="1">
+      <c r="A25" s="28" t="inlineStr">
         <is>
           <t>Ozlem</t>
         </is>
       </c>
-      <c r="B4" s="13" t="inlineStr">
+      <c r="B25" s="28" t="inlineStr">
         <is>
           <t>Ozlem</t>
         </is>
       </c>
-      <c r="C4" s="13" t="inlineStr">
-        <is>
-          <t>22ALIT04</t>
-        </is>
-      </c>
-      <c r="D4" s="22" t="inlineStr">
+      <c r="C25" s="28" t="inlineStr">
+        <is>
+          <t>21AFG32</t>
+        </is>
+      </c>
+      <c r="D25" s="30" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="E4" s="22" t="inlineStr">
+      <c r="E25" s="30" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="F4" s="32" t="inlineStr">
-        <is>
-          <t>21-06-2022</t>
-        </is>
-      </c>
-      <c r="G4" s="32" t="inlineStr">
-        <is>
-          <t>01-08-2022</t>
-        </is>
-      </c>
-      <c r="H4" s="12" t="inlineStr">
-        <is>
-          <t>Branislav Mikulovsky - Slovakia</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>FOB</t>
-        </is>
-      </c>
-      <c r="K4" s="33" t="n">
-        <v>11924.75</v>
-      </c>
-      <c r="L4" s="34" t="n">
-        <v>10629.595</v>
-      </c>
-      <c r="M4" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="34" t="n">
-        <v>316.87</v>
-      </c>
-      <c r="P4" s="34" t="n">
-        <v>32.54</v>
-      </c>
-      <c r="Q4" s="35" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="R4" s="35" t="n">
+      <c r="F25" s="31" t="inlineStr">
+        <is>
+          <t>29-11-2021</t>
+        </is>
+      </c>
+      <c r="G25" s="31" t="inlineStr">
+        <is>
+          <t>28-02-2022</t>
+        </is>
+      </c>
+      <c r="H25" s="22" t="inlineStr">
+        <is>
+          <t>Bruce - USA</t>
+        </is>
+      </c>
+      <c r="I25" s="12" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="J25" s="9" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="K25" s="33" t="n">
+        <v>49487.54</v>
+      </c>
+      <c r="L25" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="34" t="n">
+        <v>27718.99</v>
+      </c>
+      <c r="O25" s="34" t="n">
+        <v>924.38</v>
+      </c>
+      <c r="P25" s="34" t="n">
+        <v>60.31</v>
+      </c>
+      <c r="Q25" s="35" t="n">
+        <v>26.72</v>
+      </c>
+      <c r="R25" s="35" t="n">
+        <v>850</v>
+      </c>
+      <c r="S25" s="35" t="n">
+        <v>27.61</v>
+      </c>
+      <c r="T25" s="35" t="n">
+        <v>12000</v>
+      </c>
+      <c r="U25" s="35" t="n">
+        <v>27.61</v>
+      </c>
+      <c r="V25" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="36" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="AC25" s="37" t="n">
+        <v>41645.75</v>
+      </c>
+      <c r="AD25" s="38" t="n">
+        <v>7841.79</v>
+      </c>
+      <c r="AE25" s="17" t="n">
+        <v>117783.6858</v>
+      </c>
+      <c r="AF25" s="19" t="inlineStr">
+        <is>
+          <t>09-05-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="30" customHeight="1">
+      <c r="A26" s="28" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B26" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C26" s="28" t="inlineStr">
+        <is>
+          <t>22VEIK79</t>
+        </is>
+      </c>
+      <c r="D26" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E26" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F26" s="31" t="inlineStr">
+        <is>
+          <t>05-01-2022</t>
+        </is>
+      </c>
+      <c r="G26" s="31" t="inlineStr">
+        <is>
+          <t>28-02-2022</t>
+        </is>
+      </c>
+      <c r="H26" s="22" t="inlineStr">
+        <is>
+          <t>VEIK - UAE</t>
+        </is>
+      </c>
+      <c r="I26" s="12" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="J26" s="9" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K26" s="33" t="n">
+        <v>30586.48</v>
+      </c>
+      <c r="L26" s="34" t="n">
+        <v>18763.025</v>
+      </c>
+      <c r="M26" s="34" t="n">
+        <v>4295.016</v>
+      </c>
+      <c r="N26" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="34" t="n">
+        <v>566.08</v>
+      </c>
+      <c r="P26" s="34" t="n">
+        <v>51.24</v>
+      </c>
+      <c r="Q26" s="35" t="n">
+        <v>26.72</v>
+      </c>
+      <c r="R26" s="35" t="n">
+        <v>825</v>
+      </c>
+      <c r="S26" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" s="35" t="n">
+        <v>2600</v>
+      </c>
+      <c r="U26" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="36" t="n">
+        <v>53</v>
+      </c>
+      <c r="AB26" s="36" t="n">
+        <v>18.13</v>
+      </c>
+      <c r="AC26" s="37" t="n">
+        <v>27198.211</v>
+      </c>
+      <c r="AD26" s="38" t="n">
+        <v>3388.269</v>
+      </c>
+      <c r="AE26" s="17" t="n">
+        <v>49909.20237</v>
+      </c>
+      <c r="AF26" s="19" t="inlineStr">
+        <is>
+          <t>04-04-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="30" customHeight="1">
+      <c r="A27" s="28" t="inlineStr">
+        <is>
+          <t>Mehmet</t>
+        </is>
+      </c>
+      <c r="B27" s="28" t="inlineStr">
+        <is>
+          <t>Semih</t>
+        </is>
+      </c>
+      <c r="C27" s="28" t="inlineStr">
+        <is>
+          <t>22BERNARD01-1</t>
+        </is>
+      </c>
+      <c r="D27" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E27" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F27" s="31" t="inlineStr">
+        <is>
+          <t>23-02-2022</t>
+        </is>
+      </c>
+      <c r="G27" s="31" t="inlineStr">
+        <is>
+          <t>07-03-2022</t>
+        </is>
+      </c>
+      <c r="H27" s="22" t="inlineStr">
+        <is>
+          <t>Bernard Osei - Ghana</t>
+        </is>
+      </c>
+      <c r="I27" s="12" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K27" s="33" t="n">
+        <v>13127.6</v>
+      </c>
+      <c r="L27" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="34" t="n">
+        <v>4277.04</v>
+      </c>
+      <c r="O27" s="34" t="n">
+        <v>174.23</v>
+      </c>
+      <c r="P27" s="34" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="Q27" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" s="35" t="n">
+        <v>431.36</v>
+      </c>
+      <c r="S27" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" s="35" t="n">
+        <v>5800</v>
+      </c>
+      <c r="U27" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="36" t="n">
+        <v>20.11</v>
+      </c>
+      <c r="AC27" s="37" t="n">
+        <v>10732.78</v>
+      </c>
+      <c r="AD27" s="38" t="n">
+        <v>2394.82</v>
+      </c>
+      <c r="AE27" s="17" t="n">
+        <v>33120.3606</v>
+      </c>
+      <c r="AF27" s="19" t="inlineStr">
+        <is>
+          <t>23-02-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="30" customHeight="1">
+      <c r="A28" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B28" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C28" s="28" t="inlineStr">
+        <is>
+          <t>22GEMAG01</t>
+        </is>
+      </c>
+      <c r="D28" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E28" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F28" s="31" t="inlineStr">
+        <is>
+          <t>02-01-2022</t>
+        </is>
+      </c>
+      <c r="G28" s="31" t="inlineStr">
+        <is>
+          <t>07-03-2022</t>
+        </is>
+      </c>
+      <c r="H28" s="22" t="inlineStr">
+        <is>
+          <t>Hamza Boumaza - Algeria</t>
+        </is>
+      </c>
+      <c r="I28" s="12" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="J28" s="9" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K28" s="33" t="n">
+        <v>8175.84</v>
+      </c>
+      <c r="L28" s="34" t="n">
+        <v>5674.464</v>
+      </c>
+      <c r="M28" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="34" t="n">
+        <v>291.67</v>
+      </c>
+      <c r="P28" s="34" t="n">
+        <v>24.26</v>
+      </c>
+      <c r="Q28" s="35" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="R28" s="35" t="n">
         <v>400</v>
       </c>
-      <c r="S4" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="36" t="n">
-        <v>69.14</v>
-      </c>
-      <c r="AB4" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="37" t="n">
-        <v>11464.815</v>
-      </c>
-      <c r="AD4" s="38" t="n">
-        <v>459.935</v>
-      </c>
-      <c r="AE4" s="17" t="n">
-        <v>8274.23065</v>
-      </c>
-      <c r="AF4" s="19" t="inlineStr">
-        <is>
-          <t>11-08-2022</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="5">
-      <c r="A5" s="13" t="inlineStr">
+      <c r="S28" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" s="35" t="n">
+        <v>1350</v>
+      </c>
+      <c r="U28" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="36" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB28" s="36" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="AC28" s="37" t="n">
+        <v>7940.704</v>
+      </c>
+      <c r="AD28" s="38" t="n">
+        <v>235.136</v>
+      </c>
+      <c r="AE28" s="17" t="n">
+        <v>3454.14784</v>
+      </c>
+      <c r="AF28" s="19" t="inlineStr">
+        <is>
+          <t>20-04-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="30" customHeight="1">
+      <c r="A29" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B29" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C29" s="28" t="inlineStr">
+        <is>
+          <t>21PDG07-1</t>
+        </is>
+      </c>
+      <c r="D29" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E29" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F29" s="31" t="inlineStr">
+        <is>
+          <t>07-12-2021</t>
+        </is>
+      </c>
+      <c r="G29" s="31" t="inlineStr">
+        <is>
+          <t>08-03-2022</t>
+        </is>
+      </c>
+      <c r="H29" s="22" t="inlineStr">
+        <is>
+          <t>David, PDG - Australia</t>
+        </is>
+      </c>
+      <c r="I29" s="12" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="J29" s="9" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="K29" s="33" t="n">
+        <v>46061.67</v>
+      </c>
+      <c r="L29" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="34" t="n">
+        <v>30077.495</v>
+      </c>
+      <c r="O29" s="34" t="n">
+        <v>411.88</v>
+      </c>
+      <c r="P29" s="34" t="n">
+        <v>62.12</v>
+      </c>
+      <c r="Q29" s="35" t="n">
+        <v>134.18</v>
+      </c>
+      <c r="R29" s="35" t="n">
+        <v>675</v>
+      </c>
+      <c r="S29" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" s="35" t="n">
+        <v>4350</v>
+      </c>
+      <c r="U29" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="36" t="n">
+        <v>56.47</v>
+      </c>
+      <c r="AB29" s="36" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="AC29" s="37" t="n">
+        <v>35785.865</v>
+      </c>
+      <c r="AD29" s="38" t="n">
+        <v>10275.805</v>
+      </c>
+      <c r="AE29" s="17" t="n">
+        <v>167701.1376</v>
+      </c>
+      <c r="AF29" s="19" t="inlineStr">
+        <is>
+          <t>25-05-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="30" customHeight="1">
+      <c r="A30" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B30" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C30" s="28" t="inlineStr">
+        <is>
+          <t>21PDG07-2</t>
+        </is>
+      </c>
+      <c r="D30" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E30" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F30" s="31" t="inlineStr">
+        <is>
+          <t>07-12-2021</t>
+        </is>
+      </c>
+      <c r="G30" s="31" t="inlineStr">
+        <is>
+          <t>15-03-2022</t>
+        </is>
+      </c>
+      <c r="H30" s="22" t="inlineStr">
+        <is>
+          <t>David, PDG - Australia</t>
+        </is>
+      </c>
+      <c r="I30" s="12" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="J30" s="9" t="inlineStr">
+        <is>
+          <t>CIF</t>
+        </is>
+      </c>
+      <c r="K30" s="33" t="n">
+        <v>1120.6</v>
+      </c>
+      <c r="L30" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="34" t="n">
+        <v>470.8</v>
+      </c>
+      <c r="O30" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" s="34" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="Q30" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" s="35" t="n">
+        <v>200</v>
+      </c>
+      <c r="S30" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" s="35" t="n">
+        <v>195</v>
+      </c>
+      <c r="U30" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="36" t="n">
+        <v>18.91</v>
+      </c>
+      <c r="AC30" s="37" t="n">
+        <v>902.29</v>
+      </c>
+      <c r="AD30" s="38" t="n">
+        <v>218.31</v>
+      </c>
+      <c r="AE30" s="17" t="n">
+        <v>3562.8192</v>
+      </c>
+      <c r="AF30" s="19" t="inlineStr">
+        <is>
+          <t>25-05-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="30" customHeight="1">
+      <c r="A31" s="28" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B31" s="28" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C31" s="28" t="inlineStr">
+        <is>
+          <t>22HAMAD02-1</t>
+        </is>
+      </c>
+      <c r="D31" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E31" s="30" t="inlineStr">
+        <is>
+          <t>Efes</t>
+        </is>
+      </c>
+      <c r="F31" s="31" t="inlineStr">
+        <is>
+          <t>03-01-2022</t>
+        </is>
+      </c>
+      <c r="G31" s="31" t="inlineStr">
+        <is>
+          <t>15-03-2022</t>
+        </is>
+      </c>
+      <c r="H31" s="22" t="inlineStr">
+        <is>
+          <t>Hamad - Oman</t>
+        </is>
+      </c>
+      <c r="I31" s="12" t="inlineStr">
+        <is>
+          <t>Oman</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K31" s="33" t="n">
+        <v>16330.4</v>
+      </c>
+      <c r="L31" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="34" t="n">
+        <v>14305.6228</v>
+      </c>
+      <c r="O31" s="34" t="n">
+        <v>312.13</v>
+      </c>
+      <c r="P31" s="34" t="n">
+        <v>59.16</v>
+      </c>
+      <c r="Q31" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" s="35" t="n">
+        <v>475</v>
+      </c>
+      <c r="S31" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" s="35" t="n">
+        <v>1450</v>
+      </c>
+      <c r="U31" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="36" t="n">
+        <v>17.81</v>
+      </c>
+      <c r="AC31" s="37" t="n">
+        <v>16619.7228</v>
+      </c>
+      <c r="AD31" s="38" t="n">
+        <v>-289.3228</v>
+      </c>
+      <c r="AE31" s="17" t="n">
+        <v>-4244.365476</v>
+      </c>
+      <c r="AF31" s="19" t="inlineStr">
+        <is>
+          <t>18-04-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="30" customHeight="1">
+      <c r="A32" s="28" t="inlineStr">
         <is>
           <t>Mehmet</t>
         </is>
       </c>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B32" s="28" t="inlineStr">
         <is>
           <t>Semih</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
-        <is>
-          <t>22BERNARD01-4</t>
-        </is>
-      </c>
-      <c r="D5" s="22" t="inlineStr">
+      <c r="C32" s="28" t="inlineStr">
+        <is>
+          <t>22BERNARD01-2</t>
+        </is>
+      </c>
+      <c r="D32" s="30" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="E5" s="22" t="inlineStr">
+      <c r="E32" s="30" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="F5" s="32" t="inlineStr">
+      <c r="F32" s="31" t="inlineStr">
         <is>
           <t>23-02-2022</t>
         </is>
       </c>
-      <c r="G5" s="32" t="inlineStr">
-        <is>
-          <t>04-08-2022</t>
-        </is>
-      </c>
-      <c r="H5" s="12" t="inlineStr">
+      <c r="G32" s="31" t="inlineStr">
+        <is>
+          <t>18-03-2022</t>
+        </is>
+      </c>
+      <c r="H32" s="22" t="inlineStr">
         <is>
           <t>Bernard Osei - Ghana</t>
         </is>
       </c>
-      <c r="I5" s="3" t="inlineStr">
+      <c r="I32" s="12" t="inlineStr">
         <is>
           <t>Ghana</t>
         </is>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="J32" s="9" t="inlineStr">
         <is>
           <t>CFR</t>
         </is>
       </c>
-      <c r="K5" s="33" t="n">
-        <v>22371.05</v>
-      </c>
-      <c r="L5" s="34" t="n">
-        <v>15990.438</v>
-      </c>
-      <c r="M5" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="34" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="Q5" s="35" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="R5" s="35" t="n">
+      <c r="K32" s="33" t="n">
+        <v>12910.1</v>
+      </c>
+      <c r="L32" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="34" t="n">
+        <v>3957.54</v>
+      </c>
+      <c r="O32" s="34" t="n">
+        <v>215.27</v>
+      </c>
+      <c r="P32" s="34" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="Q32" s="35" t="n">
+        <v>39.85</v>
+      </c>
+      <c r="R32" s="35" t="n">
         <v>400</v>
       </c>
-      <c r="S5" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="35" t="n">
-        <v>2935</v>
-      </c>
-      <c r="U5" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="36" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="AC5" s="37" t="n">
-        <v>19411.358</v>
-      </c>
-      <c r="AD5" s="38" t="n">
-        <v>2959.692</v>
-      </c>
-      <c r="AE5" s="17" t="n">
-        <v>43477.87548</v>
-      </c>
-      <c r="AF5" s="19" t="inlineStr">
+      <c r="S32" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" s="35" t="n">
+        <v>6500</v>
+      </c>
+      <c r="U32" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="36" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB32" s="36" t="n">
+        <v>20.47</v>
+      </c>
+      <c r="AC32" s="37" t="n">
+        <v>11207.58</v>
+      </c>
+      <c r="AD32" s="38" t="n">
+        <v>1702.52</v>
+      </c>
+      <c r="AE32" s="17" t="n">
+        <v>25010.0188</v>
+      </c>
+      <c r="AF32" s="19" t="inlineStr">
         <is>
           <t>30-03-2022</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="6">
-      <c r="A6" s="13" t="inlineStr">
+    <row r="33" ht="30" customHeight="1">
+      <c r="A33" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="B33" s="28" t="inlineStr">
+        <is>
+          <t>Ozlem</t>
+        </is>
+      </c>
+      <c r="C33" s="28" t="inlineStr">
+        <is>
+          <t>21ESI01-1</t>
+        </is>
+      </c>
+      <c r="D33" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E33" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F33" s="31" t="inlineStr">
+        <is>
+          <t>22-09-2021</t>
+        </is>
+      </c>
+      <c r="G33" s="31" t="inlineStr">
+        <is>
+          <t>19-03-2022</t>
+        </is>
+      </c>
+      <c r="H33" s="22" t="inlineStr">
+        <is>
+          <t>Esi Okyere - Ghana</t>
+        </is>
+      </c>
+      <c r="I33" s="12" t="inlineStr">
         <is>
           <t>Ghana</t>
         </is>
       </c>
-      <c r="B6" s="13" t="inlineStr">
-        <is>
-          <t>Semih</t>
-        </is>
-      </c>
-      <c r="C6" s="13" t="inlineStr">
-        <is>
-          <t>Carl Mutt - 3</t>
-        </is>
-      </c>
-      <c r="D6" s="22" t="inlineStr">
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K33" s="33" t="n">
+        <v>21853.8</v>
+      </c>
+      <c r="L33" s="34" t="n">
+        <v>1975.589</v>
+      </c>
+      <c r="M33" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="34" t="n">
+        <v>10654.6</v>
+      </c>
+      <c r="O33" s="34" t="n">
+        <v>411.73</v>
+      </c>
+      <c r="P33" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" s="35" t="n">
+        <v>400</v>
+      </c>
+      <c r="S33" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" s="35" t="n">
+        <v>2765</v>
+      </c>
+      <c r="U33" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="36" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB33" s="36" t="n">
+        <v>20.47</v>
+      </c>
+      <c r="AC33" s="37" t="n">
+        <v>16257.389</v>
+      </c>
+      <c r="AD33" s="38" t="n">
+        <v>5596.411</v>
+      </c>
+      <c r="AE33" s="17" t="n">
+        <v>82603.02636</v>
+      </c>
+      <c r="AF33" s="19" t="inlineStr">
+        <is>
+          <t>22-04-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="30" customHeight="1">
+      <c r="A34" s="28" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B34" s="28" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C34" s="28" t="inlineStr">
+        <is>
+          <t>22VEIK80-1</t>
+        </is>
+      </c>
+      <c r="D34" s="30" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="E6" s="22" t="inlineStr">
+      <c r="E34" s="30" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="F6" s="32" t="inlineStr">
+      <c r="F34" s="31" t="inlineStr">
+        <is>
+          <t>02-03-2022</t>
+        </is>
+      </c>
+      <c r="G34" s="31" t="inlineStr">
+        <is>
+          <t>21-03-2022</t>
+        </is>
+      </c>
+      <c r="H34" s="22" t="inlineStr">
+        <is>
+          <t>VEIK - UAE</t>
+        </is>
+      </c>
+      <c r="I34" s="12" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K34" s="33" t="n">
+        <v>15047.98</v>
+      </c>
+      <c r="L34" s="34" t="n">
+        <v>11962.176</v>
+      </c>
+      <c r="M34" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="34" t="n">
+        <v>310.58</v>
+      </c>
+      <c r="P34" s="34" t="n">
+        <v>32.24</v>
+      </c>
+      <c r="Q34" s="35" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="R34" s="35" t="n">
+        <v>600</v>
+      </c>
+      <c r="S34" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" s="35" t="n">
+        <v>1150</v>
+      </c>
+      <c r="U34" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="36" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB34" s="36" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="AC34" s="37" t="n">
+        <v>14135.686</v>
+      </c>
+      <c r="AD34" s="38" t="n">
+        <v>912.294</v>
+      </c>
+      <c r="AE34" s="17" t="n">
+        <v>13465.45944</v>
+      </c>
+      <c r="AF34" s="19" t="inlineStr">
+        <is>
+          <t>11-04-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="30" customHeight="1">
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>21ZKI02</t>
+        </is>
+      </c>
+      <c r="D35" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E35" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="F35" s="31" t="inlineStr">
+        <is>
+          <t>14-12-2021</t>
+        </is>
+      </c>
+      <c r="G35" s="31" t="inlineStr">
+        <is>
+          <t>22-03-2022</t>
+        </is>
+      </c>
+      <c r="H35" s="22" t="inlineStr">
+        <is>
+          <t>Roland - AU</t>
+        </is>
+      </c>
+      <c r="I35" s="12" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K35" s="33" t="n">
+        <v>46377.12</v>
+      </c>
+      <c r="L35" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="34" t="n">
+        <v>18712.3925</v>
+      </c>
+      <c r="O35" s="34" t="n">
+        <v>228.88</v>
+      </c>
+      <c r="P35" s="34" t="n">
+        <v>57.47</v>
+      </c>
+      <c r="Q35" s="35" t="n">
+        <v>300</v>
+      </c>
+      <c r="R35" s="35" t="n">
+        <v>1800</v>
+      </c>
+      <c r="S35" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" s="35" t="n">
+        <v>17250</v>
+      </c>
+      <c r="U35" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="36" t="n">
+        <v>18.91</v>
+      </c>
+      <c r="AC35" s="37" t="n">
+        <v>38367.6525</v>
+      </c>
+      <c r="AD35" s="38" t="n">
+        <v>8009.4675</v>
+      </c>
+      <c r="AE35" s="17" t="n">
+        <v>138083.2197</v>
+      </c>
+      <c r="AF35" s="19" t="inlineStr">
+        <is>
+          <t>06-07-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="30" customHeight="1">
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>Gizem</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>22HAMAD02-2</t>
+        </is>
+      </c>
+      <c r="D36" s="30" t="inlineStr">
+        <is>
+          <t>Mekmar</t>
+        </is>
+      </c>
+      <c r="E36" s="30" t="inlineStr">
+        <is>
+          <t>Efes</t>
+        </is>
+      </c>
+      <c r="F36" s="31" t="inlineStr">
+        <is>
+          <t>03-01-2022</t>
+        </is>
+      </c>
+      <c r="G36" s="31" t="inlineStr">
+        <is>
+          <t>22-03-2022</t>
+        </is>
+      </c>
+      <c r="H36" s="22" t="inlineStr">
+        <is>
+          <t>Hamad - Oman</t>
+        </is>
+      </c>
+      <c r="I36" s="12" t="inlineStr">
+        <is>
+          <t>Oman</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="K36" s="33" t="n">
+        <v>14696</v>
+      </c>
+      <c r="L36" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="34" t="n">
+        <v>12640</v>
+      </c>
+      <c r="O36" s="34" t="n">
+        <v>311.56</v>
+      </c>
+      <c r="P36" s="34" t="n">
+        <v>50.19</v>
+      </c>
+      <c r="Q36" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" s="35" t="n">
+        <v>475</v>
+      </c>
+      <c r="S36" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" s="35" t="n">
+        <v>1550</v>
+      </c>
+      <c r="U36" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="36" t="n">
+        <v>118.76</v>
+      </c>
+      <c r="AB36" s="36" t="n">
+        <v>17.81</v>
+      </c>
+      <c r="AC36" s="37" t="n">
+        <v>15163.32</v>
+      </c>
+      <c r="AD36" s="38" t="n">
+        <v>-467.32</v>
+      </c>
+      <c r="AE36" s="17" t="n">
+        <v>-7762.1852</v>
+      </c>
+      <c r="AF36" s="19" t="inlineStr">
         <is>
           <t>06-06-2022</t>
         </is>
       </c>
-      <c r="G6" s="32" t="inlineStr">
-        <is>
-          <t>04-08-2022</t>
-        </is>
-      </c>
-      <c r="H6" s="12" t="inlineStr">
-        <is>
-          <t>Henry - Ghana</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>CFR</t>
-        </is>
-      </c>
-      <c r="K6" s="33" t="n">
-        <v>38760.9</v>
-      </c>
-      <c r="L6" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="34" t="n">
-        <v>416.8</v>
-      </c>
-      <c r="P6" s="34" t="n">
-        <v>57.85</v>
-      </c>
-      <c r="Q6" s="35" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="R6" s="35" t="n">
-        <v>400</v>
-      </c>
-      <c r="S6" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="35" t="n">
-        <v>2935</v>
-      </c>
-      <c r="U6" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="36" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="AC6" s="37" t="n">
-        <v>3845.17</v>
-      </c>
-      <c r="AD6" s="38" t="n">
-        <v>34915.73</v>
-      </c>
-      <c r="AE6" s="17" t="n">
-        <v>583092.691</v>
-      </c>
-      <c r="AF6" s="19" t="inlineStr">
-        <is>
-          <t>27-06-2022</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="7">
-      <c r="A7" s="13" t="inlineStr">
-        <is>
-          <t>Fatih</t>
-        </is>
-      </c>
-      <c r="B7" s="13" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="C7" s="13" t="inlineStr">
-        <is>
-          <t>22FAS76</t>
-        </is>
-      </c>
-      <c r="D7" s="22" t="inlineStr">
+    </row>
+    <row r="37" ht="30" customHeight="1">
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>Mehmet</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Hakan</t>
+        </is>
+      </c>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>22AAC03</t>
+        </is>
+      </c>
+      <c r="D37" s="30" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="E7" s="22" t="inlineStr">
+      <c r="E37" s="30" t="inlineStr">
         <is>
           <t>Mekmar</t>
         </is>
       </c>
-      <c r="F7" s="32" t="inlineStr">
-        <is>
-          <t>24-05-2022</t>
-        </is>
-      </c>
-      <c r="G7" s="32" t="inlineStr">
-        <is>
-          <t>05-08-2022</t>
-        </is>
-      </c>
-      <c r="H7" s="12" t="inlineStr">
-        <is>
-          <t>Bennis - Morocco</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>Morocco</t>
-        </is>
-      </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>CFR</t>
-        </is>
-      </c>
-      <c r="K7" s="33" t="n">
-        <v>18687.62</v>
-      </c>
-      <c r="L7" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="34" t="n">
-        <v>13771.84</v>
-      </c>
-      <c r="O7" s="34" t="n">
-        <v>583.47</v>
-      </c>
-      <c r="P7" s="34" t="n">
-        <v>36.84</v>
-      </c>
-      <c r="Q7" s="35" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="R7" s="35" t="n">
-        <v>400</v>
-      </c>
-      <c r="S7" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="35" t="n">
-        <v>1885</v>
-      </c>
-      <c r="U7" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="36" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB7" s="36" t="n">
-        <v>16.58</v>
-      </c>
-      <c r="AC7" s="37" t="n">
-        <v>16752.07</v>
-      </c>
-      <c r="AD7" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="8">
-      <c r="A8" s="13" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="B8" s="13" t="inlineStr">
-        <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="C8" s="13" t="inlineStr">
-        <is>
-          <t>22JFB04</t>
-        </is>
-      </c>
-      <c r="D8" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E8" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F8" s="32" t="inlineStr">
-        <is>
-          <t>12-05-2022</t>
-        </is>
-      </c>
-      <c r="G8" s="32" t="inlineStr">
-        <is>
-          <t>08-08-2022</t>
-        </is>
-      </c>
-      <c r="H8" s="12" t="inlineStr">
-        <is>
-          <t>JFB - Nevis</t>
-        </is>
-      </c>
-      <c r="I8" s="3" t="inlineStr">
-        <is>
-          <t>Saint Kitts and Nevis</t>
-        </is>
-      </c>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="F37" s="31" t="inlineStr">
+        <is>
+          <t>21-03-2022</t>
+        </is>
+      </c>
+      <c r="G37" s="31" t="inlineStr">
+        <is>
+          <t>23-03-2022</t>
+        </is>
+      </c>
+      <c r="H37" s="22" t="inlineStr">
+        <is>
+          <t>Veysi &amp; Assham - Libya</t>
+        </is>
+      </c>
+      <c r="I37" s="12" t="inlineStr">
+        <is>
+          <t>Libya</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
         <is>
           <t>FCA</t>
         </is>
       </c>
-      <c r="K8" s="33" t="n">
-        <v>20502.52</v>
-      </c>
-      <c r="L8" s="34" t="n">
-        <v>3996.156</v>
-      </c>
-      <c r="M8" s="34" t="n">
-        <v>6205.986</v>
-      </c>
-      <c r="N8" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="34" t="n">
-        <v>40.43</v>
-      </c>
-      <c r="Q8" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="35" t="n">
-        <v>400</v>
-      </c>
-      <c r="S8" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="35" t="n">
-        <v>8450</v>
-      </c>
-      <c r="U8" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="36" t="n">
-        <v>77</v>
-      </c>
-      <c r="AB8" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="37" t="n">
-        <v>19169.572</v>
-      </c>
-      <c r="AD8" s="38" t="n">
-        <v>1332.948</v>
-      </c>
-      <c r="AE8" s="17" t="n">
-        <v>24033.05244</v>
-      </c>
-      <c r="AF8" s="19" t="inlineStr">
-        <is>
-          <t>18-08-2022</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="9">
-      <c r="A9" s="13" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="B9" s="13" t="inlineStr">
-        <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="C9" s="13" t="inlineStr">
-        <is>
-          <t>22HAMAD02-3</t>
-        </is>
-      </c>
-      <c r="D9" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E9" s="22" t="inlineStr">
-        <is>
-          <t>Efes</t>
-        </is>
-      </c>
-      <c r="F9" s="32" t="inlineStr">
-        <is>
-          <t>03-01-2022</t>
-        </is>
-      </c>
-      <c r="G9" s="32" t="inlineStr">
-        <is>
-          <t>11-08-2022</t>
-        </is>
-      </c>
-      <c r="H9" s="12" t="inlineStr">
-        <is>
-          <t>Hamad - Oman</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="inlineStr">
-        <is>
-          <t>Oman</t>
-        </is>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
-        <is>
-          <t>CFR</t>
-        </is>
-      </c>
-      <c r="K9" s="33" t="n">
-        <v>16360</v>
-      </c>
-      <c r="L9" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="34" t="n">
-        <v>12320</v>
-      </c>
-      <c r="O9" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="35" t="n">
-        <v>975</v>
-      </c>
-      <c r="U9" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="37" t="n">
-        <v>13295</v>
-      </c>
-      <c r="AD9" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="10">
-      <c r="A10" s="13" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="B10" s="13" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C10" s="13" t="inlineStr">
-        <is>
-          <t>22PP11</t>
-        </is>
-      </c>
-      <c r="D10" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E10" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F10" s="32" t="inlineStr">
-        <is>
-          <t>16-06-2022</t>
-        </is>
-      </c>
-      <c r="G10" s="32" t="inlineStr">
-        <is>
-          <t>20-08-2022</t>
-        </is>
-      </c>
-      <c r="H10" s="12" t="inlineStr">
-        <is>
-          <t>Bigeni - Malta</t>
-        </is>
-      </c>
-      <c r="I10" s="3" t="inlineStr">
-        <is>
-          <t>Malta</t>
-        </is>
-      </c>
-      <c r="J10" s="3" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
-      <c r="K10" s="33" t="n">
-        <v>17479.63</v>
-      </c>
-      <c r="L10" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="34" t="n">
-        <v>11011.3885</v>
-      </c>
-      <c r="O10" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="36" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="AB10" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="37" t="n">
-        <v>11037.5885</v>
-      </c>
-      <c r="AD10" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="11">
-      <c r="A11" s="13" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="B11" s="13" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C11" s="13" t="inlineStr">
-        <is>
-          <t>22PP12-1</t>
-        </is>
-      </c>
-      <c r="D11" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E11" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F11" s="32" t="inlineStr">
-        <is>
-          <t>01-07-2022</t>
-        </is>
-      </c>
-      <c r="G11" s="32" t="inlineStr">
-        <is>
-          <t>20-08-2022</t>
-        </is>
-      </c>
-      <c r="H11" s="12" t="inlineStr">
-        <is>
-          <t>Bigeni - Malta</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="inlineStr">
-        <is>
-          <t>Malta</t>
-        </is>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>FCA</t>
-        </is>
-      </c>
-      <c r="K11" s="33" t="n">
-        <v>5443.76</v>
-      </c>
-      <c r="L11" s="34" t="n">
-        <v>2104.311</v>
-      </c>
-      <c r="M11" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="34" t="n">
-        <v>1601.6</v>
-      </c>
-      <c r="O11" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="37" t="n">
-        <v>3705.911</v>
-      </c>
-      <c r="AD11" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="12">
-      <c r="A12" s="13" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="B12" s="13" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C12" s="13" t="inlineStr">
-        <is>
-          <t>21PP10-3</t>
-        </is>
-      </c>
-      <c r="D12" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E12" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F12" s="32" t="inlineStr">
-        <is>
-          <t>22-10-2021</t>
-        </is>
-      </c>
-      <c r="G12" s="32" t="inlineStr">
-        <is>
-          <t>20-08-2022</t>
-        </is>
-      </c>
-      <c r="H12" s="12" t="inlineStr">
-        <is>
-          <t>Bigeni - Malta</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="inlineStr">
-        <is>
-          <t>Malta</t>
-        </is>
-      </c>
-      <c r="J12" s="3" t="inlineStr">
-        <is>
-          <t>FCA</t>
-        </is>
-      </c>
-      <c r="K12" s="33" t="n">
-        <v>15764.85</v>
-      </c>
-      <c r="L12" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="34" t="n">
-        <v>8569.379999999999</v>
-      </c>
-      <c r="O12" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="37" t="n">
-        <v>8569.379999999999</v>
-      </c>
-      <c r="AD12" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="13">
-      <c r="A13" s="13" t="inlineStr">
-        <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="B13" s="13" t="inlineStr">
-        <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="C13" s="13" t="inlineStr">
-        <is>
-          <t>22FSBU01</t>
-        </is>
-      </c>
-      <c r="D13" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E13" s="22" t="inlineStr">
-        <is>
-          <t>Efes</t>
-        </is>
-      </c>
-      <c r="F13" s="32" t="inlineStr">
-        <is>
-          <t>13-07-2022</t>
-        </is>
-      </c>
-      <c r="G13" s="32" t="inlineStr">
-        <is>
-          <t>20-08-2022</t>
-        </is>
-      </c>
-      <c r="H13" s="12" t="inlineStr">
-        <is>
-          <t>Emily - Singapore</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="inlineStr">
-        <is>
-          <t>Singapore</t>
-        </is>
-      </c>
-      <c r="J13" s="3" t="inlineStr">
-        <is>
-          <t>CFR</t>
-        </is>
-      </c>
-      <c r="K13" s="33" t="n">
-        <v>27311.16</v>
-      </c>
-      <c r="L13" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="34" t="n">
-        <v>17212.22</v>
-      </c>
-      <c r="O13" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" s="35" t="n">
-        <v>2000</v>
-      </c>
-      <c r="U13" s="35" t="n">
-        <v>60</v>
-      </c>
-      <c r="V13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="36" t="n">
-        <v>49.94</v>
-      </c>
-      <c r="AB13" s="36" t="n">
-        <v>17.33</v>
-      </c>
-      <c r="AC13" s="37" t="n">
-        <v>19339.49</v>
-      </c>
-      <c r="AD13" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="14">
-      <c r="A14" s="13" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="B14" s="13" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C14" s="13" t="inlineStr">
-        <is>
-          <t>22FLOS45</t>
-        </is>
-      </c>
-      <c r="D14" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E14" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F14" s="32" t="inlineStr">
-        <is>
-          <t>27-07-2022</t>
-        </is>
-      </c>
-      <c r="G14" s="32" t="inlineStr">
-        <is>
-          <t>22-08-2022</t>
-        </is>
-      </c>
-      <c r="H14" s="12" t="inlineStr">
-        <is>
-          <t>Flos - Malta</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>Malta</t>
-        </is>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>FOB</t>
-        </is>
-      </c>
-      <c r="K14" s="33" t="n">
-        <v>14816.29</v>
-      </c>
-      <c r="L14" s="34" t="n">
-        <v>6964.7085</v>
-      </c>
-      <c r="M14" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="37" t="n">
-        <v>6964.7085</v>
-      </c>
-      <c r="AD14" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="15">
-      <c r="A15" s="13" t="n"/>
-      <c r="B15" s="13" t="n"/>
-      <c r="C15" s="13" t="n"/>
-      <c r="D15" s="22" t="n"/>
-      <c r="E15" s="22" t="n"/>
-      <c r="F15" s="32" t="n"/>
-      <c r="G15" s="32" t="n"/>
-      <c r="H15" s="12" t="n"/>
-      <c r="I15" s="3" t="n"/>
-      <c r="J15" s="3" t="n"/>
-      <c r="K15" s="33" t="n"/>
-      <c r="L15" s="34" t="n"/>
-      <c r="M15" s="34" t="n"/>
-      <c r="N15" s="34" t="n"/>
-      <c r="O15" s="34" t="n"/>
-      <c r="P15" s="34" t="n"/>
-      <c r="Q15" s="35" t="n"/>
-      <c r="R15" s="35" t="n"/>
-      <c r="S15" s="35" t="n"/>
-      <c r="T15" s="35" t="n"/>
-      <c r="U15" s="35" t="n"/>
-      <c r="V15" s="35" t="n"/>
-      <c r="W15" s="35" t="n"/>
-      <c r="X15" s="35" t="n"/>
-      <c r="Y15" s="36" t="n"/>
-      <c r="Z15" s="36" t="n"/>
-      <c r="AA15" s="36" t="n"/>
-      <c r="AB15" s="36" t="n"/>
-      <c r="AC15" s="37" t="n"/>
-      <c r="AD15" s="38" t="n"/>
-      <c r="AE15" s="17" t="n"/>
-      <c r="AF15" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="16">
-      <c r="A16" s="13" t="n"/>
-      <c r="B16" s="13" t="n"/>
-      <c r="C16" s="13" t="n"/>
-      <c r="D16" s="22" t="n"/>
-      <c r="E16" s="22" t="n"/>
-      <c r="F16" s="32" t="n"/>
-      <c r="G16" s="32" t="n"/>
-      <c r="H16" s="12" t="n"/>
-      <c r="I16" s="3" t="n"/>
-      <c r="J16" s="3" t="n"/>
-      <c r="K16" s="33" t="n"/>
-      <c r="L16" s="34" t="n"/>
-      <c r="M16" s="34" t="n"/>
-      <c r="N16" s="34" t="n"/>
-      <c r="O16" s="34" t="n"/>
-      <c r="P16" s="34" t="n"/>
-      <c r="Q16" s="35" t="n"/>
-      <c r="R16" s="35" t="n"/>
-      <c r="S16" s="35" t="n"/>
-      <c r="T16" s="35" t="n"/>
-      <c r="U16" s="35" t="n"/>
-      <c r="V16" s="35" t="n"/>
-      <c r="W16" s="35" t="n"/>
-      <c r="X16" s="35" t="n"/>
-      <c r="Y16" s="36" t="n"/>
-      <c r="Z16" s="36" t="n"/>
-      <c r="AA16" s="36" t="n"/>
-      <c r="AB16" s="36" t="n"/>
-      <c r="AC16" s="37" t="n"/>
-      <c r="AD16" s="38" t="n"/>
-      <c r="AE16" s="17" t="n"/>
-      <c r="AF16" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="17">
-      <c r="A17" s="13" t="n"/>
-      <c r="B17" s="13" t="n"/>
-      <c r="C17" s="13" t="n"/>
-      <c r="D17" s="22" t="n"/>
-      <c r="E17" s="22" t="n"/>
-      <c r="F17" s="32" t="n"/>
-      <c r="G17" s="32" t="n"/>
-      <c r="H17" s="12" t="n"/>
-      <c r="I17" s="3" t="n"/>
-      <c r="J17" s="3" t="n"/>
-      <c r="K17" s="33" t="n"/>
-      <c r="L17" s="34" t="n"/>
-      <c r="M17" s="34" t="n"/>
-      <c r="N17" s="34" t="n"/>
-      <c r="O17" s="34" t="n"/>
-      <c r="P17" s="34" t="n"/>
-      <c r="Q17" s="35" t="n"/>
-      <c r="R17" s="35" t="n"/>
-      <c r="S17" s="35" t="n"/>
-      <c r="T17" s="35" t="n"/>
-      <c r="U17" s="35" t="n"/>
-      <c r="V17" s="35" t="n"/>
-      <c r="W17" s="35" t="n"/>
-      <c r="X17" s="35" t="n"/>
-      <c r="Y17" s="36" t="n"/>
-      <c r="Z17" s="36" t="n"/>
-      <c r="AA17" s="36" t="n"/>
-      <c r="AB17" s="36" t="n"/>
-      <c r="AC17" s="37" t="n"/>
-      <c r="AD17" s="38" t="n"/>
-      <c r="AE17" s="17" t="n"/>
-      <c r="AF17" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="18">
-      <c r="A18" s="13" t="n"/>
-      <c r="B18" s="13" t="n"/>
-      <c r="C18" s="13" t="n"/>
-      <c r="D18" s="22" t="n"/>
-      <c r="E18" s="22" t="n"/>
-      <c r="F18" s="32" t="n"/>
-      <c r="G18" s="32" t="n"/>
-      <c r="H18" s="21" t="n"/>
-      <c r="I18" s="3" t="n"/>
-      <c r="J18" s="3" t="n"/>
-      <c r="K18" s="33" t="n"/>
-      <c r="L18" s="34" t="n"/>
-      <c r="M18" s="34" t="n"/>
-      <c r="N18" s="34" t="n"/>
-      <c r="O18" s="34" t="n"/>
-      <c r="P18" s="34" t="n"/>
-      <c r="Q18" s="35" t="n"/>
-      <c r="R18" s="35" t="n"/>
-      <c r="S18" s="35" t="n"/>
-      <c r="T18" s="35" t="n"/>
-      <c r="U18" s="35" t="n"/>
-      <c r="V18" s="35" t="n"/>
-      <c r="W18" s="35" t="n"/>
-      <c r="X18" s="35" t="n"/>
-      <c r="Y18" s="36" t="n"/>
-      <c r="Z18" s="36" t="n"/>
-      <c r="AA18" s="36" t="n"/>
-      <c r="AB18" s="36" t="n"/>
-      <c r="AC18" s="37" t="n"/>
-      <c r="AD18" s="38" t="n"/>
-      <c r="AE18" s="17" t="n"/>
-      <c r="AF18" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="19">
-      <c r="A19" s="13" t="n"/>
-      <c r="B19" s="13" t="n"/>
-      <c r="C19" s="13" t="n"/>
-      <c r="D19" s="22" t="n"/>
-      <c r="E19" s="22" t="n"/>
-      <c r="F19" s="32" t="n"/>
-      <c r="G19" s="32" t="n"/>
-      <c r="H19" s="22" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="3" t="n"/>
-      <c r="K19" s="33" t="n"/>
-      <c r="L19" s="34" t="n"/>
-      <c r="M19" s="34" t="n"/>
-      <c r="N19" s="34" t="n"/>
-      <c r="O19" s="34" t="n"/>
-      <c r="P19" s="34" t="n"/>
-      <c r="Q19" s="35" t="n"/>
-      <c r="R19" s="35" t="n"/>
-      <c r="S19" s="35" t="n"/>
-      <c r="T19" s="35" t="n"/>
-      <c r="U19" s="35" t="n"/>
-      <c r="V19" s="35" t="n"/>
-      <c r="W19" s="35" t="n"/>
-      <c r="X19" s="35" t="n"/>
-      <c r="Y19" s="36" t="n"/>
-      <c r="Z19" s="36" t="n"/>
-      <c r="AA19" s="36" t="n"/>
-      <c r="AB19" s="36" t="n"/>
-      <c r="AC19" s="37" t="n"/>
-      <c r="AD19" s="38" t="n"/>
-      <c r="AE19" s="17" t="n"/>
-      <c r="AF19" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.8" r="20">
-      <c r="A20" s="13" t="n"/>
-      <c r="B20" s="13" t="n"/>
-      <c r="C20" s="13" t="n"/>
-      <c r="D20" s="22" t="n"/>
-      <c r="E20" s="22" t="n"/>
-      <c r="F20" s="32" t="n"/>
-      <c r="G20" s="32" t="n"/>
-      <c r="H20" s="22" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="9" t="n"/>
-      <c r="K20" s="33" t="n"/>
-      <c r="L20" s="34" t="n"/>
-      <c r="M20" s="34" t="n"/>
-      <c r="N20" s="34" t="n"/>
-      <c r="O20" s="34" t="n"/>
-      <c r="P20" s="34" t="n"/>
-      <c r="Q20" s="35" t="n"/>
-      <c r="R20" s="35" t="n"/>
-      <c r="S20" s="35" t="n"/>
-      <c r="T20" s="35" t="n"/>
-      <c r="U20" s="35" t="n"/>
-      <c r="V20" s="35" t="n"/>
-      <c r="W20" s="35" t="n"/>
-      <c r="X20" s="35" t="n"/>
-      <c r="Y20" s="36" t="n"/>
-      <c r="Z20" s="36" t="n"/>
-      <c r="AA20" s="36" t="n"/>
-      <c r="AB20" s="36" t="n"/>
-      <c r="AC20" s="37" t="n"/>
-      <c r="AD20" s="38" t="n"/>
-      <c r="AE20" s="17" t="n"/>
-      <c r="AF20" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="21">
-      <c r="A21" s="28" t="n"/>
-      <c r="B21" s="28" t="n"/>
-      <c r="C21" s="28" t="n"/>
-      <c r="D21" s="30" t="n"/>
-      <c r="E21" s="30" t="n"/>
-      <c r="F21" s="31" t="n"/>
-      <c r="G21" s="31" t="n"/>
-      <c r="H21" s="22" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="9" t="n"/>
-      <c r="K21" s="33" t="n"/>
-      <c r="L21" s="34" t="n"/>
-      <c r="M21" s="34" t="n"/>
-      <c r="N21" s="34" t="n"/>
-      <c r="O21" s="34" t="n"/>
-      <c r="P21" s="34" t="n"/>
-      <c r="Q21" s="35" t="n"/>
-      <c r="R21" s="35" t="n"/>
-      <c r="S21" s="35" t="n"/>
-      <c r="T21" s="35" t="n"/>
-      <c r="U21" s="35" t="n"/>
-      <c r="V21" s="35" t="n"/>
-      <c r="W21" s="35" t="n"/>
-      <c r="X21" s="35" t="n"/>
-      <c r="Y21" s="36" t="n"/>
-      <c r="Z21" s="36" t="n"/>
-      <c r="AA21" s="36" t="n"/>
-      <c r="AB21" s="36" t="n"/>
-      <c r="AC21" s="37" t="n"/>
-      <c r="AD21" s="38" t="n"/>
-      <c r="AE21" s="17" t="n"/>
-      <c r="AF21" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="22">
-      <c r="A22" s="28" t="n"/>
-      <c r="B22" s="28" t="n"/>
-      <c r="C22" s="28" t="n"/>
-      <c r="D22" s="30" t="n"/>
-      <c r="E22" s="30" t="n"/>
-      <c r="F22" s="31" t="n"/>
-      <c r="G22" s="31" t="n"/>
-      <c r="H22" s="22" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="9" t="n"/>
-      <c r="K22" s="33" t="n"/>
-      <c r="L22" s="34" t="n"/>
-      <c r="M22" s="34" t="n"/>
-      <c r="N22" s="34" t="n"/>
-      <c r="O22" s="34" t="n"/>
-      <c r="P22" s="34" t="n"/>
-      <c r="Q22" s="35" t="n"/>
-      <c r="R22" s="35" t="n"/>
-      <c r="S22" s="35" t="n"/>
-      <c r="T22" s="35" t="n"/>
-      <c r="U22" s="35" t="n"/>
-      <c r="V22" s="35" t="n"/>
-      <c r="W22" s="35" t="n"/>
-      <c r="X22" s="35" t="n"/>
-      <c r="Y22" s="36" t="n"/>
-      <c r="Z22" s="36" t="n"/>
-      <c r="AA22" s="36" t="n"/>
-      <c r="AB22" s="36" t="n"/>
-      <c r="AC22" s="37" t="n"/>
-      <c r="AD22" s="38" t="n"/>
-      <c r="AE22" s="17" t="n"/>
-      <c r="AF22" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="23">
-      <c r="A23" s="28" t="n"/>
-      <c r="B23" s="28" t="n"/>
-      <c r="C23" s="28" t="n"/>
-      <c r="D23" s="30" t="n"/>
-      <c r="E23" s="30" t="n"/>
-      <c r="F23" s="31" t="n"/>
-      <c r="G23" s="31" t="n"/>
-      <c r="H23" s="22" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="9" t="n"/>
-      <c r="K23" s="33" t="n"/>
-      <c r="L23" s="34" t="n"/>
-      <c r="M23" s="34" t="n"/>
-      <c r="N23" s="34" t="n"/>
-      <c r="O23" s="34" t="n"/>
-      <c r="P23" s="34" t="n"/>
-      <c r="Q23" s="35" t="n"/>
-      <c r="R23" s="35" t="n"/>
-      <c r="S23" s="35" t="n"/>
-      <c r="T23" s="35" t="n"/>
-      <c r="U23" s="35" t="n"/>
-      <c r="V23" s="35" t="n"/>
-      <c r="W23" s="35" t="n"/>
-      <c r="X23" s="35" t="n"/>
-      <c r="Y23" s="36" t="n"/>
-      <c r="Z23" s="36" t="n"/>
-      <c r="AA23" s="36" t="n"/>
-      <c r="AB23" s="36" t="n"/>
-      <c r="AC23" s="37" t="n"/>
-      <c r="AD23" s="38" t="n"/>
-      <c r="AE23" s="17" t="n"/>
-      <c r="AF23" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="24">
-      <c r="A24" s="28" t="n"/>
-      <c r="B24" s="28" t="n"/>
-      <c r="C24" s="28" t="n"/>
-      <c r="D24" s="30" t="n"/>
-      <c r="E24" s="30" t="n"/>
-      <c r="F24" s="31" t="n"/>
-      <c r="G24" s="31" t="n"/>
-      <c r="H24" s="22" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="9" t="n"/>
-      <c r="K24" s="33" t="n"/>
-      <c r="L24" s="34" t="n"/>
-      <c r="M24" s="34" t="n"/>
-      <c r="N24" s="34" t="n"/>
-      <c r="O24" s="34" t="n"/>
-      <c r="P24" s="34" t="n"/>
-      <c r="Q24" s="35" t="n"/>
-      <c r="R24" s="35" t="n"/>
-      <c r="S24" s="35" t="n"/>
-      <c r="T24" s="35" t="n"/>
-      <c r="U24" s="35" t="n"/>
-      <c r="V24" s="35" t="n"/>
-      <c r="W24" s="35" t="n"/>
-      <c r="X24" s="35" t="n"/>
-      <c r="Y24" s="36" t="n"/>
-      <c r="Z24" s="36" t="n"/>
-      <c r="AA24" s="36" t="n"/>
-      <c r="AB24" s="36" t="n"/>
-      <c r="AC24" s="37" t="n"/>
-      <c r="AD24" s="38" t="n"/>
-      <c r="AE24" s="17" t="n"/>
-      <c r="AF24" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="25">
-      <c r="A25" s="28" t="n"/>
-      <c r="B25" s="28" t="n"/>
-      <c r="C25" s="28" t="n"/>
-      <c r="D25" s="30" t="n"/>
-      <c r="E25" s="30" t="n"/>
-      <c r="F25" s="31" t="n"/>
-      <c r="G25" s="31" t="n"/>
-      <c r="H25" s="22" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="9" t="n"/>
-      <c r="K25" s="33" t="n"/>
-      <c r="L25" s="34" t="n"/>
-      <c r="M25" s="34" t="n"/>
-      <c r="N25" s="34" t="n"/>
-      <c r="O25" s="34" t="n"/>
-      <c r="P25" s="34" t="n"/>
-      <c r="Q25" s="35" t="n"/>
-      <c r="R25" s="35" t="n"/>
-      <c r="S25" s="35" t="n"/>
-      <c r="T25" s="35" t="n"/>
-      <c r="U25" s="35" t="n"/>
-      <c r="V25" s="35" t="n"/>
-      <c r="W25" s="35" t="n"/>
-      <c r="X25" s="35" t="n"/>
-      <c r="Y25" s="36" t="n"/>
-      <c r="Z25" s="36" t="n"/>
-      <c r="AA25" s="36" t="n"/>
-      <c r="AB25" s="36" t="n"/>
-      <c r="AC25" s="37" t="n"/>
-      <c r="AD25" s="38" t="n"/>
-      <c r="AE25" s="17" t="n"/>
-      <c r="AF25" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="26">
-      <c r="A26" s="28" t="n"/>
-      <c r="B26" s="28" t="n"/>
-      <c r="C26" s="28" t="n"/>
-      <c r="D26" s="30" t="n"/>
-      <c r="E26" s="30" t="n"/>
-      <c r="F26" s="31" t="n"/>
-      <c r="G26" s="31" t="n"/>
-      <c r="H26" s="22" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="9" t="n"/>
-      <c r="K26" s="33" t="n"/>
-      <c r="L26" s="34" t="n"/>
-      <c r="M26" s="34" t="n"/>
-      <c r="N26" s="34" t="n"/>
-      <c r="O26" s="34" t="n"/>
-      <c r="P26" s="34" t="n"/>
-      <c r="Q26" s="35" t="n"/>
-      <c r="R26" s="35" t="n"/>
-      <c r="S26" s="35" t="n"/>
-      <c r="T26" s="35" t="n"/>
-      <c r="U26" s="35" t="n"/>
-      <c r="V26" s="35" t="n"/>
-      <c r="W26" s="35" t="n"/>
-      <c r="X26" s="35" t="n"/>
-      <c r="Y26" s="36" t="n"/>
-      <c r="Z26" s="36" t="n"/>
-      <c r="AA26" s="36" t="n"/>
-      <c r="AB26" s="36" t="n"/>
-      <c r="AC26" s="37" t="n"/>
-      <c r="AD26" s="38" t="n"/>
-      <c r="AE26" s="17" t="n"/>
-      <c r="AF26" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="27">
-      <c r="A27" s="28" t="n"/>
-      <c r="B27" s="28" t="n"/>
-      <c r="C27" s="28" t="n"/>
-      <c r="D27" s="30" t="n"/>
-      <c r="E27" s="30" t="n"/>
-      <c r="F27" s="31" t="n"/>
-      <c r="G27" s="31" t="n"/>
-      <c r="H27" s="22" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="9" t="n"/>
-      <c r="K27" s="33" t="n"/>
-      <c r="L27" s="34" t="n"/>
-      <c r="M27" s="34" t="n"/>
-      <c r="N27" s="34" t="n"/>
-      <c r="O27" s="34" t="n"/>
-      <c r="P27" s="34" t="n"/>
-      <c r="Q27" s="35" t="n"/>
-      <c r="R27" s="35" t="n"/>
-      <c r="S27" s="35" t="n"/>
-      <c r="T27" s="35" t="n"/>
-      <c r="U27" s="35" t="n"/>
-      <c r="V27" s="35" t="n"/>
-      <c r="W27" s="35" t="n"/>
-      <c r="X27" s="35" t="n"/>
-      <c r="Y27" s="36" t="n"/>
-      <c r="Z27" s="36" t="n"/>
-      <c r="AA27" s="36" t="n"/>
-      <c r="AB27" s="36" t="n"/>
-      <c r="AC27" s="37" t="n"/>
-      <c r="AD27" s="38" t="n"/>
-      <c r="AE27" s="17" t="n"/>
-      <c r="AF27" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="28">
-      <c r="A28" s="28" t="n"/>
-      <c r="B28" s="28" t="n"/>
-      <c r="C28" s="28" t="n"/>
-      <c r="D28" s="30" t="n"/>
-      <c r="E28" s="30" t="n"/>
-      <c r="F28" s="31" t="n"/>
-      <c r="G28" s="31" t="n"/>
-      <c r="H28" s="22" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="9" t="n"/>
-      <c r="K28" s="33" t="n"/>
-      <c r="L28" s="34" t="n"/>
-      <c r="M28" s="34" t="n"/>
-      <c r="N28" s="34" t="n"/>
-      <c r="O28" s="34" t="n"/>
-      <c r="P28" s="34" t="n"/>
-      <c r="Q28" s="35" t="n"/>
-      <c r="R28" s="35" t="n"/>
-      <c r="S28" s="35" t="n"/>
-      <c r="T28" s="35" t="n"/>
-      <c r="U28" s="35" t="n"/>
-      <c r="V28" s="35" t="n"/>
-      <c r="W28" s="35" t="n"/>
-      <c r="X28" s="35" t="n"/>
-      <c r="Y28" s="36" t="n"/>
-      <c r="Z28" s="36" t="n"/>
-      <c r="AA28" s="36" t="n"/>
-      <c r="AB28" s="36" t="n"/>
-      <c r="AC28" s="37" t="n"/>
-      <c r="AD28" s="38" t="n"/>
-      <c r="AE28" s="17" t="n"/>
-      <c r="AF28" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="29">
-      <c r="A29" s="28" t="n"/>
-      <c r="B29" s="28" t="n"/>
-      <c r="C29" s="28" t="n"/>
-      <c r="D29" s="30" t="n"/>
-      <c r="E29" s="30" t="n"/>
-      <c r="F29" s="31" t="n"/>
-      <c r="G29" s="31" t="n"/>
-      <c r="H29" s="22" t="n"/>
-      <c r="I29" s="12" t="n"/>
-      <c r="J29" s="9" t="n"/>
-      <c r="K29" s="33" t="n"/>
-      <c r="L29" s="34" t="n"/>
-      <c r="M29" s="34" t="n"/>
-      <c r="N29" s="34" t="n"/>
-      <c r="O29" s="34" t="n"/>
-      <c r="P29" s="34" t="n"/>
-      <c r="Q29" s="35" t="n"/>
-      <c r="R29" s="35" t="n"/>
-      <c r="S29" s="35" t="n"/>
-      <c r="T29" s="35" t="n"/>
-      <c r="U29" s="35" t="n"/>
-      <c r="V29" s="35" t="n"/>
-      <c r="W29" s="35" t="n"/>
-      <c r="X29" s="35" t="n"/>
-      <c r="Y29" s="36" t="n"/>
-      <c r="Z29" s="36" t="n"/>
-      <c r="AA29" s="36" t="n"/>
-      <c r="AB29" s="36" t="n"/>
-      <c r="AC29" s="37" t="n"/>
-      <c r="AD29" s="38" t="n"/>
-      <c r="AE29" s="17" t="n"/>
-      <c r="AF29" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="30">
-      <c r="A30" s="28" t="n"/>
-      <c r="B30" s="28" t="n"/>
-      <c r="C30" s="28" t="n"/>
-      <c r="D30" s="30" t="n"/>
-      <c r="E30" s="30" t="n"/>
-      <c r="F30" s="31" t="n"/>
-      <c r="G30" s="31" t="n"/>
-      <c r="H30" s="22" t="n"/>
-      <c r="I30" s="12" t="n"/>
-      <c r="J30" s="9" t="n"/>
-      <c r="K30" s="33" t="n"/>
-      <c r="L30" s="34" t="n"/>
-      <c r="M30" s="34" t="n"/>
-      <c r="N30" s="34" t="n"/>
-      <c r="O30" s="34" t="n"/>
-      <c r="P30" s="34" t="n"/>
-      <c r="Q30" s="35" t="n"/>
-      <c r="R30" s="35" t="n"/>
-      <c r="S30" s="35" t="n"/>
-      <c r="T30" s="35" t="n"/>
-      <c r="U30" s="35" t="n"/>
-      <c r="V30" s="35" t="n"/>
-      <c r="W30" s="35" t="n"/>
-      <c r="X30" s="35" t="n"/>
-      <c r="Y30" s="36" t="n"/>
-      <c r="Z30" s="36" t="n"/>
-      <c r="AA30" s="36" t="n"/>
-      <c r="AB30" s="36" t="n"/>
-      <c r="AC30" s="37" t="n"/>
-      <c r="AD30" s="38" t="n"/>
-      <c r="AE30" s="17" t="n"/>
-      <c r="AF30" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="31">
-      <c r="A31" s="28" t="n"/>
-      <c r="B31" s="28" t="n"/>
-      <c r="C31" s="28" t="n"/>
-      <c r="D31" s="30" t="n"/>
-      <c r="E31" s="30" t="n"/>
-      <c r="F31" s="31" t="n"/>
-      <c r="G31" s="31" t="n"/>
-      <c r="H31" s="22" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="9" t="n"/>
-      <c r="K31" s="33" t="n"/>
-      <c r="L31" s="34" t="n"/>
-      <c r="M31" s="34" t="n"/>
-      <c r="N31" s="34" t="n"/>
-      <c r="O31" s="34" t="n"/>
-      <c r="P31" s="34" t="n"/>
-      <c r="Q31" s="35" t="n"/>
-      <c r="R31" s="35" t="n"/>
-      <c r="S31" s="35" t="n"/>
-      <c r="T31" s="35" t="n"/>
-      <c r="U31" s="35" t="n"/>
-      <c r="V31" s="35" t="n"/>
-      <c r="W31" s="35" t="n"/>
-      <c r="X31" s="35" t="n"/>
-      <c r="Y31" s="36" t="n"/>
-      <c r="Z31" s="36" t="n"/>
-      <c r="AA31" s="36" t="n"/>
-      <c r="AB31" s="36" t="n"/>
-      <c r="AC31" s="37" t="n"/>
-      <c r="AD31" s="38" t="n"/>
-      <c r="AE31" s="17" t="n"/>
-      <c r="AF31" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="32">
-      <c r="A32" s="28" t="n"/>
-      <c r="B32" s="28" t="n"/>
-      <c r="C32" s="28" t="n"/>
-      <c r="D32" s="30" t="n"/>
-      <c r="E32" s="30" t="n"/>
-      <c r="F32" s="31" t="n"/>
-      <c r="G32" s="31" t="n"/>
-      <c r="H32" s="22" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="9" t="n"/>
-      <c r="K32" s="33" t="n"/>
-      <c r="L32" s="34" t="n"/>
-      <c r="M32" s="34" t="n"/>
-      <c r="N32" s="34" t="n"/>
-      <c r="O32" s="34" t="n"/>
-      <c r="P32" s="34" t="n"/>
-      <c r="Q32" s="35" t="n"/>
-      <c r="R32" s="35" t="n"/>
-      <c r="S32" s="35" t="n"/>
-      <c r="T32" s="35" t="n"/>
-      <c r="U32" s="35" t="n"/>
-      <c r="V32" s="35" t="n"/>
-      <c r="W32" s="35" t="n"/>
-      <c r="X32" s="35" t="n"/>
-      <c r="Y32" s="36" t="n"/>
-      <c r="Z32" s="36" t="n"/>
-      <c r="AA32" s="36" t="n"/>
-      <c r="AB32" s="36" t="n"/>
-      <c r="AC32" s="37" t="n"/>
-      <c r="AD32" s="38" t="n"/>
-      <c r="AE32" s="17" t="n"/>
-      <c r="AF32" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="33">
-      <c r="A33" s="28" t="n"/>
-      <c r="B33" s="28" t="n"/>
-      <c r="C33" s="28" t="n"/>
-      <c r="D33" s="30" t="n"/>
-      <c r="E33" s="30" t="n"/>
-      <c r="F33" s="31" t="n"/>
-      <c r="G33" s="31" t="n"/>
-      <c r="H33" s="22" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="9" t="n"/>
-      <c r="K33" s="33" t="n"/>
-      <c r="L33" s="34" t="n"/>
-      <c r="M33" s="34" t="n"/>
-      <c r="N33" s="34" t="n"/>
-      <c r="O33" s="34" t="n"/>
-      <c r="P33" s="34" t="n"/>
-      <c r="Q33" s="35" t="n"/>
-      <c r="R33" s="35" t="n"/>
-      <c r="S33" s="35" t="n"/>
-      <c r="T33" s="35" t="n"/>
-      <c r="U33" s="35" t="n"/>
-      <c r="V33" s="35" t="n"/>
-      <c r="W33" s="35" t="n"/>
-      <c r="X33" s="35" t="n"/>
-      <c r="Y33" s="36" t="n"/>
-      <c r="Z33" s="36" t="n"/>
-      <c r="AA33" s="36" t="n"/>
-      <c r="AB33" s="36" t="n"/>
-      <c r="AC33" s="37" t="n"/>
-      <c r="AD33" s="38" t="n"/>
-      <c r="AE33" s="17" t="n"/>
-      <c r="AF33" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="34">
-      <c r="A34" s="28" t="n"/>
-      <c r="B34" s="28" t="n"/>
-      <c r="C34" s="28" t="n"/>
-      <c r="D34" s="30" t="n"/>
-      <c r="E34" s="30" t="n"/>
-      <c r="F34" s="31" t="n"/>
-      <c r="G34" s="31" t="n"/>
-      <c r="H34" s="22" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="9" t="n"/>
-      <c r="K34" s="33" t="n"/>
-      <c r="L34" s="34" t="n"/>
-      <c r="M34" s="34" t="n"/>
-      <c r="N34" s="34" t="n"/>
-      <c r="O34" s="34" t="n"/>
-      <c r="P34" s="34" t="n"/>
-      <c r="Q34" s="35" t="n"/>
-      <c r="R34" s="35" t="n"/>
-      <c r="S34" s="35" t="n"/>
-      <c r="T34" s="35" t="n"/>
-      <c r="U34" s="35" t="n"/>
-      <c r="V34" s="35" t="n"/>
-      <c r="W34" s="35" t="n"/>
-      <c r="X34" s="35" t="n"/>
-      <c r="Y34" s="36" t="n"/>
-      <c r="Z34" s="36" t="n"/>
-      <c r="AA34" s="36" t="n"/>
-      <c r="AB34" s="36" t="n"/>
-      <c r="AC34" s="37" t="n"/>
-      <c r="AD34" s="38" t="n"/>
-      <c r="AE34" s="17" t="n"/>
-      <c r="AF34" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="28" t="n"/>
-      <c r="D35" s="30" t="n"/>
-      <c r="E35" s="30" t="n"/>
-      <c r="F35" s="31" t="n"/>
-      <c r="G35" s="31" t="n"/>
-      <c r="H35" s="22" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="9" t="n"/>
-      <c r="K35" s="33" t="n"/>
-      <c r="L35" s="34" t="n"/>
-      <c r="M35" s="34" t="n"/>
-      <c r="N35" s="34" t="n"/>
-      <c r="O35" s="34" t="n"/>
-      <c r="P35" s="34" t="n"/>
-      <c r="Q35" s="35" t="n"/>
-      <c r="R35" s="35" t="n"/>
-      <c r="S35" s="35" t="n"/>
-      <c r="T35" s="35" t="n"/>
-      <c r="U35" s="35" t="n"/>
-      <c r="V35" s="35" t="n"/>
-      <c r="W35" s="35" t="n"/>
-      <c r="X35" s="35" t="n"/>
-      <c r="Y35" s="36" t="n"/>
-      <c r="Z35" s="36" t="n"/>
-      <c r="AA35" s="36" t="n"/>
-      <c r="AB35" s="36" t="n"/>
-      <c r="AC35" s="37" t="n"/>
-      <c r="AD35" s="38" t="n"/>
-      <c r="AE35" s="17" t="n"/>
-      <c r="AF35" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="28" t="n"/>
-      <c r="D36" s="30" t="n"/>
-      <c r="E36" s="30" t="n"/>
-      <c r="F36" s="31" t="n"/>
-      <c r="G36" s="31" t="n"/>
-      <c r="H36" s="22" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="9" t="n"/>
-      <c r="K36" s="33" t="n"/>
-      <c r="L36" s="34" t="n"/>
-      <c r="M36" s="34" t="n"/>
-      <c r="N36" s="34" t="n"/>
-      <c r="O36" s="34" t="n"/>
-      <c r="P36" s="34" t="n"/>
-      <c r="Q36" s="35" t="n"/>
-      <c r="R36" s="35" t="n"/>
-      <c r="S36" s="35" t="n"/>
-      <c r="T36" s="35" t="n"/>
-      <c r="U36" s="35" t="n"/>
-      <c r="V36" s="35" t="n"/>
-      <c r="W36" s="35" t="n"/>
-      <c r="X36" s="35" t="n"/>
-      <c r="Y36" s="36" t="n"/>
-      <c r="Z36" s="36" t="n"/>
-      <c r="AA36" s="36" t="n"/>
-      <c r="AB36" s="36" t="n"/>
-      <c r="AC36" s="37" t="n"/>
-      <c r="AD36" s="38" t="n"/>
-      <c r="AE36" s="17" t="n"/>
-      <c r="AF36" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="28" t="n"/>
-      <c r="D37" s="30" t="n"/>
-      <c r="E37" s="30" t="n"/>
-      <c r="F37" s="31" t="n"/>
-      <c r="G37" s="31" t="n"/>
-      <c r="H37" s="22" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="9" t="n"/>
-      <c r="K37" s="33" t="n"/>
-      <c r="L37" s="34" t="n"/>
-      <c r="M37" s="34" t="n"/>
-      <c r="N37" s="34" t="n"/>
-      <c r="O37" s="34" t="n"/>
-      <c r="P37" s="34" t="n"/>
-      <c r="Q37" s="35" t="n"/>
-      <c r="R37" s="35" t="n"/>
-      <c r="S37" s="35" t="n"/>
-      <c r="T37" s="35" t="n"/>
-      <c r="U37" s="35" t="n"/>
-      <c r="V37" s="35" t="n"/>
-      <c r="W37" s="35" t="n"/>
-      <c r="X37" s="35" t="n"/>
-      <c r="Y37" s="36" t="n"/>
-      <c r="Z37" s="36" t="n"/>
-      <c r="AA37" s="36" t="n"/>
-      <c r="AB37" s="36" t="n"/>
-      <c r="AC37" s="37" t="n"/>
-      <c r="AD37" s="38" t="n"/>
-      <c r="AE37" s="17" t="n"/>
-      <c r="AF37" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="38">
+      <c r="K37" s="33" t="n">
+        <v>14511.2</v>
+      </c>
+      <c r="L37" s="34" t="n">
+        <v>12947.08</v>
+      </c>
+      <c r="M37" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" s="34" t="n">
+        <v>300.69</v>
+      </c>
+      <c r="P37" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="37" t="n">
+        <v>13247.77</v>
+      </c>
+      <c r="AD37" s="38" t="n">
+        <v>1263.43</v>
+      </c>
+      <c r="AE37" s="17" t="n">
+        <v>18585.0553</v>
+      </c>
+      <c r="AF37" s="19" t="inlineStr">
+        <is>
+          <t>01-04-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="30" customHeight="1">
       <c r="A38" s="28" t="n"/>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
@@ -3148,7 +5194,7 @@
       <c r="AE38" s="17" t="n"/>
       <c r="AF38" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="39">
+    <row r="39" ht="30" customHeight="1">
       <c r="A39" s="28" t="n"/>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
@@ -3182,7 +5228,7 @@
       <c r="AE39" s="17" t="n"/>
       <c r="AF39" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="40">
+    <row r="40" ht="30" customHeight="1">
       <c r="A40" s="28" t="n"/>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
@@ -3216,7 +5262,7 @@
       <c r="AE40" s="17" t="n"/>
       <c r="AF40" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="41">
+    <row r="41" ht="30" customHeight="1">
       <c r="A41" s="28" t="n"/>
       <c r="B41" s="28" t="n"/>
       <c r="C41" s="28" t="n"/>
@@ -3250,7 +5296,7 @@
       <c r="AE41" s="17" t="n"/>
       <c r="AF41" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="42">
+    <row r="42" ht="30" customHeight="1">
       <c r="A42" s="28" t="n"/>
       <c r="B42" s="28" t="n"/>
       <c r="C42" s="28" t="n"/>
@@ -3284,7 +5330,7 @@
       <c r="AE42" s="17" t="n"/>
       <c r="AF42" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="43">
+    <row r="43" ht="30" customHeight="1">
       <c r="A43" s="28" t="n"/>
       <c r="B43" s="28" t="n"/>
       <c r="C43" s="28" t="n"/>
@@ -3318,7 +5364,7 @@
       <c r="AE43" s="17" t="n"/>
       <c r="AF43" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="44">
+    <row r="44" ht="30" customHeight="1">
       <c r="A44" s="28" t="n"/>
       <c r="B44" s="28" t="n"/>
       <c r="C44" s="28" t="n"/>
@@ -3352,7 +5398,7 @@
       <c r="AE44" s="17" t="n"/>
       <c r="AF44" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="45">
+    <row r="45" ht="30" customHeight="1">
       <c r="A45" s="28" t="n"/>
       <c r="B45" s="28" t="n"/>
       <c r="C45" s="28" t="n"/>
@@ -3386,7 +5432,7 @@
       <c r="AE45" s="17" t="n"/>
       <c r="AF45" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="46">
+    <row r="46" ht="30" customHeight="1">
       <c r="A46" s="28" t="n"/>
       <c r="B46" s="28" t="n"/>
       <c r="C46" s="28" t="n"/>
@@ -3420,7 +5466,7 @@
       <c r="AE46" s="17" t="n"/>
       <c r="AF46" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="47">
+    <row r="47" ht="30" customHeight="1">
       <c r="A47" s="28" t="n"/>
       <c r="B47" s="28" t="n"/>
       <c r="C47" s="28" t="n"/>
@@ -3454,7 +5500,7 @@
       <c r="AE47" s="17" t="n"/>
       <c r="AF47" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="48">
+    <row r="48" ht="30" customHeight="1">
       <c r="A48" s="28" t="n"/>
       <c r="B48" s="28" t="n"/>
       <c r="C48" s="28" t="n"/>
@@ -3488,7 +5534,7 @@
       <c r="AE48" s="17" t="n"/>
       <c r="AF48" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="49">
+    <row r="49" ht="30" customHeight="1">
       <c r="A49" s="28" t="n"/>
       <c r="B49" s="28" t="n"/>
       <c r="C49" s="28" t="n"/>
@@ -3522,7 +5568,7 @@
       <c r="AE49" s="17" t="n"/>
       <c r="AF49" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="50">
+    <row r="50" ht="30" customHeight="1">
       <c r="A50" s="28" t="n"/>
       <c r="B50" s="28" t="n"/>
       <c r="C50" s="28" t="n"/>
@@ -3556,7 +5602,7 @@
       <c r="AE50" s="17" t="n"/>
       <c r="AF50" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="51">
+    <row r="51" ht="30" customHeight="1">
       <c r="A51" s="28" t="n"/>
       <c r="B51" s="28" t="n"/>
       <c r="C51" s="28" t="n"/>
@@ -3590,7 +5636,7 @@
       <c r="AE51" s="17" t="n"/>
       <c r="AF51" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="52">
+    <row r="52" ht="30" customHeight="1">
       <c r="A52" s="28" t="n"/>
       <c r="B52" s="28" t="n"/>
       <c r="C52" s="28" t="n"/>
@@ -3624,7 +5670,7 @@
       <c r="AE52" s="17" t="n"/>
       <c r="AF52" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="53">
+    <row r="53" ht="30" customHeight="1">
       <c r="A53" s="28" t="n"/>
       <c r="B53" s="28" t="n"/>
       <c r="C53" s="28" t="n"/>
@@ -3658,7 +5704,7 @@
       <c r="AE53" s="17" t="n"/>
       <c r="AF53" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="54">
+    <row r="54" ht="30" customHeight="1">
       <c r="A54" s="28" t="n"/>
       <c r="B54" s="28" t="n"/>
       <c r="C54" s="28" t="n"/>
@@ -3692,7 +5738,7 @@
       <c r="AE54" s="17" t="n"/>
       <c r="AF54" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="55">
+    <row r="55" ht="30" customHeight="1">
       <c r="A55" s="28" t="n"/>
       <c r="B55" s="28" t="n"/>
       <c r="C55" s="28" t="n"/>
@@ -3726,7 +5772,7 @@
       <c r="AE55" s="17" t="n"/>
       <c r="AF55" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="56">
+    <row r="56" ht="30" customHeight="1">
       <c r="A56" s="28" t="n"/>
       <c r="B56" s="28" t="n"/>
       <c r="C56" s="28" t="n"/>
@@ -3760,7 +5806,7 @@
       <c r="AE56" s="17" t="n"/>
       <c r="AF56" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="57">
+    <row r="57" ht="30" customHeight="1">
       <c r="A57" s="28" t="n"/>
       <c r="B57" s="28" t="n"/>
       <c r="C57" s="28" t="n"/>
@@ -3794,7 +5840,7 @@
       <c r="AE57" s="17" t="n"/>
       <c r="AF57" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="58">
+    <row r="58" ht="30" customHeight="1">
       <c r="A58" s="28" t="n"/>
       <c r="B58" s="28" t="n"/>
       <c r="C58" s="28" t="n"/>
@@ -3828,7 +5874,7 @@
       <c r="AE58" s="17" t="n"/>
       <c r="AF58" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="59">
+    <row r="59" ht="30" customHeight="1">
       <c r="A59" s="28" t="n"/>
       <c r="B59" s="28" t="n"/>
       <c r="C59" s="28" t="n"/>
@@ -3862,7 +5908,7 @@
       <c r="AE59" s="17" t="n"/>
       <c r="AF59" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="60">
+    <row r="60" ht="30" customHeight="1">
       <c r="A60" s="28" t="n"/>
       <c r="B60" s="28" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3896,7 +5942,7 @@
       <c r="AE60" s="17" t="n"/>
       <c r="AF60" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="61">
+    <row r="61" ht="30" customHeight="1">
       <c r="A61" s="28" t="n"/>
       <c r="B61" s="28" t="n"/>
       <c r="C61" s="28" t="n"/>
@@ -3930,7 +5976,7 @@
       <c r="AE61" s="17" t="n"/>
       <c r="AF61" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="62">
+    <row r="62" ht="30" customHeight="1">
       <c r="A62" s="28" t="n"/>
       <c r="B62" s="28" t="n"/>
       <c r="C62" s="28" t="n"/>
@@ -3964,7 +6010,7 @@
       <c r="AE62" s="17" t="n"/>
       <c r="AF62" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="63">
+    <row r="63" ht="30" customHeight="1">
       <c r="A63" s="28" t="n"/>
       <c r="B63" s="28" t="n"/>
       <c r="C63" s="28" t="n"/>
@@ -3998,7 +6044,7 @@
       <c r="AE63" s="17" t="n"/>
       <c r="AF63" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="64">
+    <row r="64" ht="30" customHeight="1">
       <c r="A64" s="28" t="n"/>
       <c r="B64" s="28" t="n"/>
       <c r="C64" s="28" t="n"/>
@@ -4032,7 +6078,7 @@
       <c r="AE64" s="17" t="n"/>
       <c r="AF64" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="65">
+    <row r="65" ht="30" customHeight="1">
       <c r="A65" s="28" t="n"/>
       <c r="B65" s="28" t="n"/>
       <c r="C65" s="28" t="n"/>
@@ -4066,7 +6112,7 @@
       <c r="AE65" s="17" t="n"/>
       <c r="AF65" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="66">
+    <row r="66" ht="30" customHeight="1">
       <c r="A66" s="28" t="n"/>
       <c r="B66" s="28" t="n"/>
       <c r="C66" s="28" t="n"/>
@@ -4100,7 +6146,7 @@
       <c r="AE66" s="17" t="n"/>
       <c r="AF66" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="67">
+    <row r="67" ht="30" customHeight="1">
       <c r="A67" s="28" t="n"/>
       <c r="B67" s="28" t="n"/>
       <c r="C67" s="28" t="n"/>
@@ -4134,7 +6180,7 @@
       <c r="AE67" s="17" t="n"/>
       <c r="AF67" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="68">
+    <row r="68" ht="30" customHeight="1">
       <c r="A68" s="28" t="n"/>
       <c r="B68" s="28" t="n"/>
       <c r="C68" s="28" t="n"/>
@@ -4168,7 +6214,7 @@
       <c r="AE68" s="17" t="n"/>
       <c r="AF68" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="69">
+    <row r="69" ht="30" customHeight="1">
       <c r="A69" s="28" t="n"/>
       <c r="B69" s="28" t="n"/>
       <c r="C69" s="28" t="n"/>
@@ -4202,7 +6248,7 @@
       <c r="AE69" s="17" t="n"/>
       <c r="AF69" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="70">
+    <row r="70" ht="30" customHeight="1">
       <c r="A70" s="28" t="n"/>
       <c r="B70" s="28" t="n"/>
       <c r="C70" s="28" t="n"/>
@@ -4236,7 +6282,7 @@
       <c r="AE70" s="17" t="n"/>
       <c r="AF70" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="71">
+    <row r="71" ht="30" customHeight="1">
       <c r="A71" s="28" t="n"/>
       <c r="B71" s="28" t="n"/>
       <c r="C71" s="28" t="n"/>
@@ -4270,7 +6316,7 @@
       <c r="AE71" s="17" t="n"/>
       <c r="AF71" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="72">
+    <row r="72" ht="30" customHeight="1">
       <c r="A72" s="28" t="n"/>
       <c r="B72" s="28" t="n"/>
       <c r="C72" s="28" t="n"/>
@@ -4304,7 +6350,7 @@
       <c r="AE72" s="17" t="n"/>
       <c r="AF72" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="73">
+    <row r="73" ht="30" customHeight="1">
       <c r="A73" s="28" t="n"/>
       <c r="B73" s="28" t="n"/>
       <c r="C73" s="28" t="n"/>
@@ -4338,7 +6384,7 @@
       <c r="AE73" s="17" t="n"/>
       <c r="AF73" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="74">
+    <row r="74" ht="30" customHeight="1">
       <c r="A74" s="28" t="n"/>
       <c r="B74" s="28" t="n"/>
       <c r="C74" s="28" t="n"/>
@@ -4372,7 +6418,7 @@
       <c r="AE74" s="17" t="n"/>
       <c r="AF74" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="75">
+    <row r="75" ht="30" customHeight="1">
       <c r="A75" s="28" t="n"/>
       <c r="B75" s="28" t="n"/>
       <c r="C75" s="28" t="n"/>
@@ -4406,7 +6452,7 @@
       <c r="AE75" s="17" t="n"/>
       <c r="AF75" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="76">
+    <row r="76" ht="30" customHeight="1">
       <c r="A76" s="28" t="n"/>
       <c r="B76" s="28" t="n"/>
       <c r="C76" s="28" t="n"/>
@@ -4440,7 +6486,7 @@
       <c r="AE76" s="17" t="n"/>
       <c r="AF76" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="77">
+    <row r="77" ht="30" customHeight="1">
       <c r="A77" s="28" t="n"/>
       <c r="B77" s="28" t="n"/>
       <c r="C77" s="28" t="n"/>
@@ -4474,7 +6520,7 @@
       <c r="AE77" s="17" t="n"/>
       <c r="AF77" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="78">
+    <row r="78" ht="30" customHeight="1">
       <c r="A78" s="28" t="n"/>
       <c r="B78" s="28" t="n"/>
       <c r="C78" s="28" t="n"/>
@@ -4508,7 +6554,7 @@
       <c r="AE78" s="17" t="n"/>
       <c r="AF78" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="79">
+    <row r="79" ht="30" customHeight="1">
       <c r="A79" s="28" t="n"/>
       <c r="B79" s="28" t="n"/>
       <c r="C79" s="28" t="n"/>
@@ -4542,7 +6588,7 @@
       <c r="AE79" s="17" t="n"/>
       <c r="AF79" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="80">
+    <row r="80" ht="30" customHeight="1">
       <c r="A80" s="28" t="n"/>
       <c r="B80" s="28" t="n"/>
       <c r="C80" s="28" t="n"/>
@@ -4576,7 +6622,7 @@
       <c r="AE80" s="17" t="n"/>
       <c r="AF80" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="81">
+    <row r="81" ht="30" customHeight="1">
       <c r="A81" s="28" t="n"/>
       <c r="B81" s="28" t="n"/>
       <c r="C81" s="28" t="n"/>
@@ -4610,7 +6656,7 @@
       <c r="AE81" s="17" t="n"/>
       <c r="AF81" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="82">
+    <row r="82" ht="30" customHeight="1">
       <c r="A82" s="28" t="n"/>
       <c r="B82" s="28" t="n"/>
       <c r="C82" s="28" t="n"/>
@@ -4644,7 +6690,7 @@
       <c r="AE82" s="17" t="n"/>
       <c r="AF82" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="83">
+    <row r="83" ht="30" customHeight="1">
       <c r="A83" s="28" t="n"/>
       <c r="B83" s="28" t="n"/>
       <c r="C83" s="28" t="n"/>
@@ -4678,7 +6724,7 @@
       <c r="AE83" s="17" t="n"/>
       <c r="AF83" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="84">
+    <row r="84" ht="30" customHeight="1">
       <c r="A84" s="28" t="n"/>
       <c r="B84" s="28" t="n"/>
       <c r="C84" s="28" t="n"/>
@@ -4712,7 +6758,7 @@
       <c r="AE84" s="17" t="n"/>
       <c r="AF84" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="85">
+    <row r="85" ht="30" customHeight="1">
       <c r="A85" s="28" t="n"/>
       <c r="B85" s="28" t="n"/>
       <c r="C85" s="28" t="n"/>
@@ -4746,7 +6792,7 @@
       <c r="AE85" s="17" t="n"/>
       <c r="AF85" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="86">
+    <row r="86" ht="30" customHeight="1">
       <c r="A86" s="28" t="n"/>
       <c r="B86" s="28" t="n"/>
       <c r="C86" s="28" t="n"/>
@@ -4780,7 +6826,7 @@
       <c r="AE86" s="17" t="n"/>
       <c r="AF86" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="87">
+    <row r="87" ht="30" customHeight="1">
       <c r="A87" s="28" t="n"/>
       <c r="B87" s="28" t="n"/>
       <c r="C87" s="28" t="n"/>
@@ -4814,7 +6860,7 @@
       <c r="AE87" s="17" t="n"/>
       <c r="AF87" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="88">
+    <row r="88" ht="30" customHeight="1">
       <c r="A88" s="28" t="n"/>
       <c r="B88" s="28" t="n"/>
       <c r="C88" s="28" t="n"/>
@@ -4848,7 +6894,7 @@
       <c r="AE88" s="17" t="n"/>
       <c r="AF88" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="89">
+    <row r="89" ht="30" customHeight="1">
       <c r="A89" s="28" t="n"/>
       <c r="B89" s="28" t="n"/>
       <c r="C89" s="28" t="n"/>
@@ -4882,7 +6928,7 @@
       <c r="AE89" s="17" t="n"/>
       <c r="AF89" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="90">
+    <row r="90" ht="30" customHeight="1">
       <c r="A90" s="28" t="n"/>
       <c r="B90" s="28" t="n"/>
       <c r="C90" s="28" t="n"/>
@@ -4916,7 +6962,7 @@
       <c r="AE90" s="17" t="n"/>
       <c r="AF90" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="91">
+    <row r="91" ht="30" customHeight="1">
       <c r="A91" s="28" t="n"/>
       <c r="B91" s="28" t="n"/>
       <c r="C91" s="28" t="n"/>
@@ -4950,7 +6996,7 @@
       <c r="AE91" s="17" t="n"/>
       <c r="AF91" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="92">
+    <row r="92" ht="30" customHeight="1">
       <c r="A92" s="28" t="n"/>
       <c r="B92" s="28" t="n"/>
       <c r="C92" s="28" t="n"/>
@@ -4984,7 +7030,7 @@
       <c r="AE92" s="17" t="n"/>
       <c r="AF92" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="93">
+    <row r="93" ht="30" customHeight="1">
       <c r="A93" s="28" t="n"/>
       <c r="B93" s="28" t="n"/>
       <c r="C93" s="28" t="n"/>
@@ -5018,7 +7064,7 @@
       <c r="AE93" s="17" t="n"/>
       <c r="AF93" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="94">
+    <row r="94" ht="30" customHeight="1">
       <c r="A94" s="28" t="n"/>
       <c r="B94" s="28" t="n"/>
       <c r="C94" s="28" t="n"/>
@@ -5052,7 +7098,7 @@
       <c r="AE94" s="17" t="n"/>
       <c r="AF94" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="95">
+    <row r="95" ht="30" customHeight="1">
       <c r="A95" s="28" t="n"/>
       <c r="B95" s="28" t="n"/>
       <c r="C95" s="28" t="n"/>
@@ -5086,7 +7132,7 @@
       <c r="AE95" s="17" t="n"/>
       <c r="AF95" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="96">
+    <row r="96" ht="30" customHeight="1">
       <c r="A96" s="28" t="n"/>
       <c r="B96" s="28" t="n"/>
       <c r="C96" s="28" t="n"/>
@@ -5120,7 +7166,7 @@
       <c r="AE96" s="17" t="n"/>
       <c r="AF96" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="97">
+    <row r="97" ht="30" customHeight="1">
       <c r="A97" s="28" t="n"/>
       <c r="B97" s="28" t="n"/>
       <c r="C97" s="28" t="n"/>
@@ -5154,7 +7200,7 @@
       <c r="AE97" s="17" t="n"/>
       <c r="AF97" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="98">
+    <row r="98" ht="30" customHeight="1">
       <c r="A98" s="28" t="n"/>
       <c r="B98" s="28" t="n"/>
       <c r="C98" s="28" t="n"/>
@@ -5188,7 +7234,7 @@
       <c r="AE98" s="17" t="n"/>
       <c r="AF98" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="99">
+    <row r="99" ht="30" customHeight="1">
       <c r="A99" s="28" t="n"/>
       <c r="B99" s="28" t="n"/>
       <c r="C99" s="28" t="n"/>
@@ -5222,7 +7268,7 @@
       <c r="AE99" s="17" t="n"/>
       <c r="AF99" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="100">
+    <row r="100" ht="30" customHeight="1">
       <c r="A100" s="28" t="n"/>
       <c r="B100" s="28" t="n"/>
       <c r="C100" s="28" t="n"/>
@@ -5256,7 +7302,7 @@
       <c r="AE100" s="17" t="n"/>
       <c r="AF100" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="101">
+    <row r="101" ht="30" customHeight="1">
       <c r="A101" s="28" t="n"/>
       <c r="B101" s="28" t="n"/>
       <c r="C101" s="28" t="n"/>
@@ -5290,7 +7336,7 @@
       <c r="AE101" s="17" t="n"/>
       <c r="AF101" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="102">
+    <row r="102" ht="30" customHeight="1">
       <c r="A102" s="28" t="n"/>
       <c r="B102" s="28" t="n"/>
       <c r="C102" s="28" t="n"/>
@@ -5324,7 +7370,7 @@
       <c r="AE102" s="17" t="n"/>
       <c r="AF102" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="103">
+    <row r="103" ht="30" customHeight="1">
       <c r="A103" s="28" t="n"/>
       <c r="B103" s="28" t="n"/>
       <c r="C103" s="28" t="n"/>
@@ -5358,7 +7404,7 @@
       <c r="AE103" s="17" t="n"/>
       <c r="AF103" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="104">
+    <row r="104" ht="30" customHeight="1">
       <c r="A104" s="28" t="n"/>
       <c r="B104" s="28" t="n"/>
       <c r="C104" s="28" t="n"/>
@@ -5392,7 +7438,7 @@
       <c r="AE104" s="17" t="n"/>
       <c r="AF104" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="105">
+    <row r="105" ht="30" customHeight="1">
       <c r="A105" s="28" t="n"/>
       <c r="B105" s="28" t="n"/>
       <c r="C105" s="28" t="n"/>
@@ -5426,7 +7472,7 @@
       <c r="AE105" s="17" t="n"/>
       <c r="AF105" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="106">
+    <row r="106" ht="30" customHeight="1">
       <c r="A106" s="28" t="n"/>
       <c r="B106" s="28" t="n"/>
       <c r="C106" s="28" t="n"/>
@@ -5460,7 +7506,7 @@
       <c r="AE106" s="17" t="n"/>
       <c r="AF106" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="107">
+    <row r="107" ht="30" customHeight="1">
       <c r="A107" s="28" t="n"/>
       <c r="B107" s="28" t="n"/>
       <c r="C107" s="28" t="n"/>
@@ -5494,7 +7540,7 @@
       <c r="AE107" s="17" t="n"/>
       <c r="AF107" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="108">
+    <row r="108" ht="30" customHeight="1">
       <c r="A108" s="28" t="n"/>
       <c r="B108" s="28" t="n"/>
       <c r="C108" s="28" t="n"/>
@@ -5528,7 +7574,7 @@
       <c r="AE108" s="17" t="n"/>
       <c r="AF108" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="109">
+    <row r="109" ht="30" customHeight="1">
       <c r="A109" s="28" t="n"/>
       <c r="B109" s="28" t="n"/>
       <c r="C109" s="28" t="n"/>
@@ -5562,7 +7608,7 @@
       <c r="AE109" s="17" t="n"/>
       <c r="AF109" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="110">
+    <row r="110" ht="30" customHeight="1">
       <c r="A110" s="28" t="n"/>
       <c r="B110" s="28" t="n"/>
       <c r="C110" s="28" t="n"/>
@@ -5596,7 +7642,7 @@
       <c r="AE110" s="17" t="n"/>
       <c r="AF110" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="111">
+    <row r="111" ht="30" customHeight="1">
       <c r="A111" s="28" t="n"/>
       <c r="B111" s="28" t="n"/>
       <c r="C111" s="28" t="n"/>
@@ -5630,7 +7676,7 @@
       <c r="AE111" s="17" t="n"/>
       <c r="AF111" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="112">
+    <row r="112" ht="30" customHeight="1">
       <c r="A112" s="28" t="n"/>
       <c r="B112" s="28" t="n"/>
       <c r="C112" s="28" t="n"/>
@@ -5664,7 +7710,7 @@
       <c r="AE112" s="17" t="n"/>
       <c r="AF112" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="113">
+    <row r="113" ht="30" customHeight="1">
       <c r="A113" s="28" t="n"/>
       <c r="B113" s="28" t="n"/>
       <c r="C113" s="28" t="n"/>
@@ -5698,7 +7744,7 @@
       <c r="AE113" s="17" t="n"/>
       <c r="AF113" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="114">
+    <row r="114" ht="30" customHeight="1">
       <c r="A114" s="28" t="n"/>
       <c r="B114" s="28" t="n"/>
       <c r="C114" s="28" t="n"/>
@@ -5732,7 +7778,7 @@
       <c r="AE114" s="17" t="n"/>
       <c r="AF114" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="115">
+    <row r="115" ht="30" customHeight="1">
       <c r="A115" s="28" t="n"/>
       <c r="B115" s="28" t="n"/>
       <c r="C115" s="28" t="n"/>
@@ -5766,7 +7812,7 @@
       <c r="AE115" s="17" t="n"/>
       <c r="AF115" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="116">
+    <row r="116" ht="30" customHeight="1">
       <c r="A116" s="28" t="n"/>
       <c r="B116" s="28" t="n"/>
       <c r="C116" s="28" t="n"/>
@@ -5800,7 +7846,7 @@
       <c r="AE116" s="17" t="n"/>
       <c r="AF116" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="117">
+    <row r="117" ht="30" customHeight="1">
       <c r="A117" s="28" t="n"/>
       <c r="B117" s="28" t="n"/>
       <c r="C117" s="28" t="n"/>
@@ -5834,7 +7880,7 @@
       <c r="AE117" s="17" t="n"/>
       <c r="AF117" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="118">
+    <row r="118" ht="30" customHeight="1">
       <c r="A118" s="28" t="n"/>
       <c r="B118" s="28" t="n"/>
       <c r="C118" s="28" t="n"/>
@@ -5868,7 +7914,7 @@
       <c r="AE118" s="17" t="n"/>
       <c r="AF118" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="119">
+    <row r="119" ht="30" customHeight="1">
       <c r="A119" s="28" t="n"/>
       <c r="B119" s="28" t="n"/>
       <c r="C119" s="28" t="n"/>
@@ -5902,7 +7948,7 @@
       <c r="AE119" s="17" t="n"/>
       <c r="AF119" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="120">
+    <row r="120" ht="30" customHeight="1">
       <c r="A120" s="28" t="n"/>
       <c r="B120" s="28" t="n"/>
       <c r="C120" s="28" t="n"/>
@@ -5936,7 +7982,7 @@
       <c r="AE120" s="17" t="n"/>
       <c r="AF120" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="121">
+    <row r="121" ht="30" customHeight="1">
       <c r="A121" s="28" t="n"/>
       <c r="B121" s="28" t="n"/>
       <c r="C121" s="28" t="n"/>
@@ -5970,7 +8016,7 @@
       <c r="AE121" s="17" t="n"/>
       <c r="AF121" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="122">
+    <row r="122" ht="30" customHeight="1">
       <c r="A122" s="28" t="n"/>
       <c r="B122" s="28" t="n"/>
       <c r="C122" s="28" t="n"/>
@@ -6004,7 +8050,7 @@
       <c r="AE122" s="17" t="n"/>
       <c r="AF122" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="123">
+    <row r="123" ht="30" customHeight="1">
       <c r="A123" s="28" t="n"/>
       <c r="B123" s="28" t="n"/>
       <c r="C123" s="28" t="n"/>
@@ -6038,7 +8084,7 @@
       <c r="AE123" s="17" t="n"/>
       <c r="AF123" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="124">
+    <row r="124" ht="30" customHeight="1">
       <c r="A124" s="28" t="n"/>
       <c r="B124" s="28" t="n"/>
       <c r="C124" s="28" t="n"/>
@@ -6072,7 +8118,7 @@
       <c r="AE124" s="17" t="n"/>
       <c r="AF124" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="125">
+    <row r="125" ht="30" customHeight="1">
       <c r="A125" s="28" t="n"/>
       <c r="B125" s="28" t="n"/>
       <c r="C125" s="28" t="n"/>
@@ -6106,7 +8152,7 @@
       <c r="AE125" s="17" t="n"/>
       <c r="AF125" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="126">
+    <row r="126" ht="30" customHeight="1">
       <c r="A126" s="28" t="n"/>
       <c r="B126" s="28" t="n"/>
       <c r="C126" s="28" t="n"/>
@@ -6140,7 +8186,7 @@
       <c r="AE126" s="17" t="n"/>
       <c r="AF126" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="127">
+    <row r="127" ht="30" customHeight="1">
       <c r="A127" s="28" t="n"/>
       <c r="B127" s="28" t="n"/>
       <c r="C127" s="28" t="n"/>
@@ -6174,7 +8220,7 @@
       <c r="AE127" s="17" t="n"/>
       <c r="AF127" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="128">
+    <row r="128" ht="30" customHeight="1">
       <c r="A128" s="28" t="n"/>
       <c r="B128" s="28" t="n"/>
       <c r="C128" s="28" t="n"/>
@@ -6208,7 +8254,7 @@
       <c r="AE128" s="17" t="n"/>
       <c r="AF128" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="129">
+    <row r="129" ht="30" customHeight="1">
       <c r="A129" s="28" t="n"/>
       <c r="B129" s="28" t="n"/>
       <c r="C129" s="28" t="n"/>
@@ -6242,7 +8288,7 @@
       <c r="AE129" s="17" t="n"/>
       <c r="AF129" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="130">
+    <row r="130" ht="30" customHeight="1">
       <c r="A130" s="28" t="n"/>
       <c r="B130" s="28" t="n"/>
       <c r="C130" s="28" t="n"/>
@@ -6276,7 +8322,7 @@
       <c r="AE130" s="17" t="n"/>
       <c r="AF130" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="131">
+    <row r="131" ht="30" customHeight="1">
       <c r="A131" s="28" t="n"/>
       <c r="B131" s="28" t="n"/>
       <c r="C131" s="28" t="n"/>
@@ -6310,7 +8356,7 @@
       <c r="AE131" s="17" t="n"/>
       <c r="AF131" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="132">
+    <row r="132" ht="30" customHeight="1">
       <c r="A132" s="28" t="n"/>
       <c r="B132" s="28" t="n"/>
       <c r="C132" s="28" t="n"/>
@@ -6344,7 +8390,7 @@
       <c r="AE132" s="17" t="n"/>
       <c r="AF132" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="133">
+    <row r="133" ht="30" customHeight="1">
       <c r="A133" s="28" t="n"/>
       <c r="B133" s="28" t="n"/>
       <c r="C133" s="28" t="n"/>
@@ -6378,7 +8424,7 @@
       <c r="AE133" s="17" t="n"/>
       <c r="AF133" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="134">
+    <row r="134" ht="30" customHeight="1">
       <c r="A134" s="28" t="n"/>
       <c r="B134" s="28" t="n"/>
       <c r="C134" s="28" t="n"/>
@@ -6412,7 +8458,7 @@
       <c r="AE134" s="17" t="n"/>
       <c r="AF134" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="135">
+    <row r="135" ht="30" customHeight="1">
       <c r="A135" s="28" t="n"/>
       <c r="B135" s="28" t="n"/>
       <c r="C135" s="28" t="n"/>
@@ -6446,7 +8492,7 @@
       <c r="AE135" s="17" t="n"/>
       <c r="AF135" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="136">
+    <row r="136" ht="30" customHeight="1">
       <c r="A136" s="28" t="n"/>
       <c r="B136" s="28" t="n"/>
       <c r="C136" s="28" t="n"/>
@@ -6480,7 +8526,7 @@
       <c r="AE136" s="17" t="n"/>
       <c r="AF136" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="137">
+    <row r="137" ht="30" customHeight="1">
       <c r="A137" s="28" t="n"/>
       <c r="B137" s="28" t="n"/>
       <c r="C137" s="28" t="n"/>
@@ -6514,7 +8560,7 @@
       <c r="AE137" s="17" t="n"/>
       <c r="AF137" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="138">
+    <row r="138" ht="30" customHeight="1">
       <c r="A138" s="28" t="n"/>
       <c r="B138" s="28" t="n"/>
       <c r="C138" s="28" t="n"/>
@@ -6548,7 +8594,7 @@
       <c r="AE138" s="17" t="n"/>
       <c r="AF138" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="139">
+    <row r="139" ht="30" customHeight="1">
       <c r="A139" s="28" t="n"/>
       <c r="B139" s="28" t="n"/>
       <c r="C139" s="28" t="n"/>
@@ -6582,7 +8628,7 @@
       <c r="AE139" s="17" t="n"/>
       <c r="AF139" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="140">
+    <row r="140" ht="30" customHeight="1">
       <c r="A140" s="28" t="n"/>
       <c r="B140" s="28" t="n"/>
       <c r="C140" s="28" t="n"/>
@@ -6616,7 +8662,7 @@
       <c r="AE140" s="17" t="n"/>
       <c r="AF140" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="141">
+    <row r="141" ht="30" customHeight="1">
       <c r="A141" s="28" t="n"/>
       <c r="B141" s="28" t="n"/>
       <c r="C141" s="28" t="n"/>
@@ -6650,7 +8696,7 @@
       <c r="AE141" s="17" t="n"/>
       <c r="AF141" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="142">
+    <row r="142" ht="30" customHeight="1">
       <c r="A142" s="28" t="n"/>
       <c r="B142" s="28" t="n"/>
       <c r="C142" s="28" t="n"/>
@@ -6684,7 +8730,7 @@
       <c r="AE142" s="17" t="n"/>
       <c r="AF142" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="143">
+    <row r="143" ht="30" customHeight="1">
       <c r="A143" s="28" t="n"/>
       <c r="B143" s="28" t="n"/>
       <c r="C143" s="28" t="n"/>
@@ -6718,7 +8764,7 @@
       <c r="AE143" s="17" t="n"/>
       <c r="AF143" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="144">
+    <row r="144" ht="30" customHeight="1">
       <c r="A144" s="28" t="n"/>
       <c r="B144" s="28" t="n"/>
       <c r="C144" s="28" t="n"/>
@@ -6752,7 +8798,7 @@
       <c r="AE144" s="17" t="n"/>
       <c r="AF144" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="145">
+    <row r="145" ht="30" customHeight="1">
       <c r="A145" s="28" t="n"/>
       <c r="B145" s="28" t="n"/>
       <c r="C145" s="28" t="n"/>
@@ -6786,7 +8832,7 @@
       <c r="AE145" s="17" t="n"/>
       <c r="AF145" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="146">
+    <row r="146" ht="30" customHeight="1">
       <c r="A146" s="28" t="n"/>
       <c r="B146" s="28" t="n"/>
       <c r="C146" s="28" t="n"/>
@@ -6820,7 +8866,7 @@
       <c r="AE146" s="17" t="n"/>
       <c r="AF146" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="147">
+    <row r="147" ht="30" customHeight="1">
       <c r="A147" s="28" t="n"/>
       <c r="B147" s="28" t="n"/>
       <c r="C147" s="28" t="n"/>
@@ -6854,7 +8900,7 @@
       <c r="AE147" s="17" t="n"/>
       <c r="AF147" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="148">
+    <row r="148" ht="30" customHeight="1">
       <c r="A148" s="28" t="n"/>
       <c r="B148" s="28" t="n"/>
       <c r="C148" s="28" t="n"/>
@@ -6888,7 +8934,7 @@
       <c r="AE148" s="17" t="n"/>
       <c r="AF148" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="149">
+    <row r="149" ht="30" customHeight="1">
       <c r="A149" s="28" t="n"/>
       <c r="B149" s="28" t="n"/>
       <c r="C149" s="28" t="n"/>
@@ -6922,7 +8968,7 @@
       <c r="AE149" s="17" t="n"/>
       <c r="AF149" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="150">
+    <row r="150" ht="30" customHeight="1">
       <c r="A150" s="28" t="n"/>
       <c r="B150" s="28" t="n"/>
       <c r="C150" s="28" t="n"/>
@@ -6956,7 +9002,7 @@
       <c r="AE150" s="17" t="n"/>
       <c r="AF150" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="151">
+    <row r="151" ht="30" customHeight="1">
       <c r="A151" s="28" t="n"/>
       <c r="B151" s="28" t="n"/>
       <c r="C151" s="28" t="n"/>
@@ -6990,7 +9036,7 @@
       <c r="AE151" s="17" t="n"/>
       <c r="AF151" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="152">
+    <row r="152" ht="30" customHeight="1">
       <c r="A152" s="28" t="n"/>
       <c r="B152" s="28" t="n"/>
       <c r="C152" s="28" t="n"/>
@@ -7024,7 +9070,7 @@
       <c r="AE152" s="17" t="n"/>
       <c r="AF152" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="153">
+    <row r="153" ht="30" customHeight="1">
       <c r="A153" s="28" t="n"/>
       <c r="B153" s="28" t="n"/>
       <c r="C153" s="28" t="n"/>
@@ -7058,7 +9104,7 @@
       <c r="AE153" s="17" t="n"/>
       <c r="AF153" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="154">
+    <row r="154" ht="30" customHeight="1">
       <c r="A154" s="28" t="n"/>
       <c r="B154" s="28" t="n"/>
       <c r="C154" s="28" t="n"/>
@@ -7092,7 +9138,7 @@
       <c r="AE154" s="17" t="n"/>
       <c r="AF154" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="155">
+    <row r="155" ht="30" customHeight="1">
       <c r="A155" s="28" t="n"/>
       <c r="B155" s="28" t="n"/>
       <c r="C155" s="28" t="n"/>
@@ -7126,7 +9172,7 @@
       <c r="AE155" s="17" t="n"/>
       <c r="AF155" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="156">
+    <row r="156" ht="30" customHeight="1">
       <c r="A156" s="28" t="n"/>
       <c r="B156" s="28" t="n"/>
       <c r="C156" s="28" t="n"/>
@@ -7160,7 +9206,7 @@
       <c r="AE156" s="17" t="n"/>
       <c r="AF156" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="157">
+    <row r="157" ht="30" customHeight="1">
       <c r="A157" s="28" t="n"/>
       <c r="B157" s="28" t="n"/>
       <c r="C157" s="28" t="n"/>
@@ -7194,7 +9240,7 @@
       <c r="AE157" s="17" t="n"/>
       <c r="AF157" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="158">
+    <row r="158" ht="30" customHeight="1">
       <c r="A158" s="28" t="n"/>
       <c r="B158" s="28" t="n"/>
       <c r="C158" s="28" t="n"/>
@@ -7228,7 +9274,7 @@
       <c r="AE158" s="17" t="n"/>
       <c r="AF158" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="159">
+    <row r="159" ht="30" customHeight="1">
       <c r="A159" s="28" t="n"/>
       <c r="B159" s="28" t="n"/>
       <c r="C159" s="28" t="n"/>
@@ -7262,7 +9308,7 @@
       <c r="AE159" s="17" t="n"/>
       <c r="AF159" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="160">
+    <row r="160" ht="30" customHeight="1">
       <c r="A160" s="28" t="n"/>
       <c r="B160" s="28" t="n"/>
       <c r="C160" s="28" t="n"/>
@@ -7296,7 +9342,7 @@
       <c r="AE160" s="17" t="n"/>
       <c r="AF160" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="161">
+    <row r="161" ht="30" customHeight="1">
       <c r="A161" s="28" t="n"/>
       <c r="B161" s="28" t="n"/>
       <c r="C161" s="28" t="n"/>
@@ -7330,7 +9376,7 @@
       <c r="AE161" s="17" t="n"/>
       <c r="AF161" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="162">
+    <row r="162" ht="30" customHeight="1">
       <c r="A162" s="28" t="n"/>
       <c r="B162" s="28" t="n"/>
       <c r="C162" s="28" t="n"/>
@@ -7364,7 +9410,7 @@
       <c r="AE162" s="17" t="n"/>
       <c r="AF162" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="163">
+    <row r="163" ht="30" customHeight="1">
       <c r="A163" s="28" t="n"/>
       <c r="B163" s="28" t="n"/>
       <c r="C163" s="28" t="n"/>
@@ -7398,7 +9444,7 @@
       <c r="AE163" s="17" t="n"/>
       <c r="AF163" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="164">
+    <row r="164" ht="30" customHeight="1">
       <c r="A164" s="28" t="n"/>
       <c r="B164" s="28" t="n"/>
       <c r="C164" s="28" t="n"/>
@@ -7432,7 +9478,7 @@
       <c r="AE164" s="17" t="n"/>
       <c r="AF164" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="165">
+    <row r="165" ht="30" customHeight="1">
       <c r="A165" s="28" t="n"/>
       <c r="B165" s="28" t="n"/>
       <c r="C165" s="28" t="n"/>
@@ -7466,7 +9512,7 @@
       <c r="AE165" s="17" t="n"/>
       <c r="AF165" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="166">
+    <row r="166" ht="30" customHeight="1">
       <c r="A166" s="28" t="n"/>
       <c r="B166" s="28" t="n"/>
       <c r="C166" s="28" t="n"/>
@@ -7500,7 +9546,7 @@
       <c r="AE166" s="17" t="n"/>
       <c r="AF166" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="167">
+    <row r="167" ht="30" customHeight="1">
       <c r="A167" s="28" t="n"/>
       <c r="B167" s="28" t="n"/>
       <c r="C167" s="28" t="n"/>
@@ -7534,7 +9580,7 @@
       <c r="AE167" s="17" t="n"/>
       <c r="AF167" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="168">
+    <row r="168" ht="30" customHeight="1">
       <c r="A168" s="28" t="n"/>
       <c r="B168" s="28" t="n"/>
       <c r="C168" s="28" t="n"/>
@@ -7568,7 +9614,7 @@
       <c r="AE168" s="17" t="n"/>
       <c r="AF168" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="169">
+    <row r="169" ht="30" customHeight="1">
       <c r="A169" s="28" t="n"/>
       <c r="B169" s="28" t="n"/>
       <c r="C169" s="28" t="n"/>
@@ -7602,7 +9648,7 @@
       <c r="AE169" s="17" t="n"/>
       <c r="AF169" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="170">
+    <row r="170" ht="30" customHeight="1">
       <c r="A170" s="28" t="n"/>
       <c r="B170" s="28" t="n"/>
       <c r="C170" s="28" t="n"/>
@@ -7636,7 +9682,7 @@
       <c r="AE170" s="17" t="n"/>
       <c r="AF170" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="171">
+    <row r="171" ht="30" customHeight="1">
       <c r="A171" s="28" t="n"/>
       <c r="B171" s="28" t="n"/>
       <c r="C171" s="28" t="n"/>
@@ -7670,7 +9716,7 @@
       <c r="AE171" s="17" t="n"/>
       <c r="AF171" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="172">
+    <row r="172" ht="30" customHeight="1">
       <c r="A172" s="28" t="n"/>
       <c r="B172" s="28" t="n"/>
       <c r="C172" s="28" t="n"/>
@@ -7704,7 +9750,7 @@
       <c r="AE172" s="17" t="n"/>
       <c r="AF172" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="173">
+    <row r="173" ht="30" customHeight="1">
       <c r="A173" s="28" t="n"/>
       <c r="B173" s="28" t="n"/>
       <c r="C173" s="28" t="n"/>
@@ -7738,7 +9784,7 @@
       <c r="AE173" s="17" t="n"/>
       <c r="AF173" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="174">
+    <row r="174" ht="30" customHeight="1">
       <c r="A174" s="28" t="n"/>
       <c r="B174" s="28" t="n"/>
       <c r="C174" s="28" t="n"/>
@@ -7772,7 +9818,7 @@
       <c r="AE174" s="39" t="n"/>
       <c r="AF174" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="175">
+    <row r="175" ht="30" customHeight="1">
       <c r="A175" s="28" t="n"/>
       <c r="B175" s="28" t="n"/>
       <c r="C175" s="28" t="n"/>
@@ -7806,7 +9852,7 @@
       <c r="AE175" s="39" t="n"/>
       <c r="AF175" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="176">
+    <row r="176" ht="30" customHeight="1">
       <c r="A176" s="28" t="n"/>
       <c r="B176" s="28" t="n"/>
       <c r="C176" s="28" t="n"/>
@@ -7840,7 +9886,7 @@
       <c r="AE176" s="39" t="n"/>
       <c r="AF176" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="177">
+    <row r="177" ht="30" customHeight="1">
       <c r="A177" s="28" t="n"/>
       <c r="B177" s="28" t="n"/>
       <c r="C177" s="28" t="n"/>
@@ -7874,7 +9920,7 @@
       <c r="AE177" s="39" t="n"/>
       <c r="AF177" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="178">
+    <row r="178" ht="30" customHeight="1">
       <c r="A178" s="28" t="n"/>
       <c r="B178" s="28" t="n"/>
       <c r="C178" s="28" t="n"/>
@@ -7908,7 +9954,7 @@
       <c r="AE178" s="39" t="n"/>
       <c r="AF178" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="179">
+    <row r="179" ht="30" customHeight="1">
       <c r="A179" s="28" t="n"/>
       <c r="B179" s="28" t="n"/>
       <c r="C179" s="28" t="n"/>
@@ -7942,7 +9988,7 @@
       <c r="AE179" s="39" t="n"/>
       <c r="AF179" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="180">
+    <row r="180" ht="30" customHeight="1">
       <c r="A180" s="28" t="n"/>
       <c r="B180" s="28" t="n"/>
       <c r="C180" s="28" t="n"/>
@@ -7976,7 +10022,7 @@
       <c r="AE180" s="39" t="n"/>
       <c r="AF180" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="181">
+    <row r="181" ht="30" customHeight="1">
       <c r="A181" s="28" t="n"/>
       <c r="B181" s="28" t="n"/>
       <c r="C181" s="28" t="n"/>
@@ -8010,7 +10056,7 @@
       <c r="AE181" s="39" t="n"/>
       <c r="AF181" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="182">
+    <row r="182" ht="30" customHeight="1">
       <c r="A182" s="28" t="n"/>
       <c r="B182" s="28" t="n"/>
       <c r="C182" s="28" t="n"/>
@@ -8044,7 +10090,7 @@
       <c r="AE182" s="39" t="n"/>
       <c r="AF182" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="183">
+    <row r="183" ht="30" customHeight="1">
       <c r="A183" s="28" t="n"/>
       <c r="B183" s="28" t="n"/>
       <c r="C183" s="28" t="n"/>
@@ -8078,7 +10124,7 @@
       <c r="AE183" s="39" t="n"/>
       <c r="AF183" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="184">
+    <row r="184" ht="30" customHeight="1">
       <c r="A184" s="28" t="n"/>
       <c r="B184" s="28" t="n"/>
       <c r="C184" s="28" t="n"/>
@@ -8112,7 +10158,7 @@
       <c r="AE184" s="39" t="n"/>
       <c r="AF184" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="185">
+    <row r="185" ht="30" customHeight="1">
       <c r="A185" s="28" t="n"/>
       <c r="B185" s="28" t="n"/>
       <c r="C185" s="28" t="n"/>
@@ -8146,7 +10192,7 @@
       <c r="AE185" s="39" t="n"/>
       <c r="AF185" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="186">
+    <row r="186" ht="30" customHeight="1">
       <c r="A186" s="28" t="n"/>
       <c r="B186" s="28" t="n"/>
       <c r="C186" s="28" t="n"/>
@@ -8180,7 +10226,7 @@
       <c r="AE186" s="39" t="n"/>
       <c r="AF186" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="187">
+    <row r="187" ht="30" customHeight="1">
       <c r="A187" s="28" t="n"/>
       <c r="B187" s="28" t="n"/>
       <c r="C187" s="28" t="n"/>
@@ -8214,7 +10260,7 @@
       <c r="AE187" s="39" t="n"/>
       <c r="AF187" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="188">
+    <row r="188" ht="30" customHeight="1">
       <c r="A188" s="28" t="n"/>
       <c r="B188" s="28" t="n"/>
       <c r="C188" s="28" t="n"/>
@@ -8248,7 +10294,7 @@
       <c r="AE188" s="39" t="n"/>
       <c r="AF188" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="189">
+    <row r="189" ht="30" customHeight="1">
       <c r="A189" s="28" t="n"/>
       <c r="B189" s="28" t="n"/>
       <c r="C189" s="28" t="n"/>
@@ -8282,7 +10328,7 @@
       <c r="AE189" s="39" t="n"/>
       <c r="AF189" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="190">
+    <row r="190" ht="30" customHeight="1">
       <c r="A190" s="28" t="n"/>
       <c r="B190" s="28" t="n"/>
       <c r="C190" s="28" t="n"/>
@@ -8316,7 +10362,7 @@
       <c r="AE190" s="39" t="n"/>
       <c r="AF190" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="191">
+    <row r="191" ht="30" customHeight="1">
       <c r="A191" s="28" t="n"/>
       <c r="B191" s="28" t="n"/>
       <c r="C191" s="28" t="n"/>
@@ -8350,7 +10396,7 @@
       <c r="AE191" s="39" t="n"/>
       <c r="AF191" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="192">
+    <row r="192" ht="30" customHeight="1">
       <c r="A192" s="28" t="n"/>
       <c r="B192" s="28" t="n"/>
       <c r="C192" s="28" t="n"/>
@@ -8384,7 +10430,7 @@
       <c r="AE192" s="39" t="n"/>
       <c r="AF192" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="193">
+    <row r="193" ht="30" customHeight="1">
       <c r="A193" s="28" t="n"/>
       <c r="B193" s="28" t="n"/>
       <c r="C193" s="28" t="n"/>
@@ -8418,7 +10464,7 @@
       <c r="AE193" s="39" t="n"/>
       <c r="AF193" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="194">
+    <row r="194" ht="30" customHeight="1">
       <c r="A194" s="28" t="n"/>
       <c r="B194" s="28" t="n"/>
       <c r="C194" s="28" t="n"/>
@@ -8452,7 +10498,7 @@
       <c r="AE194" s="39" t="n"/>
       <c r="AF194" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="195">
+    <row r="195" ht="30" customHeight="1">
       <c r="A195" s="28" t="n"/>
       <c r="B195" s="28" t="n"/>
       <c r="C195" s="28" t="n"/>
@@ -8486,7 +10532,7 @@
       <c r="AE195" s="39" t="n"/>
       <c r="AF195" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="196">
+    <row r="196" ht="30" customHeight="1">
       <c r="A196" s="28" t="n"/>
       <c r="B196" s="28" t="n"/>
       <c r="C196" s="28" t="n"/>
@@ -8520,7 +10566,7 @@
       <c r="AE196" s="39" t="n"/>
       <c r="AF196" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="197">
+    <row r="197" ht="30" customHeight="1">
       <c r="A197" s="28" t="n"/>
       <c r="B197" s="28" t="n"/>
       <c r="C197" s="28" t="n"/>
@@ -8554,7 +10600,7 @@
       <c r="AE197" s="39" t="n"/>
       <c r="AF197" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="198">
+    <row r="198" ht="30" customHeight="1">
       <c r="A198" s="28" t="n"/>
       <c r="B198" s="28" t="n"/>
       <c r="C198" s="28" t="n"/>
@@ -8588,7 +10634,7 @@
       <c r="AE198" s="39" t="n"/>
       <c r="AF198" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="199">
+    <row r="199" ht="30" customHeight="1">
       <c r="A199" s="28" t="n"/>
       <c r="B199" s="28" t="n"/>
       <c r="C199" s="28" t="n"/>
@@ -8622,7 +10668,7 @@
       <c r="AE199" s="39" t="n"/>
       <c r="AF199" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="200">
+    <row r="200" ht="30" customHeight="1">
       <c r="A200" s="28" t="n"/>
       <c r="B200" s="28" t="n"/>
       <c r="C200" s="28" t="n"/>
@@ -8656,7 +10702,7 @@
       <c r="AE200" s="39" t="n"/>
       <c r="AF200" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="201">
+    <row r="201" ht="30" customHeight="1">
       <c r="A201" s="28" t="n"/>
       <c r="B201" s="28" t="n"/>
       <c r="C201" s="28" t="n"/>
@@ -8690,7 +10736,7 @@
       <c r="AE201" s="39" t="n"/>
       <c r="AF201" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="202">
+    <row r="202" ht="30" customHeight="1">
       <c r="A202" s="28" t="n"/>
       <c r="B202" s="28" t="n"/>
       <c r="C202" s="28" t="n"/>
@@ -8724,7 +10770,7 @@
       <c r="AE202" s="39" t="n"/>
       <c r="AF202" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="203">
+    <row r="203" ht="30" customHeight="1">
       <c r="A203" s="28" t="n"/>
       <c r="B203" s="28" t="n"/>
       <c r="C203" s="28" t="n"/>
@@ -8758,7 +10804,7 @@
       <c r="AE203" s="39" t="n"/>
       <c r="AF203" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="204">
+    <row r="204" ht="30" customHeight="1">
       <c r="A204" s="28" t="n"/>
       <c r="B204" s="28" t="n"/>
       <c r="C204" s="28" t="n"/>
@@ -8792,7 +10838,7 @@
       <c r="AE204" s="39" t="n"/>
       <c r="AF204" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="205">
+    <row r="205" ht="30" customHeight="1">
       <c r="A205" s="28" t="n"/>
       <c r="B205" s="28" t="n"/>
       <c r="C205" s="28" t="n"/>
@@ -8826,7 +10872,7 @@
       <c r="AE205" s="39" t="n"/>
       <c r="AF205" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="206">
+    <row r="206" ht="30" customHeight="1">
       <c r="A206" s="28" t="n"/>
       <c r="B206" s="28" t="n"/>
       <c r="C206" s="28" t="n"/>
@@ -8860,7 +10906,7 @@
       <c r="AE206" s="39" t="n"/>
       <c r="AF206" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="207">
+    <row r="207" ht="30" customHeight="1">
       <c r="A207" s="28" t="n"/>
       <c r="B207" s="28" t="n"/>
       <c r="C207" s="28" t="n"/>
@@ -8894,7 +10940,7 @@
       <c r="AE207" s="39" t="n"/>
       <c r="AF207" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="208">
+    <row r="208" ht="30" customHeight="1">
       <c r="A208" s="28" t="n"/>
       <c r="B208" s="28" t="n"/>
       <c r="C208" s="28" t="n"/>
@@ -8928,7 +10974,7 @@
       <c r="AE208" s="39" t="n"/>
       <c r="AF208" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="209">
+    <row r="209" ht="30" customHeight="1">
       <c r="A209" s="28" t="n"/>
       <c r="B209" s="28" t="n"/>
       <c r="C209" s="28" t="n"/>
@@ -8962,7 +11008,7 @@
       <c r="AE209" s="39" t="n"/>
       <c r="AF209" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="210">
+    <row r="210" ht="30" customHeight="1">
       <c r="A210" s="28" t="n"/>
       <c r="B210" s="28" t="n"/>
       <c r="C210" s="28" t="n"/>
@@ -8996,7 +11042,7 @@
       <c r="AE210" s="39" t="n"/>
       <c r="AF210" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="211">
+    <row r="211" ht="30" customHeight="1">
       <c r="A211" s="28" t="n"/>
       <c r="B211" s="28" t="n"/>
       <c r="C211" s="28" t="n"/>
@@ -9030,7 +11076,7 @@
       <c r="AE211" s="39" t="n"/>
       <c r="AF211" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="212">
+    <row r="212" ht="30" customHeight="1">
       <c r="A212" s="28" t="n"/>
       <c r="B212" s="28" t="n"/>
       <c r="C212" s="28" t="n"/>
@@ -9064,7 +11110,7 @@
       <c r="AE212" s="39" t="n"/>
       <c r="AF212" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="213">
+    <row r="213" ht="30" customHeight="1">
       <c r="A213" s="28" t="n"/>
       <c r="B213" s="28" t="n"/>
       <c r="C213" s="28" t="n"/>
@@ -9098,7 +11144,7 @@
       <c r="AE213" s="39" t="n"/>
       <c r="AF213" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="214">
+    <row r="214" ht="30" customHeight="1">
       <c r="A214" s="28" t="n"/>
       <c r="B214" s="28" t="n"/>
       <c r="C214" s="28" t="n"/>
@@ -9132,7 +11178,7 @@
       <c r="AE214" s="39" t="n"/>
       <c r="AF214" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="215">
+    <row r="215" ht="30" customHeight="1">
       <c r="A215" s="28" t="n"/>
       <c r="B215" s="28" t="n"/>
       <c r="C215" s="28" t="n"/>
@@ -9166,7 +11212,7 @@
       <c r="AE215" s="39" t="n"/>
       <c r="AF215" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="216">
+    <row r="216" ht="30" customHeight="1">
       <c r="A216" s="28" t="n"/>
       <c r="B216" s="28" t="n"/>
       <c r="C216" s="28" t="n"/>
@@ -9200,7 +11246,7 @@
       <c r="AE216" s="39" t="n"/>
       <c r="AF216" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="217">
+    <row r="217" ht="30" customHeight="1">
       <c r="A217" s="28" t="n"/>
       <c r="B217" s="28" t="n"/>
       <c r="C217" s="28" t="n"/>
@@ -9234,7 +11280,7 @@
       <c r="AE217" s="39" t="n"/>
       <c r="AF217" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="218">
+    <row r="218" ht="30" customHeight="1">
       <c r="A218" s="28" t="n"/>
       <c r="B218" s="28" t="n"/>
       <c r="C218" s="28" t="n"/>
@@ -9268,7 +11314,7 @@
       <c r="AE218" s="39" t="n"/>
       <c r="AF218" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="219">
+    <row r="219" ht="30" customHeight="1">
       <c r="A219" s="28" t="n"/>
       <c r="B219" s="28" t="n"/>
       <c r="C219" s="28" t="n"/>
@@ -9302,7 +11348,7 @@
       <c r="AE219" s="39" t="n"/>
       <c r="AF219" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="220">
+    <row r="220" ht="30" customHeight="1">
       <c r="A220" s="28" t="n"/>
       <c r="B220" s="28" t="n"/>
       <c r="C220" s="28" t="n"/>
@@ -9336,7 +11382,7 @@
       <c r="AE220" s="39" t="n"/>
       <c r="AF220" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="221">
+    <row r="221" ht="30" customHeight="1">
       <c r="A221" s="28" t="n"/>
       <c r="B221" s="28" t="n"/>
       <c r="C221" s="28" t="n"/>
@@ -9370,7 +11416,7 @@
       <c r="AE221" s="39" t="n"/>
       <c r="AF221" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="222">
+    <row r="222" ht="30" customHeight="1">
       <c r="A222" s="28" t="n"/>
       <c r="B222" s="28" t="n"/>
       <c r="C222" s="28" t="n"/>
@@ -9404,7 +11450,7 @@
       <c r="AE222" s="39" t="n"/>
       <c r="AF222" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="223">
+    <row r="223" ht="30" customHeight="1">
       <c r="A223" s="28" t="n"/>
       <c r="B223" s="28" t="n"/>
       <c r="C223" s="28" t="n"/>
@@ -9438,7 +11484,7 @@
       <c r="AE223" s="39" t="n"/>
       <c r="AF223" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="224">
+    <row r="224" ht="30" customHeight="1">
       <c r="A224" s="28" t="n"/>
       <c r="B224" s="28" t="n"/>
       <c r="C224" s="28" t="n"/>
@@ -9472,7 +11518,7 @@
       <c r="AE224" s="39" t="n"/>
       <c r="AF224" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="225">
+    <row r="225" ht="30" customHeight="1">
       <c r="A225" s="28" t="n"/>
       <c r="B225" s="28" t="n"/>
       <c r="C225" s="28" t="n"/>
@@ -9506,7 +11552,7 @@
       <c r="AE225" s="39" t="n"/>
       <c r="AF225" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="226">
+    <row r="226" ht="30" customHeight="1">
       <c r="A226" s="28" t="n"/>
       <c r="B226" s="28" t="n"/>
       <c r="C226" s="28" t="n"/>
@@ -9540,7 +11586,7 @@
       <c r="AE226" s="39" t="n"/>
       <c r="AF226" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="227">
+    <row r="227" ht="30" customHeight="1">
       <c r="A227" s="28" t="n"/>
       <c r="B227" s="28" t="n"/>
       <c r="C227" s="28" t="n"/>
@@ -9574,7 +11620,7 @@
       <c r="AE227" s="39" t="n"/>
       <c r="AF227" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="228">
+    <row r="228" ht="30" customHeight="1">
       <c r="A228" s="28" t="n"/>
       <c r="B228" s="28" t="n"/>
       <c r="C228" s="28" t="n"/>
@@ -9608,7 +11654,7 @@
       <c r="AE228" s="39" t="n"/>
       <c r="AF228" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="229">
+    <row r="229" ht="30" customHeight="1">
       <c r="A229" s="28" t="n"/>
       <c r="B229" s="28" t="n"/>
       <c r="C229" s="28" t="n"/>
@@ -9642,7 +11688,7 @@
       <c r="AE229" s="39" t="n"/>
       <c r="AF229" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="230">
+    <row r="230" ht="30" customHeight="1">
       <c r="A230" s="28" t="n"/>
       <c r="B230" s="28" t="n"/>
       <c r="C230" s="28" t="n"/>
@@ -9676,7 +11722,7 @@
       <c r="AE230" s="39" t="n"/>
       <c r="AF230" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="231">
+    <row r="231" ht="30" customHeight="1">
       <c r="A231" s="28" t="n"/>
       <c r="B231" s="28" t="n"/>
       <c r="C231" s="28" t="n"/>
@@ -9710,7 +11756,7 @@
       <c r="AE231" s="39" t="n"/>
       <c r="AF231" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="232">
+    <row r="232" ht="30" customHeight="1">
       <c r="A232" s="28" t="n"/>
       <c r="B232" s="28" t="n"/>
       <c r="C232" s="28" t="n"/>
@@ -9744,7 +11790,7 @@
       <c r="AE232" s="39" t="n"/>
       <c r="AF232" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="233">
+    <row r="233" ht="30" customHeight="1">
       <c r="A233" s="28" t="n"/>
       <c r="B233" s="28" t="n"/>
       <c r="C233" s="28" t="n"/>
@@ -9778,7 +11824,7 @@
       <c r="AE233" s="39" t="n"/>
       <c r="AF233" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="234">
+    <row r="234" ht="30" customHeight="1">
       <c r="A234" s="28" t="n"/>
       <c r="B234" s="28" t="n"/>
       <c r="C234" s="28" t="n"/>
@@ -9812,7 +11858,7 @@
       <c r="AE234" s="39" t="n"/>
       <c r="AF234" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="235">
+    <row r="235" ht="30" customHeight="1">
       <c r="A235" s="28" t="n"/>
       <c r="B235" s="28" t="n"/>
       <c r="C235" s="28" t="n"/>
@@ -9846,7 +11892,7 @@
       <c r="AE235" s="39" t="n"/>
       <c r="AF235" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="236">
+    <row r="236" ht="30" customHeight="1">
       <c r="A236" s="28" t="n"/>
       <c r="B236" s="28" t="n"/>
       <c r="C236" s="28" t="n"/>
@@ -9880,7 +11926,7 @@
       <c r="AE236" s="39" t="n"/>
       <c r="AF236" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="237">
+    <row r="237" ht="30" customHeight="1">
       <c r="A237" s="28" t="n"/>
       <c r="B237" s="28" t="n"/>
       <c r="C237" s="28" t="n"/>
@@ -9914,7 +11960,7 @@
       <c r="AE237" s="39" t="n"/>
       <c r="AF237" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="238">
+    <row r="238" ht="30" customHeight="1">
       <c r="A238" s="28" t="n"/>
       <c r="B238" s="28" t="n"/>
       <c r="C238" s="28" t="n"/>
@@ -9948,7 +11994,7 @@
       <c r="AE238" s="39" t="n"/>
       <c r="AF238" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="239">
+    <row r="239" ht="30" customHeight="1">
       <c r="A239" s="28" t="n"/>
       <c r="B239" s="28" t="n"/>
       <c r="C239" s="28" t="n"/>
@@ -9982,7 +12028,7 @@
       <c r="AE239" s="39" t="n"/>
       <c r="AF239" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="240">
+    <row r="240" ht="30" customHeight="1">
       <c r="A240" s="28" t="n"/>
       <c r="B240" s="28" t="n"/>
       <c r="C240" s="28" t="n"/>
@@ -10016,7 +12062,7 @@
       <c r="AE240" s="39" t="n"/>
       <c r="AF240" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="241">
+    <row r="241" ht="30" customHeight="1">
       <c r="A241" s="28" t="n"/>
       <c r="B241" s="28" t="n"/>
       <c r="C241" s="28" t="n"/>
@@ -10050,7 +12096,7 @@
       <c r="AE241" s="39" t="n"/>
       <c r="AF241" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="242">
+    <row r="242" ht="30" customHeight="1">
       <c r="A242" s="28" t="n"/>
       <c r="B242" s="28" t="n"/>
       <c r="C242" s="28" t="n"/>
@@ -10084,7 +12130,7 @@
       <c r="AE242" s="39" t="n"/>
       <c r="AF242" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="243">
+    <row r="243" ht="30" customHeight="1">
       <c r="A243" s="28" t="n"/>
       <c r="B243" s="28" t="n"/>
       <c r="C243" s="28" t="n"/>
@@ -10118,7 +12164,7 @@
       <c r="AE243" s="39" t="n"/>
       <c r="AF243" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="244">
+    <row r="244" ht="30" customHeight="1">
       <c r="A244" s="28" t="n"/>
       <c r="B244" s="28" t="n"/>
       <c r="C244" s="28" t="n"/>
@@ -10152,7 +12198,7 @@
       <c r="AE244" s="39" t="n"/>
       <c r="AF244" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="245">
+    <row r="245" ht="30" customHeight="1">
       <c r="A245" s="28" t="n"/>
       <c r="B245" s="28" t="n"/>
       <c r="C245" s="28" t="n"/>
@@ -10186,7 +12232,7 @@
       <c r="AE245" s="39" t="n"/>
       <c r="AF245" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="246">
+    <row r="246" ht="30" customHeight="1">
       <c r="A246" s="28" t="n"/>
       <c r="B246" s="28" t="n"/>
       <c r="C246" s="28" t="n"/>
@@ -10220,7 +12266,7 @@
       <c r="AE246" s="39" t="n"/>
       <c r="AF246" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="247">
+    <row r="247" ht="30" customHeight="1">
       <c r="A247" s="28" t="n"/>
       <c r="B247" s="28" t="n"/>
       <c r="C247" s="28" t="n"/>
@@ -10254,7 +12300,7 @@
       <c r="AE247" s="39" t="n"/>
       <c r="AF247" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="248">
+    <row r="248" ht="30" customHeight="1">
       <c r="A248" s="28" t="n"/>
       <c r="B248" s="28" t="n"/>
       <c r="C248" s="28" t="n"/>
@@ -10288,7 +12334,7 @@
       <c r="AE248" s="39" t="n"/>
       <c r="AF248" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="249">
+    <row r="249" ht="30" customHeight="1">
       <c r="A249" s="28" t="n"/>
       <c r="B249" s="28" t="n"/>
       <c r="C249" s="28" t="n"/>
@@ -10322,7 +12368,7 @@
       <c r="AE249" s="39" t="n"/>
       <c r="AF249" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="250">
+    <row r="250" ht="30" customHeight="1">
       <c r="A250" s="28" t="n"/>
       <c r="B250" s="28" t="n"/>
       <c r="C250" s="28" t="n"/>
@@ -10356,7 +12402,7 @@
       <c r="AE250" s="39" t="n"/>
       <c r="AF250" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="251">
+    <row r="251" ht="30" customHeight="1">
       <c r="A251" s="28" t="n"/>
       <c r="B251" s="28" t="n"/>
       <c r="C251" s="28" t="n"/>
@@ -10390,7 +12436,7 @@
       <c r="AE251" s="39" t="n"/>
       <c r="AF251" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="252">
+    <row r="252" ht="30" customHeight="1">
       <c r="A252" s="28" t="n"/>
       <c r="B252" s="28" t="n"/>
       <c r="C252" s="28" t="n"/>
@@ -10424,7 +12470,7 @@
       <c r="AE252" s="39" t="n"/>
       <c r="AF252" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="253">
+    <row r="253" ht="30" customHeight="1">
       <c r="A253" s="28" t="n"/>
       <c r="B253" s="28" t="n"/>
       <c r="C253" s="28" t="n"/>
@@ -10458,7 +12504,7 @@
       <c r="AE253" s="39" t="n"/>
       <c r="AF253" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="254">
+    <row r="254" ht="30" customHeight="1">
       <c r="A254" s="28" t="n"/>
       <c r="B254" s="28" t="n"/>
       <c r="C254" s="28" t="n"/>
@@ -10492,7 +12538,7 @@
       <c r="AE254" s="39" t="n"/>
       <c r="AF254" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="255">
+    <row r="255" ht="30" customHeight="1">
       <c r="A255" s="28" t="n"/>
       <c r="B255" s="28" t="n"/>
       <c r="C255" s="28" t="n"/>
@@ -10526,7 +12572,7 @@
       <c r="AE255" s="39" t="n"/>
       <c r="AF255" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="256">
+    <row r="256" ht="30" customHeight="1">
       <c r="A256" s="28" t="n"/>
       <c r="B256" s="28" t="n"/>
       <c r="C256" s="28" t="n"/>
@@ -10560,7 +12606,7 @@
       <c r="AE256" s="39" t="n"/>
       <c r="AF256" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="257">
+    <row r="257" ht="30" customHeight="1">
       <c r="A257" s="28" t="n"/>
       <c r="B257" s="28" t="n"/>
       <c r="C257" s="28" t="n"/>
@@ -10594,7 +12640,7 @@
       <c r="AE257" s="39" t="n"/>
       <c r="AF257" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="258">
+    <row r="258" ht="30" customHeight="1">
       <c r="A258" s="28" t="n"/>
       <c r="B258" s="28" t="n"/>
       <c r="C258" s="28" t="n"/>
@@ -10628,7 +12674,7 @@
       <c r="AE258" s="39" t="n"/>
       <c r="AF258" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="259">
+    <row r="259" ht="30" customHeight="1">
       <c r="A259" s="28" t="n"/>
       <c r="B259" s="28" t="n"/>
       <c r="C259" s="28" t="n"/>
@@ -10662,7 +12708,7 @@
       <c r="AE259" s="39" t="n"/>
       <c r="AF259" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="260">
+    <row r="260" ht="30" customHeight="1">
       <c r="A260" s="28" t="n"/>
       <c r="B260" s="28" t="n"/>
       <c r="C260" s="28" t="n"/>
@@ -10696,7 +12742,7 @@
       <c r="AE260" s="39" t="n"/>
       <c r="AF260" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="261">
+    <row r="261" ht="30" customHeight="1">
       <c r="A261" s="28" t="n"/>
       <c r="B261" s="28" t="n"/>
       <c r="C261" s="28" t="n"/>
@@ -10730,7 +12776,7 @@
       <c r="AE261" s="39" t="n"/>
       <c r="AF261" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="262">
+    <row r="262" ht="30" customHeight="1">
       <c r="A262" s="28" t="n"/>
       <c r="B262" s="28" t="n"/>
       <c r="C262" s="28" t="n"/>
@@ -10764,7 +12810,7 @@
       <c r="AE262" s="39" t="n"/>
       <c r="AF262" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="263">
+    <row r="263" ht="30" customHeight="1">
       <c r="A263" s="28" t="n"/>
       <c r="B263" s="28" t="n"/>
       <c r="C263" s="28" t="n"/>
@@ -10798,7 +12844,7 @@
       <c r="AE263" s="39" t="n"/>
       <c r="AF263" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="264">
+    <row r="264" ht="30" customHeight="1">
       <c r="A264" s="28" t="n"/>
       <c r="B264" s="28" t="n"/>
       <c r="C264" s="28" t="n"/>
@@ -10832,7 +12878,7 @@
       <c r="AE264" s="39" t="n"/>
       <c r="AF264" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="265">
+    <row r="265" ht="30" customHeight="1">
       <c r="A265" s="28" t="n"/>
       <c r="B265" s="28" t="n"/>
       <c r="C265" s="28" t="n"/>
@@ -10866,7 +12912,7 @@
       <c r="AE265" s="39" t="n"/>
       <c r="AF265" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="266">
+    <row r="266" ht="30" customHeight="1">
       <c r="A266" s="28" t="n"/>
       <c r="B266" s="28" t="n"/>
       <c r="C266" s="28" t="n"/>
@@ -10900,7 +12946,7 @@
       <c r="AE266" s="39" t="n"/>
       <c r="AF266" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="267">
+    <row r="267" ht="30" customHeight="1">
       <c r="A267" s="28" t="n"/>
       <c r="B267" s="28" t="n"/>
       <c r="C267" s="28" t="n"/>
@@ -10934,7 +12980,7 @@
       <c r="AE267" s="39" t="n"/>
       <c r="AF267" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="268">
+    <row r="268" ht="30" customHeight="1">
       <c r="A268" s="28" t="n"/>
       <c r="B268" s="28" t="n"/>
       <c r="C268" s="28" t="n"/>
@@ -10968,7 +13014,7 @@
       <c r="AE268" s="39" t="n"/>
       <c r="AF268" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="269">
+    <row r="269" ht="30" customHeight="1">
       <c r="A269" s="28" t="n"/>
       <c r="B269" s="28" t="n"/>
       <c r="C269" s="28" t="n"/>
@@ -11002,7 +13048,7 @@
       <c r="AE269" s="39" t="n"/>
       <c r="AF269" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="270">
+    <row r="270" ht="30" customHeight="1">
       <c r="A270" s="28" t="n"/>
       <c r="B270" s="28" t="n"/>
       <c r="C270" s="28" t="n"/>
@@ -11036,7 +13082,7 @@
       <c r="AE270" s="39" t="n"/>
       <c r="AF270" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="271">
+    <row r="271" ht="30" customHeight="1">
       <c r="A271" s="28" t="n"/>
       <c r="B271" s="28" t="n"/>
       <c r="C271" s="28" t="n"/>
@@ -11070,7 +13116,7 @@
       <c r="AE271" s="39" t="n"/>
       <c r="AF271" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="272">
+    <row r="272" ht="30" customHeight="1">
       <c r="A272" s="28" t="n"/>
       <c r="B272" s="28" t="n"/>
       <c r="C272" s="28" t="n"/>
@@ -11104,7 +13150,7 @@
       <c r="AE272" s="39" t="n"/>
       <c r="AF272" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="273">
+    <row r="273" ht="30" customHeight="1">
       <c r="A273" s="28" t="n"/>
       <c r="B273" s="28" t="n"/>
       <c r="C273" s="28" t="n"/>
@@ -11138,7 +13184,7 @@
       <c r="AE273" s="39" t="n"/>
       <c r="AF273" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="274">
+    <row r="274" ht="30" customHeight="1">
       <c r="A274" s="28" t="n"/>
       <c r="B274" s="28" t="n"/>
       <c r="C274" s="28" t="n"/>
@@ -11172,7 +13218,7 @@
       <c r="AE274" s="39" t="n"/>
       <c r="AF274" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="275">
+    <row r="275" ht="30" customHeight="1">
       <c r="A275" s="28" t="n"/>
       <c r="B275" s="28" t="n"/>
       <c r="C275" s="28" t="n"/>
@@ -11206,7 +13252,7 @@
       <c r="AE275" s="39" t="n"/>
       <c r="AF275" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="276">
+    <row r="276" ht="30" customHeight="1">
       <c r="A276" s="28" t="n"/>
       <c r="B276" s="28" t="n"/>
       <c r="C276" s="28" t="n"/>
@@ -11240,7 +13286,7 @@
       <c r="AE276" s="39" t="n"/>
       <c r="AF276" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="277">
+    <row r="277" ht="30" customHeight="1">
       <c r="A277" s="28" t="n"/>
       <c r="B277" s="28" t="n"/>
       <c r="C277" s="28" t="n"/>
@@ -11274,7 +13320,7 @@
       <c r="AE277" s="39" t="n"/>
       <c r="AF277" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="278">
+    <row r="278" ht="30" customHeight="1">
       <c r="A278" s="28" t="n"/>
       <c r="B278" s="28" t="n"/>
       <c r="C278" s="28" t="n"/>
@@ -11308,7 +13354,7 @@
       <c r="AE278" s="39" t="n"/>
       <c r="AF278" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="279">
+    <row r="279" ht="30" customHeight="1">
       <c r="A279" s="28" t="n"/>
       <c r="B279" s="28" t="n"/>
       <c r="C279" s="28" t="n"/>
@@ -11342,7 +13388,7 @@
       <c r="AE279" s="39" t="n"/>
       <c r="AF279" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="280">
+    <row r="280" ht="30" customHeight="1">
       <c r="A280" s="28" t="n"/>
       <c r="B280" s="28" t="n"/>
       <c r="C280" s="28" t="n"/>
@@ -11376,7 +13422,7 @@
       <c r="AE280" s="39" t="n"/>
       <c r="AF280" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="281">
+    <row r="281" ht="30" customHeight="1">
       <c r="A281" s="28" t="n"/>
       <c r="B281" s="28" t="n"/>
       <c r="C281" s="28" t="n"/>
@@ -11410,7 +13456,7 @@
       <c r="AE281" s="39" t="n"/>
       <c r="AF281" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="282">
+    <row r="282" ht="30" customHeight="1">
       <c r="A282" s="28" t="n"/>
       <c r="B282" s="28" t="n"/>
       <c r="C282" s="28" t="n"/>
@@ -11444,7 +13490,7 @@
       <c r="AE282" s="39" t="n"/>
       <c r="AF282" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="283">
+    <row r="283" ht="30" customHeight="1">
       <c r="A283" s="28" t="n"/>
       <c r="B283" s="28" t="n"/>
       <c r="C283" s="28" t="n"/>
@@ -11478,7 +13524,7 @@
       <c r="AE283" s="39" t="n"/>
       <c r="AF283" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="284">
+    <row r="284" ht="30" customHeight="1">
       <c r="A284" s="28" t="n"/>
       <c r="B284" s="28" t="n"/>
       <c r="C284" s="28" t="n"/>
@@ -11512,7 +13558,7 @@
       <c r="AE284" s="39" t="n"/>
       <c r="AF284" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="285">
+    <row r="285" ht="30" customHeight="1">
       <c r="A285" s="28" t="n"/>
       <c r="B285" s="28" t="n"/>
       <c r="C285" s="28" t="n"/>
@@ -11546,7 +13592,7 @@
       <c r="AE285" s="39" t="n"/>
       <c r="AF285" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="286">
+    <row r="286" ht="30" customHeight="1">
       <c r="A286" s="28" t="n"/>
       <c r="B286" s="28" t="n"/>
       <c r="C286" s="28" t="n"/>
@@ -11580,7 +13626,7 @@
       <c r="AE286" s="39" t="n"/>
       <c r="AF286" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="287">
+    <row r="287" ht="30" customHeight="1">
       <c r="A287" s="28" t="n"/>
       <c r="B287" s="28" t="n"/>
       <c r="C287" s="28" t="n"/>
@@ -11614,7 +13660,7 @@
       <c r="AE287" s="39" t="n"/>
       <c r="AF287" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="288">
+    <row r="288" ht="30" customHeight="1">
       <c r="A288" s="28" t="n"/>
       <c r="B288" s="28" t="n"/>
       <c r="C288" s="28" t="n"/>
@@ -11648,7 +13694,7 @@
       <c r="AE288" s="39" t="n"/>
       <c r="AF288" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="289">
+    <row r="289" ht="30" customHeight="1">
       <c r="A289" s="28" t="n"/>
       <c r="B289" s="28" t="n"/>
       <c r="C289" s="28" t="n"/>
@@ -11682,7 +13728,7 @@
       <c r="AE289" s="39" t="n"/>
       <c r="AF289" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="290">
+    <row r="290" ht="30" customHeight="1">
       <c r="A290" s="28" t="n"/>
       <c r="B290" s="28" t="n"/>
       <c r="C290" s="28" t="n"/>
@@ -11716,7 +13762,7 @@
       <c r="AE290" s="39" t="n"/>
       <c r="AF290" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="291">
+    <row r="291" ht="30" customHeight="1">
       <c r="A291" s="28" t="n"/>
       <c r="B291" s="28" t="n"/>
       <c r="C291" s="28" t="n"/>
@@ -11750,7 +13796,7 @@
       <c r="AE291" s="39" t="n"/>
       <c r="AF291" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="292">
+    <row r="292" ht="30" customHeight="1">
       <c r="A292" s="28" t="n"/>
       <c r="B292" s="28" t="n"/>
       <c r="C292" s="28" t="n"/>
@@ -11784,7 +13830,7 @@
       <c r="AE292" s="39" t="n"/>
       <c r="AF292" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="293">
+    <row r="293" ht="30" customHeight="1">
       <c r="A293" s="28" t="n"/>
       <c r="B293" s="28" t="n"/>
       <c r="C293" s="28" t="n"/>
@@ -11818,7 +13864,7 @@
       <c r="AE293" s="39" t="n"/>
       <c r="AF293" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="294">
+    <row r="294" ht="30" customHeight="1">
       <c r="A294" s="28" t="n"/>
       <c r="B294" s="28" t="n"/>
       <c r="C294" s="28" t="n"/>
@@ -11852,7 +13898,7 @@
       <c r="AE294" s="39" t="n"/>
       <c r="AF294" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="295">
+    <row r="295" ht="30" customHeight="1">
       <c r="A295" s="28" t="n"/>
       <c r="B295" s="28" t="n"/>
       <c r="C295" s="28" t="n"/>
@@ -11886,7 +13932,7 @@
       <c r="AE295" s="39" t="n"/>
       <c r="AF295" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="296">
+    <row r="296" ht="30" customHeight="1">
       <c r="A296" s="28" t="n"/>
       <c r="B296" s="28" t="n"/>
       <c r="C296" s="28" t="n"/>
@@ -11920,7 +13966,7 @@
       <c r="AE296" s="39" t="n"/>
       <c r="AF296" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="297">
+    <row r="297" ht="30" customHeight="1">
       <c r="A297" s="28" t="n"/>
       <c r="B297" s="28" t="n"/>
       <c r="C297" s="28" t="n"/>
@@ -11954,7 +14000,7 @@
       <c r="AE297" s="39" t="n"/>
       <c r="AF297" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="298">
+    <row r="298" ht="30" customHeight="1">
       <c r="A298" s="28" t="n"/>
       <c r="B298" s="28" t="n"/>
       <c r="C298" s="28" t="n"/>
@@ -11988,7 +14034,7 @@
       <c r="AE298" s="39" t="n"/>
       <c r="AF298" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="299">
+    <row r="299" ht="30" customHeight="1">
       <c r="A299" s="28" t="n"/>
       <c r="B299" s="28" t="n"/>
       <c r="C299" s="28" t="n"/>
@@ -12022,7 +14068,7 @@
       <c r="AE299" s="39" t="n"/>
       <c r="AF299" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="300">
+    <row r="300" ht="30" customHeight="1">
       <c r="A300" s="28" t="n"/>
       <c r="B300" s="28" t="n"/>
       <c r="C300" s="28" t="n"/>
@@ -12056,7 +14102,7 @@
       <c r="AE300" s="39" t="n"/>
       <c r="AF300" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="301">
+    <row r="301" ht="30" customHeight="1">
       <c r="A301" s="28" t="n"/>
       <c r="B301" s="28" t="n"/>
       <c r="C301" s="28" t="n"/>
@@ -12090,7 +14136,7 @@
       <c r="AE301" s="39" t="n"/>
       <c r="AF301" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="302">
+    <row r="302" ht="30" customHeight="1">
       <c r="A302" s="28" t="n"/>
       <c r="B302" s="28" t="n"/>
       <c r="C302" s="28" t="n"/>
@@ -12124,7 +14170,7 @@
       <c r="AE302" s="39" t="n"/>
       <c r="AF302" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="303">
+    <row r="303" ht="30" customHeight="1">
       <c r="A303" s="28" t="n"/>
       <c r="B303" s="28" t="n"/>
       <c r="C303" s="28" t="n"/>
@@ -12158,7 +14204,7 @@
       <c r="AE303" s="39" t="n"/>
       <c r="AF303" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="304">
+    <row r="304" ht="30" customHeight="1">
       <c r="A304" s="28" t="n"/>
       <c r="B304" s="28" t="n"/>
       <c r="C304" s="28" t="n"/>
@@ -12192,7 +14238,7 @@
       <c r="AE304" s="39" t="n"/>
       <c r="AF304" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="305">
+    <row r="305" ht="30" customHeight="1">
       <c r="A305" s="28" t="n"/>
       <c r="B305" s="28" t="n"/>
       <c r="C305" s="28" t="n"/>
@@ -12226,7 +14272,7 @@
       <c r="AE305" s="39" t="n"/>
       <c r="AF305" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="306">
+    <row r="306" ht="30" customHeight="1">
       <c r="A306" s="28" t="n"/>
       <c r="B306" s="28" t="n"/>
       <c r="C306" s="28" t="n"/>
@@ -12260,7 +14306,7 @@
       <c r="AE306" s="39" t="n"/>
       <c r="AF306" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="307">
+    <row r="307" ht="30" customHeight="1">
       <c r="A307" s="28" t="n"/>
       <c r="B307" s="28" t="n"/>
       <c r="C307" s="28" t="n"/>
@@ -12294,7 +14340,7 @@
       <c r="AE307" s="39" t="n"/>
       <c r="AF307" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="308">
+    <row r="308" ht="30" customHeight="1">
       <c r="A308" s="28" t="n"/>
       <c r="B308" s="28" t="n"/>
       <c r="C308" s="28" t="n"/>
@@ -12328,7 +14374,7 @@
       <c r="AE308" s="39" t="n"/>
       <c r="AF308" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="309">
+    <row r="309" ht="30" customHeight="1">
       <c r="A309" s="28" t="n"/>
       <c r="B309" s="28" t="n"/>
       <c r="C309" s="28" t="n"/>
@@ -12362,7 +14408,7 @@
       <c r="AE309" s="39" t="n"/>
       <c r="AF309" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="310">
+    <row r="310" ht="30" customHeight="1">
       <c r="A310" s="28" t="n"/>
       <c r="B310" s="28" t="n"/>
       <c r="C310" s="28" t="n"/>
@@ -12396,7 +14442,7 @@
       <c r="AE310" s="39" t="n"/>
       <c r="AF310" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="311">
+    <row r="311" ht="30" customHeight="1">
       <c r="A311" s="28" t="n"/>
       <c r="B311" s="28" t="n"/>
       <c r="C311" s="28" t="n"/>
@@ -12430,7 +14476,7 @@
       <c r="AE311" s="39" t="n"/>
       <c r="AF311" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="30" r="312">
+    <row r="312" ht="30" customHeight="1">
       <c r="A312" s="28" t="n"/>
       <c r="B312" s="28" t="n"/>
       <c r="C312" s="28" t="n"/>
@@ -14020,7 +16066,7 @@
       <c r="C487" s="28" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.3" header="0.3" left="1" right="1" top="1"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/resource_api/maliyet_raporlar/dosyalar/ayo_maliyet_listesi.xlsx
+++ b/resource_api/maliyet_raporlar/dosyalar/ayo_maliyet_listesi.xlsx
@@ -843,7 +843,7 @@
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>Fatih</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>21NOVA42</t>
+          <t>22JAT01</t>
         </is>
       </c>
       <c r="D2" s="22" t="inlineStr">
@@ -868,58 +868,58 @@
       </c>
       <c r="F2" s="32" t="inlineStr">
         <is>
-          <t>06-12-2021</t>
+          <t>14-09-2022</t>
         </is>
       </c>
       <c r="G2" s="32" t="inlineStr">
         <is>
-          <t>05-01-2022</t>
+          <t>06-10-2022</t>
         </is>
       </c>
       <c r="H2" s="12" t="inlineStr">
         <is>
-          <t>Nova - Elaine</t>
+          <t>Jacob Tyroller- USA</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>CFR</t>
+          <t>DDP</t>
         </is>
       </c>
       <c r="K2" s="33" t="n">
-        <v>15910.9</v>
+        <v>2558.99</v>
       </c>
       <c r="L2" s="34" t="n">
-        <v>12081.25</v>
+        <v>0</v>
       </c>
       <c r="M2" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N2" s="34" t="n">
+        <v>1758.33</v>
+      </c>
+      <c r="O2" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="34" t="n">
-        <v>243.62</v>
-      </c>
       <c r="P2" s="34" t="n">
-        <v>33.83</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="35" t="n">
-        <v>14.03</v>
+        <v>0</v>
       </c>
       <c r="R2" s="35" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S2" s="35" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="35" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="U2" s="35" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="35" t="n">
-        <v>0</v>
+        <v>334.92</v>
       </c>
       <c r="Y2" s="36" t="n">
         <v>0</v>
@@ -940,40 +940,40 @@
         <v>0</v>
       </c>
       <c r="AA2" s="36" t="n">
-        <v>0</v>
+        <v>89.79000000000001</v>
       </c>
       <c r="AB2" s="36" t="n">
         <v>0</v>
       </c>
       <c r="AC2" s="37" t="n">
-        <v>14022.73</v>
+        <v>2183.04</v>
       </c>
       <c r="AD2" s="38" t="n">
-        <v>0</v>
+        <v>375.95</v>
       </c>
       <c r="AE2" s="17" t="n">
-        <v>0</v>
+        <v>6876.1255</v>
       </c>
       <c r="AF2" s="19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>14-09-2022</t>
         </is>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>21VEIK77-02</t>
+          <t>22PRIM02-3</t>
         </is>
       </c>
       <c r="D3" s="22" t="inlineStr">
@@ -988,22 +988,22 @@
       </c>
       <c r="F3" s="32" t="inlineStr">
         <is>
-          <t>13-12-2021</t>
+          <t>08-03-2022</t>
         </is>
       </c>
       <c r="G3" s="32" t="inlineStr">
         <is>
-          <t>05-01-2022</t>
+          <t>08-10-2022</t>
         </is>
       </c>
       <c r="H3" s="12" t="inlineStr">
         <is>
-          <t>VEIK - UAE</t>
+          <t>Prim Rose - Ghana</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -1012,37 +1012,37 @@
         </is>
       </c>
       <c r="K3" s="33" t="n">
-        <v>5866.25</v>
+        <v>60922.32</v>
       </c>
       <c r="L3" s="34" t="n">
-        <v>2762.76</v>
+        <v>39569.075</v>
       </c>
       <c r="M3" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="34" t="n">
-        <v>338.6502</v>
+        <v>0</v>
       </c>
       <c r="O3" s="34" t="n">
-        <v>245.36</v>
+        <v>540.55</v>
       </c>
       <c r="P3" s="34" t="n">
-        <v>4.63</v>
+        <v>74.51000000000001</v>
       </c>
       <c r="Q3" s="35" t="n">
-        <v>14.03</v>
+        <v>40.27</v>
       </c>
       <c r="R3" s="35" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="S3" s="35" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="35" t="n">
-        <v>1250</v>
+        <v>4840</v>
       </c>
       <c r="U3" s="35" t="n">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="V3" s="35" t="n">
         <v>0</v>
@@ -1060,40 +1060,40 @@
         <v>0</v>
       </c>
       <c r="AA3" s="36" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="36" t="n">
-        <v>0</v>
+        <v>18.13</v>
       </c>
       <c r="AC3" s="37" t="n">
-        <v>5052.4302</v>
+        <v>49682.535</v>
       </c>
       <c r="AD3" s="38" t="n">
-        <v>813.8198</v>
+        <v>11239.785</v>
       </c>
       <c r="AE3" s="17" t="n">
-        <v>11051.672884</v>
+        <v>202316.13</v>
       </c>
       <c r="AF3" s="19" t="inlineStr">
         <is>
-          <t>10-02-2022</t>
+          <t>03-08-2022</t>
         </is>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>Su</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>21SU110</t>
+          <t>22KET01 - 2</t>
         </is>
       </c>
       <c r="D4" s="22" t="inlineStr">
@@ -1108,46 +1108,46 @@
       </c>
       <c r="F4" s="32" t="inlineStr">
         <is>
-          <t>10-01-2022</t>
+          <t>21-09-2022</t>
         </is>
       </c>
       <c r="G4" s="32" t="inlineStr">
         <is>
-          <t>10-01-2022</t>
+          <t>15-10-2022</t>
         </is>
       </c>
       <c r="H4" s="12" t="inlineStr">
         <is>
-          <t>Tamer ($)</t>
+          <t>Keith Tabor - USA</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>FCA</t>
+          <t>DDP</t>
         </is>
       </c>
       <c r="K4" s="33" t="n">
-        <v>4475.43</v>
+        <v>3537.28</v>
       </c>
       <c r="L4" s="34" t="n">
-        <v>0</v>
+        <v>1052.8</v>
       </c>
       <c r="M4" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N4" s="34" t="n">
-        <v>1959.15</v>
+        <v>0</v>
       </c>
       <c r="O4" s="34" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="34" t="n">
-        <v>26.3</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="35" t="n">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="35" t="n">
-        <v>0</v>
+        <v>961.4</v>
       </c>
       <c r="U4" s="35" t="n">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="35" t="n">
-        <v>0</v>
+        <v>293.34</v>
       </c>
       <c r="Y4" s="36" t="n">
         <v>0</v>
@@ -1186,17 +1186,17 @@
         <v>0</v>
       </c>
       <c r="AC4" s="37" t="n">
-        <v>1985.45</v>
+        <v>2307.54</v>
       </c>
       <c r="AD4" s="38" t="n">
-        <v>2489.98</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="17" t="n">
-        <v>33714.3292</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="19" t="inlineStr">
         <is>
-          <t>11-02-2022</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>21PP10-2</t>
+          <t>22KET01 - 1</t>
         </is>
       </c>
       <c r="D5" s="22" t="inlineStr">
@@ -1228,31 +1228,31 @@
       </c>
       <c r="F5" s="32" t="inlineStr">
         <is>
-          <t>22-10-2021</t>
+          <t>21-09-2022</t>
         </is>
       </c>
       <c r="G5" s="32" t="inlineStr">
         <is>
-          <t>11-01-2022</t>
+          <t>15-10-2022</t>
         </is>
       </c>
       <c r="H5" s="12" t="inlineStr">
         <is>
-          <t>Bigeni - Malta</t>
+          <t>Keith Tabor - USA</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>CIF</t>
+          <t>DDP</t>
         </is>
       </c>
       <c r="K5" s="33" t="n">
-        <v>24117.75</v>
+        <v>743</v>
       </c>
       <c r="L5" s="34" t="n">
         <v>0</v>
@@ -1261,25 +1261,25 @@
         <v>0</v>
       </c>
       <c r="N5" s="34" t="n">
-        <v>15022.0643</v>
+        <v>0</v>
       </c>
       <c r="O5" s="34" t="n">
-        <v>221.4</v>
+        <v>0</v>
       </c>
       <c r="P5" s="34" t="n">
-        <v>44.35</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="35" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R5" s="35" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="S5" s="35" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T5" s="35" t="n">
-        <v>1618</v>
+        <v>0</v>
       </c>
       <c r="U5" s="35" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="35" t="n">
-        <v>0</v>
+        <v>83.7</v>
       </c>
       <c r="Y5" s="36" t="n">
         <v>0</v>
@@ -1300,40 +1300,40 @@
         <v>0</v>
       </c>
       <c r="AA5" s="36" t="n">
-        <v>13.63</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="36" t="n">
-        <v>15.75</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="37" t="n">
-        <v>17309.1943</v>
+        <v>83.7</v>
       </c>
       <c r="AD5" s="38" t="n">
-        <v>6808.5557</v>
+        <v>659.3</v>
       </c>
       <c r="AE5" s="17" t="n">
-        <v>92187.844178</v>
+        <v>12104.748</v>
       </c>
       <c r="AF5" s="19" t="inlineStr">
         <is>
-          <t>25-01-2022</t>
+          <t>21-09-2022</t>
         </is>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Hakan</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Hakan</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>21SEAN03</t>
+          <t>22LLP01</t>
         </is>
       </c>
       <c r="D6" s="22" t="inlineStr">
@@ -1343,63 +1343,63 @@
       </c>
       <c r="E6" s="22" t="inlineStr">
         <is>
-          <t>Mekmar</t>
+          <t>Efes</t>
         </is>
       </c>
       <c r="F6" s="32" t="inlineStr">
         <is>
-          <t>01-11-2021</t>
+          <t>31-05-2022</t>
         </is>
       </c>
       <c r="G6" s="32" t="inlineStr">
         <is>
-          <t>11-01-2022</t>
+          <t>17-10-2022</t>
         </is>
       </c>
       <c r="H6" s="12" t="inlineStr">
         <is>
-          <t>Sean - MALTA</t>
+          <t>Sherzod Tairov - Kazakhstan</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t>CFR</t>
+          <t>FOB</t>
         </is>
       </c>
       <c r="K6" s="33" t="n">
-        <v>8257.190000000001</v>
+        <v>18000</v>
       </c>
       <c r="L6" s="34" t="n">
-        <v>794.34</v>
+        <v>0</v>
       </c>
       <c r="M6" s="34" t="n">
-        <v>144.15</v>
+        <v>0</v>
       </c>
       <c r="N6" s="34" t="n">
-        <v>3378.54</v>
+        <v>10494.4</v>
       </c>
       <c r="O6" s="34" t="n">
-        <v>514.23</v>
+        <v>152.82</v>
       </c>
       <c r="P6" s="34" t="n">
+        <v>68.17</v>
+      </c>
+      <c r="Q6" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="Q6" s="35" t="n">
-        <v>14</v>
-      </c>
       <c r="R6" s="35" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="S6" s="35" t="n">
         <v>0</v>
       </c>
       <c r="T6" s="35" t="n">
-        <v>1618</v>
+        <v>0</v>
       </c>
       <c r="U6" s="35" t="n">
         <v>0</v>
@@ -1420,40 +1420,40 @@
         <v>0</v>
       </c>
       <c r="AA6" s="36" t="n">
-        <v>45.22</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="36" t="n">
-        <v>15.75</v>
+        <v>16.54</v>
       </c>
       <c r="AC6" s="37" t="n">
-        <v>6864.23</v>
+        <v>10731.93</v>
       </c>
       <c r="AD6" s="38" t="n">
-        <v>1392.96</v>
+        <v>7268.07</v>
       </c>
       <c r="AE6" s="17" t="n">
-        <v>18860.6784</v>
+        <v>119705.1129</v>
       </c>
       <c r="AF6" s="19" t="inlineStr">
         <is>
-          <t>25-01-2022</t>
+          <t>01-06-2022</t>
         </is>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Hakan</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>21STP02</t>
+          <t>22WS23</t>
         </is>
       </c>
       <c r="D7" s="22" t="inlineStr">
@@ -1468,52 +1468,52 @@
       </c>
       <c r="F7" s="32" t="inlineStr">
         <is>
-          <t>09-11-2021</t>
+          <t>19-08-2022</t>
         </is>
       </c>
       <c r="G7" s="32" t="inlineStr">
         <is>
-          <t>11-01-2022</t>
+          <t>17-10-2022</t>
         </is>
       </c>
       <c r="H7" s="12" t="inlineStr">
         <is>
-          <t>Stolp Agni - Poland</t>
+          <t>Radu &amp; Eugen - USA</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
-          <t>FCA</t>
+          <t>FOB</t>
         </is>
       </c>
       <c r="K7" s="33" t="n">
-        <v>10162.79</v>
+        <v>36568.18</v>
       </c>
       <c r="L7" s="34" t="n">
-        <v>469.92</v>
+        <v>25183.5645</v>
       </c>
       <c r="M7" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N7" s="34" t="n">
-        <v>6972</v>
+        <v>3976</v>
       </c>
       <c r="O7" s="34" t="n">
-        <v>59.47</v>
+        <v>889.17</v>
       </c>
       <c r="P7" s="34" t="n">
-        <v>25.5</v>
+        <v>81.86</v>
       </c>
       <c r="Q7" s="35" t="n">
-        <v>0</v>
+        <v>48.31</v>
       </c>
       <c r="R7" s="35" t="n">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="S7" s="35" t="n">
         <v>0</v>
@@ -1540,23 +1540,23 @@
         <v>0</v>
       </c>
       <c r="AA7" s="36" t="n">
-        <v>51.04</v>
+        <v>36</v>
       </c>
       <c r="AB7" s="36" t="n">
-        <v>18.58</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="37" t="n">
-        <v>7596.51</v>
+        <v>31264.9045</v>
       </c>
       <c r="AD7" s="38" t="n">
-        <v>2566.28</v>
+        <v>5303.2755</v>
       </c>
       <c r="AE7" s="17" t="n">
-        <v>34439.4776</v>
+        <v>98853.05532</v>
       </c>
       <c r="AF7" s="19" t="inlineStr">
         <is>
-          <t>03-01-2022</t>
+          <t>10-11-2022</t>
         </is>
       </c>
     </row>
@@ -1568,12 +1568,12 @@
       </c>
       <c r="B8" s="13" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Hakan</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>22VEIK78</t>
+          <t>22WS24</t>
         </is>
       </c>
       <c r="D8" s="22" t="inlineStr">
@@ -1588,34 +1588,34 @@
       </c>
       <c r="F8" s="32" t="inlineStr">
         <is>
-          <t>04-01-2022</t>
+          <t>19-08-2022</t>
         </is>
       </c>
       <c r="G8" s="32" t="inlineStr">
         <is>
-          <t>17-01-2022</t>
+          <t>17-10-2022</t>
         </is>
       </c>
       <c r="H8" s="12" t="inlineStr">
         <is>
-          <t>VEIK - UAE</t>
+          <t>Radu &amp; Eugen - USA</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
-          <t>CFR</t>
+          <t>FOB</t>
         </is>
       </c>
       <c r="K8" s="33" t="n">
-        <v>47926</v>
+        <v>12159.19</v>
       </c>
       <c r="L8" s="34" t="n">
-        <v>36727</v>
+        <v>10364.5905</v>
       </c>
       <c r="M8" s="34" t="n">
         <v>0</v>
@@ -1624,22 +1624,22 @@
         <v>0</v>
       </c>
       <c r="O8" s="34" t="n">
-        <v>735.11</v>
+        <v>0</v>
       </c>
       <c r="P8" s="34" t="n">
-        <v>10.45</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="35" t="n">
-        <v>42.53</v>
+        <v>0</v>
       </c>
       <c r="R8" s="35" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="S8" s="35" t="n">
         <v>0</v>
       </c>
       <c r="T8" s="35" t="n">
-        <v>4350</v>
+        <v>0</v>
       </c>
       <c r="U8" s="35" t="n">
         <v>0</v>
@@ -1660,40 +1660,40 @@
         <v>0</v>
       </c>
       <c r="AA8" s="36" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="36" t="n">
         <v>0</v>
       </c>
       <c r="AC8" s="37" t="n">
-        <v>43275.09</v>
+        <v>10364.5905</v>
       </c>
       <c r="AD8" s="38" t="n">
-        <v>4650.91</v>
+        <v>1794.5995</v>
       </c>
       <c r="AE8" s="17" t="n">
-        <v>63531.4306</v>
+        <v>33451.33468</v>
       </c>
       <c r="AF8" s="19" t="inlineStr">
         <is>
-          <t>08-02-2022</t>
+          <t>10-11-2022</t>
         </is>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="13" t="inlineStr">
         <is>
-          <t>Sema</t>
+          <t>Hakan</t>
         </is>
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>Sema</t>
+          <t>Hakan</t>
         </is>
       </c>
       <c r="C9" s="13" t="inlineStr">
         <is>
-          <t>22CST01</t>
+          <t>22APP16</t>
         </is>
       </c>
       <c r="D9" s="22" t="inlineStr">
@@ -1708,22 +1708,22 @@
       </c>
       <c r="F9" s="32" t="inlineStr">
         <is>
-          <t>03-01-2022</t>
+          <t>03-10-2022</t>
         </is>
       </c>
       <c r="G9" s="32" t="inlineStr">
         <is>
-          <t>28-01-2022</t>
+          <t>21-10-2022</t>
         </is>
       </c>
       <c r="H9" s="12" t="inlineStr">
         <is>
-          <t>Cosmin Tache - Romania</t>
+          <t>Appia Marmi - Italy</t>
         </is>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="K9" s="33" t="n">
-        <v>9150.24</v>
+        <v>1403</v>
       </c>
       <c r="L9" s="34" t="n">
-        <v>4453.98</v>
+        <v>1199</v>
       </c>
       <c r="M9" s="34" t="n">
-        <v>3316.5</v>
+        <v>0</v>
       </c>
       <c r="N9" s="34" t="n">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="34" t="n">
-        <v>24.83</v>
+        <v>15.9</v>
       </c>
       <c r="Q9" s="35" t="n">
         <v>0</v>
@@ -1780,40 +1780,40 @@
         <v>0</v>
       </c>
       <c r="AA9" s="36" t="n">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="AB9" s="36" t="n">
         <v>0</v>
       </c>
       <c r="AC9" s="37" t="n">
-        <v>7795.31</v>
+        <v>1243.4</v>
       </c>
       <c r="AD9" s="38" t="n">
-        <v>1354.93</v>
+        <v>159.6</v>
       </c>
       <c r="AE9" s="17" t="n">
-        <v>18359.3015</v>
+        <v>2973.348</v>
       </c>
       <c r="AF9" s="19" t="inlineStr">
         <is>
-          <t>26-01-2022</t>
+          <t>18-10-2022</t>
         </is>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="13" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Hakan</t>
         </is>
       </c>
       <c r="B10" s="13" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Hakan</t>
         </is>
       </c>
       <c r="C10" s="13" t="inlineStr">
         <is>
-          <t>21BKF06</t>
+          <t>22OLI21</t>
         </is>
       </c>
       <c r="D10" s="22" t="inlineStr">
@@ -1828,49 +1828,49 @@
       </c>
       <c r="F10" s="32" t="inlineStr">
         <is>
-          <t>08-12-2021</t>
+          <t>05-10-2022</t>
         </is>
       </c>
       <c r="G10" s="32" t="inlineStr">
         <is>
-          <t>29-01-2022</t>
+          <t>21-10-2022</t>
         </is>
       </c>
       <c r="H10" s="12" t="inlineStr">
         <is>
-          <t>BKF - USA</t>
+          <t>Daniela, OLI - Austria</t>
         </is>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
-          <t>FOB</t>
+          <t>FCA</t>
         </is>
       </c>
       <c r="K10" s="33" t="n">
-        <v>10781.88</v>
+        <v>525</v>
       </c>
       <c r="L10" s="34" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="M10" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="34" t="n">
-        <v>8556.200000000001</v>
+        <v>0</v>
       </c>
       <c r="O10" s="34" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="34" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="Q10" s="35" t="n">
         <v>0</v>
-      </c>
-      <c r="Q10" s="35" t="n">
-        <v>13.92</v>
       </c>
       <c r="R10" s="35" t="n">
         <v>0</v>
@@ -1906,34 +1906,34 @@
         <v>0</v>
       </c>
       <c r="AC10" s="37" t="n">
-        <v>8570.120000000001</v>
+        <v>468.69</v>
       </c>
       <c r="AD10" s="38" t="n">
-        <v>2211.76</v>
+        <v>56.31</v>
       </c>
       <c r="AE10" s="17" t="n">
-        <v>32711.9304</v>
+        <v>1047.9291</v>
       </c>
       <c r="AF10" s="19" t="inlineStr">
         <is>
-          <t>10-03-2022</t>
+          <t>04-10-2022</t>
         </is>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="13" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Hakan</t>
         </is>
       </c>
       <c r="B11" s="13" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Hakan</t>
         </is>
       </c>
       <c r="C11" s="13" t="inlineStr">
         <is>
-          <t>21BKF05</t>
+          <t>22BRP09</t>
         </is>
       </c>
       <c r="D11" s="22" t="inlineStr">
@@ -1948,52 +1948,52 @@
       </c>
       <c r="F11" s="32" t="inlineStr">
         <is>
-          <t>08-12-2021</t>
+          <t>13-09-2022</t>
         </is>
       </c>
       <c r="G11" s="32" t="inlineStr">
         <is>
-          <t>29-01-2022</t>
+          <t>24-10-2022</t>
         </is>
       </c>
       <c r="H11" s="12" t="inlineStr">
         <is>
-          <t>BKF - USA</t>
+          <t>Tracy - AU</t>
         </is>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
-          <t>FOB</t>
+          <t>FCA</t>
         </is>
       </c>
       <c r="K11" s="33" t="n">
-        <v>14103.89</v>
+        <v>13245.5</v>
       </c>
       <c r="L11" s="34" t="n">
-        <v>0</v>
+        <v>1095.072</v>
       </c>
       <c r="M11" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N11" s="34" t="n">
-        <v>10511.74</v>
+        <v>8930.100399999999</v>
       </c>
       <c r="O11" s="34" t="n">
-        <v>1017.89</v>
+        <v>503.28</v>
       </c>
       <c r="P11" s="34" t="n">
-        <v>51.83</v>
+        <v>33.32</v>
       </c>
       <c r="Q11" s="35" t="n">
-        <v>13.92</v>
+        <v>0</v>
       </c>
       <c r="R11" s="35" t="n">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="S11" s="35" t="n">
         <v>0</v>
@@ -2017,3148 +2017,912 @@
         <v>0</v>
       </c>
       <c r="Z11" s="36" t="n">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="AA11" s="36" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="AB11" s="36" t="n">
         <v>0</v>
       </c>
       <c r="AC11" s="37" t="n">
-        <v>12335.38</v>
+        <v>11026.4924</v>
       </c>
       <c r="AD11" s="38" t="n">
-        <v>1768.51</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="17" t="n">
-        <v>26156.2629</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="19" t="inlineStr">
         <is>
-          <t>10-03-2022</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1">
-      <c r="A12" s="13" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="B12" s="13" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="C12" s="13" t="inlineStr">
-        <is>
-          <t>21UNIQ03</t>
-        </is>
-      </c>
-      <c r="D12" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E12" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F12" s="32" t="inlineStr">
-        <is>
-          <t>23-12-2021</t>
-        </is>
-      </c>
-      <c r="G12" s="32" t="inlineStr">
-        <is>
-          <t>01-02-2022</t>
-        </is>
-      </c>
-      <c r="H12" s="12" t="inlineStr">
-        <is>
-          <t>Brett, UHA - USA</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="J12" s="3" t="inlineStr">
-        <is>
-          <t>DAP</t>
-        </is>
-      </c>
-      <c r="K12" s="33" t="n">
-        <v>14759.1</v>
-      </c>
-      <c r="L12" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="34" t="n">
-        <v>4337.5</v>
-      </c>
-      <c r="O12" s="34" t="n">
-        <v>320.63</v>
-      </c>
-      <c r="P12" s="34" t="n">
-        <v>25.79</v>
-      </c>
-      <c r="Q12" s="35" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="R12" s="35" t="n">
-        <v>395</v>
-      </c>
-      <c r="S12" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="35" t="n">
-        <v>7455</v>
-      </c>
-      <c r="U12" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="36" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="AB12" s="36" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="AC12" s="37" t="n">
-        <v>12576.89</v>
-      </c>
-      <c r="AD12" s="38" t="n">
-        <v>2182.21</v>
-      </c>
-      <c r="AE12" s="17" t="n">
-        <v>32624.0395</v>
-      </c>
-      <c r="AF12" s="19" t="inlineStr">
-        <is>
-          <t>11-03-2022</t>
-        </is>
-      </c>
+      <c r="A12" s="13" t="n"/>
+      <c r="B12" s="13" t="n"/>
+      <c r="C12" s="13" t="n"/>
+      <c r="D12" s="22" t="n"/>
+      <c r="E12" s="22" t="n"/>
+      <c r="F12" s="32" t="n"/>
+      <c r="G12" s="32" t="n"/>
+      <c r="H12" s="12" t="n"/>
+      <c r="I12" s="3" t="n"/>
+      <c r="J12" s="3" t="n"/>
+      <c r="K12" s="33" t="n"/>
+      <c r="L12" s="34" t="n"/>
+      <c r="M12" s="34" t="n"/>
+      <c r="N12" s="34" t="n"/>
+      <c r="O12" s="34" t="n"/>
+      <c r="P12" s="34" t="n"/>
+      <c r="Q12" s="35" t="n"/>
+      <c r="R12" s="35" t="n"/>
+      <c r="S12" s="35" t="n"/>
+      <c r="T12" s="35" t="n"/>
+      <c r="U12" s="35" t="n"/>
+      <c r="V12" s="35" t="n"/>
+      <c r="W12" s="35" t="n"/>
+      <c r="X12" s="35" t="n"/>
+      <c r="Y12" s="36" t="n"/>
+      <c r="Z12" s="36" t="n"/>
+      <c r="AA12" s="36" t="n"/>
+      <c r="AB12" s="36" t="n"/>
+      <c r="AC12" s="37" t="n"/>
+      <c r="AD12" s="38" t="n"/>
+      <c r="AE12" s="17" t="n"/>
+      <c r="AF12" s="19" t="n"/>
     </row>
     <row r="13" ht="30" customHeight="1">
-      <c r="A13" s="13" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="B13" s="13" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C13" s="13" t="inlineStr">
-        <is>
-          <t>22VA01</t>
-        </is>
-      </c>
-      <c r="D13" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E13" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F13" s="32" t="inlineStr">
-        <is>
-          <t>20-01-2022</t>
-        </is>
-      </c>
-      <c r="G13" s="32" t="inlineStr">
-        <is>
-          <t>01-02-2022</t>
-        </is>
-      </c>
-      <c r="H13" s="12" t="inlineStr">
-        <is>
-          <t>Valerie Alaimo - USA</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="J13" s="3" t="inlineStr">
-        <is>
-          <t>DDP</t>
-        </is>
-      </c>
-      <c r="K13" s="33" t="n">
-        <v>1975.29</v>
-      </c>
-      <c r="L13" s="34" t="n">
-        <v>723.04</v>
-      </c>
-      <c r="M13" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" s="35" t="n">
-        <v>350</v>
-      </c>
-      <c r="U13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" s="35" t="n">
-        <v>270.9</v>
-      </c>
-      <c r="Y13" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="36" t="n">
-        <v>72.45</v>
-      </c>
-      <c r="AB13" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="37" t="n">
-        <v>1416.39</v>
-      </c>
-      <c r="AD13" s="38" t="n">
-        <v>558.9</v>
-      </c>
-      <c r="AE13" s="17" t="n">
-        <v>9344.808000000001</v>
-      </c>
-      <c r="AF13" s="19" t="inlineStr">
-        <is>
-          <t>30-06-2022</t>
-        </is>
-      </c>
+      <c r="A13" s="13" t="n"/>
+      <c r="B13" s="13" t="n"/>
+      <c r="C13" s="13" t="n"/>
+      <c r="D13" s="22" t="n"/>
+      <c r="E13" s="22" t="n"/>
+      <c r="F13" s="32" t="n"/>
+      <c r="G13" s="32" t="n"/>
+      <c r="H13" s="12" t="n"/>
+      <c r="I13" s="3" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="33" t="n"/>
+      <c r="L13" s="34" t="n"/>
+      <c r="M13" s="34" t="n"/>
+      <c r="N13" s="34" t="n"/>
+      <c r="O13" s="34" t="n"/>
+      <c r="P13" s="34" t="n"/>
+      <c r="Q13" s="35" t="n"/>
+      <c r="R13" s="35" t="n"/>
+      <c r="S13" s="35" t="n"/>
+      <c r="T13" s="35" t="n"/>
+      <c r="U13" s="35" t="n"/>
+      <c r="V13" s="35" t="n"/>
+      <c r="W13" s="35" t="n"/>
+      <c r="X13" s="35" t="n"/>
+      <c r="Y13" s="36" t="n"/>
+      <c r="Z13" s="36" t="n"/>
+      <c r="AA13" s="36" t="n"/>
+      <c r="AB13" s="36" t="n"/>
+      <c r="AC13" s="37" t="n"/>
+      <c r="AD13" s="38" t="n"/>
+      <c r="AE13" s="17" t="n"/>
+      <c r="AF13" s="19" t="n"/>
     </row>
     <row r="14" ht="30" customHeight="1">
-      <c r="A14" s="13" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="B14" s="13" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C14" s="13" t="inlineStr">
-        <is>
-          <t>21LSA02</t>
-        </is>
-      </c>
-      <c r="D14" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E14" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F14" s="32" t="inlineStr">
-        <is>
-          <t>21-12-2021</t>
-        </is>
-      </c>
-      <c r="G14" s="32" t="inlineStr">
-        <is>
-          <t>03-02-2022</t>
-        </is>
-      </c>
-      <c r="H14" s="12" t="inlineStr">
-        <is>
-          <t>Lissa - Greece</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>CFR</t>
-        </is>
-      </c>
-      <c r="K14" s="33" t="n">
-        <v>4175</v>
-      </c>
-      <c r="L14" s="34" t="n">
-        <v>1870</v>
-      </c>
-      <c r="M14" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="34" t="n">
-        <v>188.5</v>
-      </c>
-      <c r="O14" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" s="34" t="n">
-        <v>17.18</v>
-      </c>
-      <c r="Q14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" s="35" t="n">
-        <v>738.46</v>
-      </c>
-      <c r="U14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="36" t="n">
-        <v>10.22</v>
-      </c>
-      <c r="AC14" s="37" t="n">
-        <v>2824.36</v>
-      </c>
-      <c r="AD14" s="38" t="n">
-        <v>1350.64</v>
-      </c>
-      <c r="AE14" s="17" t="n">
-        <v>18139.0952</v>
-      </c>
-      <c r="AF14" s="19" t="inlineStr">
-        <is>
-          <t>03-02-2022</t>
-        </is>
-      </c>
+      <c r="A14" s="13" t="n"/>
+      <c r="B14" s="13" t="n"/>
+      <c r="C14" s="13" t="n"/>
+      <c r="D14" s="22" t="n"/>
+      <c r="E14" s="22" t="n"/>
+      <c r="F14" s="32" t="n"/>
+      <c r="G14" s="32" t="n"/>
+      <c r="H14" s="12" t="n"/>
+      <c r="I14" s="3" t="n"/>
+      <c r="J14" s="3" t="n"/>
+      <c r="K14" s="33" t="n"/>
+      <c r="L14" s="34" t="n"/>
+      <c r="M14" s="34" t="n"/>
+      <c r="N14" s="34" t="n"/>
+      <c r="O14" s="34" t="n"/>
+      <c r="P14" s="34" t="n"/>
+      <c r="Q14" s="35" t="n"/>
+      <c r="R14" s="35" t="n"/>
+      <c r="S14" s="35" t="n"/>
+      <c r="T14" s="35" t="n"/>
+      <c r="U14" s="35" t="n"/>
+      <c r="V14" s="35" t="n"/>
+      <c r="W14" s="35" t="n"/>
+      <c r="X14" s="35" t="n"/>
+      <c r="Y14" s="36" t="n"/>
+      <c r="Z14" s="36" t="n"/>
+      <c r="AA14" s="36" t="n"/>
+      <c r="AB14" s="36" t="n"/>
+      <c r="AC14" s="37" t="n"/>
+      <c r="AD14" s="38" t="n"/>
+      <c r="AE14" s="17" t="n"/>
+      <c r="AF14" s="19" t="n"/>
     </row>
     <row r="15" ht="30" customHeight="1">
-      <c r="A15" s="13" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="B15" s="13" t="inlineStr">
-        <is>
-          <t>Sema</t>
-        </is>
-      </c>
-      <c r="C15" s="13" t="inlineStr">
-        <is>
-          <t>21BRP07</t>
-        </is>
-      </c>
-      <c r="D15" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E15" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F15" s="32" t="inlineStr">
-        <is>
-          <t>08-09-2021</t>
-        </is>
-      </c>
-      <c r="G15" s="32" t="inlineStr">
-        <is>
-          <t>07-02-2022</t>
-        </is>
-      </c>
-      <c r="H15" s="12" t="inlineStr">
-        <is>
-          <t>Tracy - AU</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>DAP</t>
-        </is>
-      </c>
-      <c r="K15" s="33" t="n">
-        <v>20636.98</v>
-      </c>
-      <c r="L15" s="34" t="n">
-        <v>3007.1439</v>
-      </c>
-      <c r="M15" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="34" t="n">
-        <v>7097.16</v>
-      </c>
-      <c r="O15" s="34" t="n">
-        <v>544.03</v>
-      </c>
-      <c r="P15" s="34" t="n">
-        <v>31.65</v>
-      </c>
-      <c r="Q15" s="35" t="n">
-        <v>130</v>
-      </c>
-      <c r="R15" s="35" t="n">
-        <v>430</v>
-      </c>
-      <c r="S15" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" s="35" t="n">
-        <v>7720</v>
-      </c>
-      <c r="U15" s="35" t="n">
-        <v>191.12</v>
-      </c>
-      <c r="V15" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="36" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AB15" s="36" t="n">
-        <v>19.67</v>
-      </c>
-      <c r="AC15" s="37" t="n">
-        <v>19172.3139</v>
-      </c>
-      <c r="AD15" s="38" t="n">
-        <v>1464.6661</v>
-      </c>
-      <c r="AE15" s="17" t="n">
-        <v>20197.745519</v>
-      </c>
-      <c r="AF15" s="19" t="inlineStr">
-        <is>
-          <t>22-02-2022</t>
-        </is>
-      </c>
+      <c r="A15" s="13" t="n"/>
+      <c r="B15" s="13" t="n"/>
+      <c r="C15" s="13" t="n"/>
+      <c r="D15" s="22" t="n"/>
+      <c r="E15" s="22" t="n"/>
+      <c r="F15" s="32" t="n"/>
+      <c r="G15" s="32" t="n"/>
+      <c r="H15" s="12" t="n"/>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="33" t="n"/>
+      <c r="L15" s="34" t="n"/>
+      <c r="M15" s="34" t="n"/>
+      <c r="N15" s="34" t="n"/>
+      <c r="O15" s="34" t="n"/>
+      <c r="P15" s="34" t="n"/>
+      <c r="Q15" s="35" t="n"/>
+      <c r="R15" s="35" t="n"/>
+      <c r="S15" s="35" t="n"/>
+      <c r="T15" s="35" t="n"/>
+      <c r="U15" s="35" t="n"/>
+      <c r="V15" s="35" t="n"/>
+      <c r="W15" s="35" t="n"/>
+      <c r="X15" s="35" t="n"/>
+      <c r="Y15" s="36" t="n"/>
+      <c r="Z15" s="36" t="n"/>
+      <c r="AA15" s="36" t="n"/>
+      <c r="AB15" s="36" t="n"/>
+      <c r="AC15" s="37" t="n"/>
+      <c r="AD15" s="38" t="n"/>
+      <c r="AE15" s="17" t="n"/>
+      <c r="AF15" s="19" t="n"/>
     </row>
     <row r="16" ht="30" customHeight="1">
-      <c r="A16" s="13" t="inlineStr">
-        <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="B16" s="13" t="inlineStr">
-        <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="C16" s="13" t="inlineStr">
-        <is>
-          <t>22WS20</t>
-        </is>
-      </c>
-      <c r="D16" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E16" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F16" s="32" t="inlineStr">
-        <is>
-          <t>02-02-2022</t>
-        </is>
-      </c>
-      <c r="G16" s="32" t="inlineStr">
-        <is>
-          <t>09-02-2022</t>
-        </is>
-      </c>
-      <c r="H16" s="12" t="inlineStr">
-        <is>
-          <t>Radu &amp; Eugen - USA</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>DDP</t>
-        </is>
-      </c>
-      <c r="K16" s="33" t="n">
-        <v>2023</v>
-      </c>
-      <c r="L16" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="34" t="n">
-        <v>669</v>
-      </c>
-      <c r="O16" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" s="35" t="n">
-        <v>230</v>
-      </c>
-      <c r="U16" s="35" t="n">
-        <v>288</v>
-      </c>
-      <c r="V16" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" s="35" t="n">
-        <v>200.7</v>
-      </c>
-      <c r="Y16" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="36" t="n">
-        <v>13.03</v>
-      </c>
-      <c r="AB16" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="37" t="n">
-        <v>1400.73</v>
-      </c>
-      <c r="AD16" s="38" t="n">
-        <v>622.27</v>
-      </c>
-      <c r="AE16" s="17" t="n">
-        <v>8462.871999999999</v>
-      </c>
-      <c r="AF16" s="19" t="inlineStr">
-        <is>
-          <t>04-02-2022</t>
-        </is>
-      </c>
+      <c r="A16" s="13" t="n"/>
+      <c r="B16" s="13" t="n"/>
+      <c r="C16" s="13" t="n"/>
+      <c r="D16" s="22" t="n"/>
+      <c r="E16" s="22" t="n"/>
+      <c r="F16" s="32" t="n"/>
+      <c r="G16" s="32" t="n"/>
+      <c r="H16" s="12" t="n"/>
+      <c r="I16" s="3" t="n"/>
+      <c r="J16" s="3" t="n"/>
+      <c r="K16" s="33" t="n"/>
+      <c r="L16" s="34" t="n"/>
+      <c r="M16" s="34" t="n"/>
+      <c r="N16" s="34" t="n"/>
+      <c r="O16" s="34" t="n"/>
+      <c r="P16" s="34" t="n"/>
+      <c r="Q16" s="35" t="n"/>
+      <c r="R16" s="35" t="n"/>
+      <c r="S16" s="35" t="n"/>
+      <c r="T16" s="35" t="n"/>
+      <c r="U16" s="35" t="n"/>
+      <c r="V16" s="35" t="n"/>
+      <c r="W16" s="35" t="n"/>
+      <c r="X16" s="35" t="n"/>
+      <c r="Y16" s="36" t="n"/>
+      <c r="Z16" s="36" t="n"/>
+      <c r="AA16" s="36" t="n"/>
+      <c r="AB16" s="36" t="n"/>
+      <c r="AC16" s="37" t="n"/>
+      <c r="AD16" s="38" t="n"/>
+      <c r="AE16" s="17" t="n"/>
+      <c r="AF16" s="19" t="n"/>
     </row>
     <row r="17" ht="30" customHeight="1">
-      <c r="A17" s="13" t="inlineStr">
-        <is>
-          <t>Mehmet</t>
-        </is>
-      </c>
-      <c r="B17" s="13" t="inlineStr">
-        <is>
-          <t>Semih</t>
-        </is>
-      </c>
-      <c r="C17" s="13" t="inlineStr">
-        <is>
-          <t>22HOSI03</t>
-        </is>
-      </c>
-      <c r="D17" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E17" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F17" s="32" t="inlineStr">
-        <is>
-          <t>15-02-2022</t>
-        </is>
-      </c>
-      <c r="G17" s="32" t="inlineStr">
-        <is>
-          <t>15-02-2022</t>
-        </is>
-      </c>
-      <c r="H17" s="12" t="inlineStr">
-        <is>
-          <t>Senyo Hosi - Ghana</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
-        <is>
-          <t>FCA</t>
-        </is>
-      </c>
-      <c r="K17" s="33" t="n">
-        <v>3157.5</v>
-      </c>
-      <c r="L17" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="34" t="n">
-        <v>22.09</v>
-      </c>
-      <c r="Q17" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="37" t="n">
-        <v>22.09</v>
-      </c>
-      <c r="AD17" s="38" t="n">
-        <v>3135.41</v>
-      </c>
-      <c r="AE17" s="17" t="n">
-        <v>46278.6516</v>
-      </c>
-      <c r="AF17" s="19" t="inlineStr">
-        <is>
-          <t>22-04-2022</t>
-        </is>
-      </c>
+      <c r="A17" s="13" t="n"/>
+      <c r="B17" s="13" t="n"/>
+      <c r="C17" s="13" t="n"/>
+      <c r="D17" s="22" t="n"/>
+      <c r="E17" s="22" t="n"/>
+      <c r="F17" s="32" t="n"/>
+      <c r="G17" s="32" t="n"/>
+      <c r="H17" s="12" t="n"/>
+      <c r="I17" s="3" t="n"/>
+      <c r="J17" s="3" t="n"/>
+      <c r="K17" s="33" t="n"/>
+      <c r="L17" s="34" t="n"/>
+      <c r="M17" s="34" t="n"/>
+      <c r="N17" s="34" t="n"/>
+      <c r="O17" s="34" t="n"/>
+      <c r="P17" s="34" t="n"/>
+      <c r="Q17" s="35" t="n"/>
+      <c r="R17" s="35" t="n"/>
+      <c r="S17" s="35" t="n"/>
+      <c r="T17" s="35" t="n"/>
+      <c r="U17" s="35" t="n"/>
+      <c r="V17" s="35" t="n"/>
+      <c r="W17" s="35" t="n"/>
+      <c r="X17" s="35" t="n"/>
+      <c r="Y17" s="36" t="n"/>
+      <c r="Z17" s="36" t="n"/>
+      <c r="AA17" s="36" t="n"/>
+      <c r="AB17" s="36" t="n"/>
+      <c r="AC17" s="37" t="n"/>
+      <c r="AD17" s="38" t="n"/>
+      <c r="AE17" s="17" t="n"/>
+      <c r="AF17" s="19" t="n"/>
     </row>
     <row r="18" ht="30" customHeight="1">
-      <c r="A18" s="13" t="inlineStr">
-        <is>
-          <t>Fatih</t>
-        </is>
-      </c>
-      <c r="B18" s="13" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="C18" s="13" t="inlineStr">
-        <is>
-          <t>22FAS73</t>
-        </is>
-      </c>
-      <c r="D18" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E18" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F18" s="32" t="inlineStr">
-        <is>
-          <t>02-01-2022</t>
-        </is>
-      </c>
-      <c r="G18" s="32" t="inlineStr">
-        <is>
-          <t>16-02-2022</t>
-        </is>
-      </c>
-      <c r="H18" s="21" t="inlineStr">
-        <is>
-          <t>Bennis - Morocco</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>Morocco</t>
-        </is>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>CFR</t>
-        </is>
-      </c>
-      <c r="K18" s="33" t="n">
-        <v>8748</v>
-      </c>
-      <c r="L18" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="34" t="n">
-        <v>6561</v>
-      </c>
-      <c r="O18" s="34" t="n">
-        <v>241.57</v>
-      </c>
-      <c r="P18" s="34" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="Q18" s="35" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="R18" s="35" t="n">
-        <v>400</v>
-      </c>
-      <c r="S18" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" s="35" t="n">
-        <v>3175</v>
-      </c>
-      <c r="U18" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="36" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB18" s="36" t="n">
-        <v>18.44</v>
-      </c>
-      <c r="AC18" s="37" t="n">
-        <v>10479.11</v>
-      </c>
-      <c r="AD18" s="38" t="n">
-        <v>-1731.11</v>
-      </c>
-      <c r="AE18" s="17" t="n">
-        <v>-25481.9392</v>
-      </c>
-      <c r="AF18" s="19" t="inlineStr">
-        <is>
-          <t>16-03-2022</t>
-        </is>
-      </c>
+      <c r="A18" s="13" t="n"/>
+      <c r="B18" s="13" t="n"/>
+      <c r="C18" s="13" t="n"/>
+      <c r="D18" s="22" t="n"/>
+      <c r="E18" s="22" t="n"/>
+      <c r="F18" s="32" t="n"/>
+      <c r="G18" s="32" t="n"/>
+      <c r="H18" s="21" t="n"/>
+      <c r="I18" s="3" t="n"/>
+      <c r="J18" s="3" t="n"/>
+      <c r="K18" s="33" t="n"/>
+      <c r="L18" s="34" t="n"/>
+      <c r="M18" s="34" t="n"/>
+      <c r="N18" s="34" t="n"/>
+      <c r="O18" s="34" t="n"/>
+      <c r="P18" s="34" t="n"/>
+      <c r="Q18" s="35" t="n"/>
+      <c r="R18" s="35" t="n"/>
+      <c r="S18" s="35" t="n"/>
+      <c r="T18" s="35" t="n"/>
+      <c r="U18" s="35" t="n"/>
+      <c r="V18" s="35" t="n"/>
+      <c r="W18" s="35" t="n"/>
+      <c r="X18" s="35" t="n"/>
+      <c r="Y18" s="36" t="n"/>
+      <c r="Z18" s="36" t="n"/>
+      <c r="AA18" s="36" t="n"/>
+      <c r="AB18" s="36" t="n"/>
+      <c r="AC18" s="37" t="n"/>
+      <c r="AD18" s="38" t="n"/>
+      <c r="AE18" s="17" t="n"/>
+      <c r="AF18" s="19" t="n"/>
     </row>
     <row r="19" ht="30" customHeight="1">
-      <c r="A19" s="13" t="inlineStr">
-        <is>
-          <t>Fatih</t>
-        </is>
-      </c>
-      <c r="B19" s="13" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="C19" s="13" t="inlineStr">
-        <is>
-          <t>22PORCE06</t>
-        </is>
-      </c>
-      <c r="D19" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E19" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F19" s="32" t="inlineStr">
-        <is>
-          <t>08-01-2022</t>
-        </is>
-      </c>
-      <c r="G19" s="32" t="inlineStr">
-        <is>
-          <t>17-02-2022</t>
-        </is>
-      </c>
-      <c r="H19" s="22" t="inlineStr">
-        <is>
-          <t>Porcemar - Venezuela</t>
-        </is>
-      </c>
-      <c r="I19" s="12" t="inlineStr">
-        <is>
-          <t>Venezuela</t>
-        </is>
-      </c>
-      <c r="J19" s="3" t="inlineStr">
-        <is>
-          <t>CFR</t>
-        </is>
-      </c>
-      <c r="K19" s="33" t="n">
-        <v>19367.4</v>
-      </c>
-      <c r="L19" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="34" t="n">
-        <v>9422.700000000001</v>
-      </c>
-      <c r="O19" s="34" t="n">
-        <v>388.46</v>
-      </c>
-      <c r="P19" s="34" t="n">
-        <v>30.93</v>
-      </c>
-      <c r="Q19" s="35" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="R19" s="35" t="n">
-        <v>475</v>
-      </c>
-      <c r="S19" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" s="35" t="n">
-        <v>7210</v>
-      </c>
-      <c r="U19" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="36" t="n">
-        <v>21.04</v>
-      </c>
-      <c r="AC19" s="37" t="n">
-        <v>17556.83</v>
-      </c>
-      <c r="AD19" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A19" s="13" t="n"/>
+      <c r="B19" s="13" t="n"/>
+      <c r="C19" s="13" t="n"/>
+      <c r="D19" s="22" t="n"/>
+      <c r="E19" s="22" t="n"/>
+      <c r="F19" s="32" t="n"/>
+      <c r="G19" s="32" t="n"/>
+      <c r="H19" s="22" t="n"/>
+      <c r="I19" s="12" t="n"/>
+      <c r="J19" s="3" t="n"/>
+      <c r="K19" s="33" t="n"/>
+      <c r="L19" s="34" t="n"/>
+      <c r="M19" s="34" t="n"/>
+      <c r="N19" s="34" t="n"/>
+      <c r="O19" s="34" t="n"/>
+      <c r="P19" s="34" t="n"/>
+      <c r="Q19" s="35" t="n"/>
+      <c r="R19" s="35" t="n"/>
+      <c r="S19" s="35" t="n"/>
+      <c r="T19" s="35" t="n"/>
+      <c r="U19" s="35" t="n"/>
+      <c r="V19" s="35" t="n"/>
+      <c r="W19" s="35" t="n"/>
+      <c r="X19" s="35" t="n"/>
+      <c r="Y19" s="36" t="n"/>
+      <c r="Z19" s="36" t="n"/>
+      <c r="AA19" s="36" t="n"/>
+      <c r="AB19" s="36" t="n"/>
+      <c r="AC19" s="37" t="n"/>
+      <c r="AD19" s="38" t="n"/>
+      <c r="AE19" s="17" t="n"/>
+      <c r="AF19" s="19" t="n"/>
     </row>
     <row r="20" ht="34.8" customHeight="1">
-      <c r="A20" s="13" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="B20" s="13" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="C20" s="13" t="inlineStr">
-        <is>
-          <t>21RAKN02</t>
-        </is>
-      </c>
-      <c r="D20" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E20" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F20" s="32" t="inlineStr">
-        <is>
-          <t>29-11-2021</t>
-        </is>
-      </c>
-      <c r="G20" s="32" t="inlineStr">
-        <is>
-          <t>21-02-2022</t>
-        </is>
-      </c>
-      <c r="H20" s="22" t="inlineStr">
-        <is>
-          <t>Rakeen - Qatar</t>
-        </is>
-      </c>
-      <c r="I20" s="12" t="inlineStr">
-        <is>
-          <t>Qatar</t>
-        </is>
-      </c>
-      <c r="J20" s="9" t="inlineStr">
-        <is>
-          <t>CFR</t>
-        </is>
-      </c>
-      <c r="K20" s="33" t="n">
-        <v>38525.2</v>
-      </c>
-      <c r="L20" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="34" t="n">
-        <v>24217.6</v>
-      </c>
-      <c r="O20" s="34" t="n">
-        <v>483.98</v>
-      </c>
-      <c r="P20" s="34" t="n">
-        <v>60.83</v>
-      </c>
-      <c r="Q20" s="35" t="n">
-        <v>27.38</v>
-      </c>
-      <c r="R20" s="35" t="n">
-        <v>700</v>
-      </c>
-      <c r="S20" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" s="35" t="n">
-        <v>2800</v>
-      </c>
-      <c r="U20" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="36" t="n">
-        <v>18.41</v>
-      </c>
-      <c r="AC20" s="37" t="n">
-        <v>28308.2</v>
-      </c>
-      <c r="AD20" s="38" t="n">
-        <v>10217</v>
-      </c>
-      <c r="AE20" s="17" t="n">
-        <v>143957.53</v>
-      </c>
-      <c r="AF20" s="19" t="inlineStr">
-        <is>
-          <t>02-03-2022</t>
-        </is>
-      </c>
+      <c r="A20" s="13" t="n"/>
+      <c r="B20" s="13" t="n"/>
+      <c r="C20" s="13" t="n"/>
+      <c r="D20" s="22" t="n"/>
+      <c r="E20" s="22" t="n"/>
+      <c r="F20" s="32" t="n"/>
+      <c r="G20" s="32" t="n"/>
+      <c r="H20" s="22" t="n"/>
+      <c r="I20" s="12" t="n"/>
+      <c r="J20" s="9" t="n"/>
+      <c r="K20" s="33" t="n"/>
+      <c r="L20" s="34" t="n"/>
+      <c r="M20" s="34" t="n"/>
+      <c r="N20" s="34" t="n"/>
+      <c r="O20" s="34" t="n"/>
+      <c r="P20" s="34" t="n"/>
+      <c r="Q20" s="35" t="n"/>
+      <c r="R20" s="35" t="n"/>
+      <c r="S20" s="35" t="n"/>
+      <c r="T20" s="35" t="n"/>
+      <c r="U20" s="35" t="n"/>
+      <c r="V20" s="35" t="n"/>
+      <c r="W20" s="35" t="n"/>
+      <c r="X20" s="35" t="n"/>
+      <c r="Y20" s="36" t="n"/>
+      <c r="Z20" s="36" t="n"/>
+      <c r="AA20" s="36" t="n"/>
+      <c r="AB20" s="36" t="n"/>
+      <c r="AC20" s="37" t="n"/>
+      <c r="AD20" s="38" t="n"/>
+      <c r="AE20" s="17" t="n"/>
+      <c r="AF20" s="19" t="n"/>
     </row>
     <row r="21" ht="30" customHeight="1">
-      <c r="A21" s="28" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="B21" s="28" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C21" s="28" t="inlineStr">
-        <is>
-          <t>22FLOS43</t>
-        </is>
-      </c>
-      <c r="D21" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E21" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F21" s="31" t="inlineStr">
-        <is>
-          <t>11-01-2022</t>
-        </is>
-      </c>
-      <c r="G21" s="31" t="inlineStr">
-        <is>
-          <t>21-02-2022</t>
-        </is>
-      </c>
-      <c r="H21" s="22" t="inlineStr">
-        <is>
-          <t>Flos - Malta</t>
-        </is>
-      </c>
-      <c r="I21" s="12" t="inlineStr">
-        <is>
-          <t>Malta</t>
-        </is>
-      </c>
-      <c r="J21" s="9" t="inlineStr">
-        <is>
-          <t>FOB</t>
-        </is>
-      </c>
-      <c r="K21" s="33" t="n">
-        <v>17639.6</v>
-      </c>
-      <c r="L21" s="34" t="n">
-        <v>1792.605</v>
-      </c>
-      <c r="M21" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="34" t="n">
-        <v>10756.025</v>
-      </c>
-      <c r="O21" s="34" t="n">
-        <v>238.6</v>
-      </c>
-      <c r="P21" s="34" t="n">
-        <v>37.41</v>
-      </c>
-      <c r="Q21" s="35" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="R21" s="35" t="n">
-        <v>515</v>
-      </c>
-      <c r="S21" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="37" t="n">
-        <v>13344.69</v>
-      </c>
-      <c r="AD21" s="38" t="n">
-        <v>4294.91</v>
-      </c>
-      <c r="AE21" s="17" t="n">
-        <v>61631.9585</v>
-      </c>
-      <c r="AF21" s="19" t="inlineStr">
-        <is>
-          <t>07-03-2022</t>
-        </is>
-      </c>
+      <c r="A21" s="28" t="n"/>
+      <c r="B21" s="28" t="n"/>
+      <c r="C21" s="28" t="n"/>
+      <c r="D21" s="30" t="n"/>
+      <c r="E21" s="30" t="n"/>
+      <c r="F21" s="31" t="n"/>
+      <c r="G21" s="31" t="n"/>
+      <c r="H21" s="22" t="n"/>
+      <c r="I21" s="12" t="n"/>
+      <c r="J21" s="9" t="n"/>
+      <c r="K21" s="33" t="n"/>
+      <c r="L21" s="34" t="n"/>
+      <c r="M21" s="34" t="n"/>
+      <c r="N21" s="34" t="n"/>
+      <c r="O21" s="34" t="n"/>
+      <c r="P21" s="34" t="n"/>
+      <c r="Q21" s="35" t="n"/>
+      <c r="R21" s="35" t="n"/>
+      <c r="S21" s="35" t="n"/>
+      <c r="T21" s="35" t="n"/>
+      <c r="U21" s="35" t="n"/>
+      <c r="V21" s="35" t="n"/>
+      <c r="W21" s="35" t="n"/>
+      <c r="X21" s="35" t="n"/>
+      <c r="Y21" s="36" t="n"/>
+      <c r="Z21" s="36" t="n"/>
+      <c r="AA21" s="36" t="n"/>
+      <c r="AB21" s="36" t="n"/>
+      <c r="AC21" s="37" t="n"/>
+      <c r="AD21" s="38" t="n"/>
+      <c r="AE21" s="17" t="n"/>
+      <c r="AF21" s="19" t="n"/>
     </row>
     <row r="22" ht="30" customHeight="1">
-      <c r="A22" s="28" t="inlineStr">
-        <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="B22" s="28" t="inlineStr">
-        <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="C22" s="28" t="inlineStr">
-        <is>
-          <t>22MH04</t>
-        </is>
-      </c>
-      <c r="D22" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E22" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F22" s="31" t="inlineStr">
-        <is>
-          <t>04-02-2022</t>
-        </is>
-      </c>
-      <c r="G22" s="31" t="inlineStr">
-        <is>
-          <t>22-02-2022</t>
-        </is>
-      </c>
-      <c r="H22" s="22" t="inlineStr">
-        <is>
-          <t>Mahmoud - USA</t>
-        </is>
-      </c>
-      <c r="I22" s="12" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="J22" s="9" t="inlineStr">
-        <is>
-          <t>DDP</t>
-        </is>
-      </c>
-      <c r="K22" s="33" t="n">
-        <v>4096.35</v>
-      </c>
-      <c r="L22" s="34" t="n">
-        <v>900.54</v>
-      </c>
-      <c r="M22" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="34" t="n">
-        <v>210</v>
-      </c>
-      <c r="O22" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" s="35" t="n">
-        <v>950</v>
-      </c>
-      <c r="U22" s="35" t="n">
-        <v>1010</v>
-      </c>
-      <c r="V22" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" s="35" t="n">
-        <v>390.18</v>
-      </c>
-      <c r="Y22" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="36" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AB22" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="37" t="n">
-        <v>3461.17</v>
-      </c>
-      <c r="AD22" s="38" t="n">
-        <v>635.1799999999999</v>
-      </c>
-      <c r="AE22" s="17" t="n">
-        <v>9838.938200000001</v>
-      </c>
-      <c r="AF22" s="19" t="inlineStr">
-        <is>
-          <t>13-05-2022</t>
-        </is>
-      </c>
+      <c r="A22" s="28" t="n"/>
+      <c r="B22" s="28" t="n"/>
+      <c r="C22" s="28" t="n"/>
+      <c r="D22" s="30" t="n"/>
+      <c r="E22" s="30" t="n"/>
+      <c r="F22" s="31" t="n"/>
+      <c r="G22" s="31" t="n"/>
+      <c r="H22" s="22" t="n"/>
+      <c r="I22" s="12" t="n"/>
+      <c r="J22" s="9" t="n"/>
+      <c r="K22" s="33" t="n"/>
+      <c r="L22" s="34" t="n"/>
+      <c r="M22" s="34" t="n"/>
+      <c r="N22" s="34" t="n"/>
+      <c r="O22" s="34" t="n"/>
+      <c r="P22" s="34" t="n"/>
+      <c r="Q22" s="35" t="n"/>
+      <c r="R22" s="35" t="n"/>
+      <c r="S22" s="35" t="n"/>
+      <c r="T22" s="35" t="n"/>
+      <c r="U22" s="35" t="n"/>
+      <c r="V22" s="35" t="n"/>
+      <c r="W22" s="35" t="n"/>
+      <c r="X22" s="35" t="n"/>
+      <c r="Y22" s="36" t="n"/>
+      <c r="Z22" s="36" t="n"/>
+      <c r="AA22" s="36" t="n"/>
+      <c r="AB22" s="36" t="n"/>
+      <c r="AC22" s="37" t="n"/>
+      <c r="AD22" s="38" t="n"/>
+      <c r="AE22" s="17" t="n"/>
+      <c r="AF22" s="19" t="n"/>
     </row>
     <row r="23" ht="30" customHeight="1">
-      <c r="A23" s="28" t="inlineStr">
-        <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="B23" s="28" t="inlineStr">
-        <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="C23" s="28" t="inlineStr">
-        <is>
-          <t>22WS21</t>
-        </is>
-      </c>
-      <c r="D23" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E23" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F23" s="31" t="inlineStr">
-        <is>
-          <t>16-02-2022</t>
-        </is>
-      </c>
-      <c r="G23" s="31" t="inlineStr">
-        <is>
-          <t>22-02-2022</t>
-        </is>
-      </c>
-      <c r="H23" s="22" t="inlineStr">
-        <is>
-          <t>Radu &amp; Eugen - USA</t>
-        </is>
-      </c>
-      <c r="I23" s="12" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="J23" s="9" t="inlineStr">
-        <is>
-          <t>DDP</t>
-        </is>
-      </c>
-      <c r="K23" s="33" t="n">
-        <v>3768.84</v>
-      </c>
-      <c r="L23" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="34" t="n">
-        <v>1204.2</v>
-      </c>
-      <c r="O23" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" s="35" t="n">
-        <v>360</v>
-      </c>
-      <c r="U23" s="35" t="n">
-        <v>461</v>
-      </c>
-      <c r="V23" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" s="35" t="n">
-        <v>401.4</v>
-      </c>
-      <c r="Y23" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="37" t="n">
-        <v>2426.6</v>
-      </c>
-      <c r="AD23" s="38" t="n">
-        <v>1342.24</v>
-      </c>
-      <c r="AE23" s="17" t="n">
-        <v>18334.9984</v>
-      </c>
-      <c r="AF23" s="19" t="inlineStr">
-        <is>
-          <t>16-02-2022</t>
-        </is>
-      </c>
+      <c r="A23" s="28" t="n"/>
+      <c r="B23" s="28" t="n"/>
+      <c r="C23" s="28" t="n"/>
+      <c r="D23" s="30" t="n"/>
+      <c r="E23" s="30" t="n"/>
+      <c r="F23" s="31" t="n"/>
+      <c r="G23" s="31" t="n"/>
+      <c r="H23" s="22" t="n"/>
+      <c r="I23" s="12" t="n"/>
+      <c r="J23" s="9" t="n"/>
+      <c r="K23" s="33" t="n"/>
+      <c r="L23" s="34" t="n"/>
+      <c r="M23" s="34" t="n"/>
+      <c r="N23" s="34" t="n"/>
+      <c r="O23" s="34" t="n"/>
+      <c r="P23" s="34" t="n"/>
+      <c r="Q23" s="35" t="n"/>
+      <c r="R23" s="35" t="n"/>
+      <c r="S23" s="35" t="n"/>
+      <c r="T23" s="35" t="n"/>
+      <c r="U23" s="35" t="n"/>
+      <c r="V23" s="35" t="n"/>
+      <c r="W23" s="35" t="n"/>
+      <c r="X23" s="35" t="n"/>
+      <c r="Y23" s="36" t="n"/>
+      <c r="Z23" s="36" t="n"/>
+      <c r="AA23" s="36" t="n"/>
+      <c r="AB23" s="36" t="n"/>
+      <c r="AC23" s="37" t="n"/>
+      <c r="AD23" s="38" t="n"/>
+      <c r="AE23" s="17" t="n"/>
+      <c r="AF23" s="19" t="n"/>
     </row>
     <row r="24" ht="30" customHeight="1">
-      <c r="A24" s="28" t="inlineStr">
-        <is>
-          <t>Fatih</t>
-        </is>
-      </c>
-      <c r="B24" s="28" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="C24" s="28" t="inlineStr">
-        <is>
-          <t>21ATA18</t>
-        </is>
-      </c>
-      <c r="D24" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E24" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F24" s="31" t="inlineStr">
-        <is>
-          <t>13-11-2021</t>
-        </is>
-      </c>
-      <c r="G24" s="31" t="inlineStr">
-        <is>
-          <t>24-02-2022</t>
-        </is>
-      </c>
-      <c r="H24" s="22" t="inlineStr">
-        <is>
-          <t>Ata Sab. - Kuwait</t>
-        </is>
-      </c>
-      <c r="I24" s="12" t="inlineStr">
-        <is>
-          <t>Kuwait</t>
-        </is>
-      </c>
-      <c r="J24" s="9" t="inlineStr">
-        <is>
-          <t>CFR</t>
-        </is>
-      </c>
-      <c r="K24" s="33" t="n">
-        <v>28122.09</v>
-      </c>
-      <c r="L24" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="34" t="n">
-        <v>20027.7</v>
-      </c>
-      <c r="O24" s="34" t="n">
-        <v>233.53</v>
-      </c>
-      <c r="P24" s="34" t="n">
-        <v>47.25</v>
-      </c>
-      <c r="Q24" s="35" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="R24" s="35" t="n">
-        <v>350</v>
-      </c>
-      <c r="S24" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" s="35" t="n">
-        <v>1550</v>
-      </c>
-      <c r="U24" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="36" t="n">
-        <v>90.09</v>
-      </c>
-      <c r="AB24" s="36" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="AC24" s="37" t="n">
-        <v>22330.43</v>
-      </c>
-      <c r="AD24" s="38" t="n">
-        <v>5791.66</v>
-      </c>
-      <c r="AE24" s="17" t="n">
-        <v>86121.98420000001</v>
-      </c>
-      <c r="AF24" s="19" t="inlineStr">
-        <is>
-          <t>28-03-2022</t>
-        </is>
-      </c>
+      <c r="A24" s="28" t="n"/>
+      <c r="B24" s="28" t="n"/>
+      <c r="C24" s="28" t="n"/>
+      <c r="D24" s="30" t="n"/>
+      <c r="E24" s="30" t="n"/>
+      <c r="F24" s="31" t="n"/>
+      <c r="G24" s="31" t="n"/>
+      <c r="H24" s="22" t="n"/>
+      <c r="I24" s="12" t="n"/>
+      <c r="J24" s="9" t="n"/>
+      <c r="K24" s="33" t="n"/>
+      <c r="L24" s="34" t="n"/>
+      <c r="M24" s="34" t="n"/>
+      <c r="N24" s="34" t="n"/>
+      <c r="O24" s="34" t="n"/>
+      <c r="P24" s="34" t="n"/>
+      <c r="Q24" s="35" t="n"/>
+      <c r="R24" s="35" t="n"/>
+      <c r="S24" s="35" t="n"/>
+      <c r="T24" s="35" t="n"/>
+      <c r="U24" s="35" t="n"/>
+      <c r="V24" s="35" t="n"/>
+      <c r="W24" s="35" t="n"/>
+      <c r="X24" s="35" t="n"/>
+      <c r="Y24" s="36" t="n"/>
+      <c r="Z24" s="36" t="n"/>
+      <c r="AA24" s="36" t="n"/>
+      <c r="AB24" s="36" t="n"/>
+      <c r="AC24" s="37" t="n"/>
+      <c r="AD24" s="38" t="n"/>
+      <c r="AE24" s="17" t="n"/>
+      <c r="AF24" s="19" t="n"/>
     </row>
     <row r="25" ht="30" customHeight="1">
-      <c r="A25" s="28" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="B25" s="28" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C25" s="28" t="inlineStr">
-        <is>
-          <t>21AFG32</t>
-        </is>
-      </c>
-      <c r="D25" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E25" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F25" s="31" t="inlineStr">
-        <is>
-          <t>29-11-2021</t>
-        </is>
-      </c>
-      <c r="G25" s="31" t="inlineStr">
-        <is>
-          <t>28-02-2022</t>
-        </is>
-      </c>
-      <c r="H25" s="22" t="inlineStr">
-        <is>
-          <t>Bruce - USA</t>
-        </is>
-      </c>
-      <c r="I25" s="12" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="J25" s="9" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
-      <c r="K25" s="33" t="n">
-        <v>49487.54</v>
-      </c>
-      <c r="L25" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="34" t="n">
-        <v>27718.99</v>
-      </c>
-      <c r="O25" s="34" t="n">
-        <v>924.38</v>
-      </c>
-      <c r="P25" s="34" t="n">
-        <v>60.31</v>
-      </c>
-      <c r="Q25" s="35" t="n">
-        <v>26.72</v>
-      </c>
-      <c r="R25" s="35" t="n">
-        <v>850</v>
-      </c>
-      <c r="S25" s="35" t="n">
-        <v>27.61</v>
-      </c>
-      <c r="T25" s="35" t="n">
-        <v>12000</v>
-      </c>
-      <c r="U25" s="35" t="n">
-        <v>27.61</v>
-      </c>
-      <c r="V25" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="36" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="AC25" s="37" t="n">
-        <v>41645.75</v>
-      </c>
-      <c r="AD25" s="38" t="n">
-        <v>7841.79</v>
-      </c>
-      <c r="AE25" s="17" t="n">
-        <v>117783.6858</v>
-      </c>
-      <c r="AF25" s="19" t="inlineStr">
-        <is>
-          <t>09-05-2022</t>
-        </is>
-      </c>
+      <c r="A25" s="28" t="n"/>
+      <c r="B25" s="28" t="n"/>
+      <c r="C25" s="28" t="n"/>
+      <c r="D25" s="30" t="n"/>
+      <c r="E25" s="30" t="n"/>
+      <c r="F25" s="31" t="n"/>
+      <c r="G25" s="31" t="n"/>
+      <c r="H25" s="22" t="n"/>
+      <c r="I25" s="12" t="n"/>
+      <c r="J25" s="9" t="n"/>
+      <c r="K25" s="33" t="n"/>
+      <c r="L25" s="34" t="n"/>
+      <c r="M25" s="34" t="n"/>
+      <c r="N25" s="34" t="n"/>
+      <c r="O25" s="34" t="n"/>
+      <c r="P25" s="34" t="n"/>
+      <c r="Q25" s="35" t="n"/>
+      <c r="R25" s="35" t="n"/>
+      <c r="S25" s="35" t="n"/>
+      <c r="T25" s="35" t="n"/>
+      <c r="U25" s="35" t="n"/>
+      <c r="V25" s="35" t="n"/>
+      <c r="W25" s="35" t="n"/>
+      <c r="X25" s="35" t="n"/>
+      <c r="Y25" s="36" t="n"/>
+      <c r="Z25" s="36" t="n"/>
+      <c r="AA25" s="36" t="n"/>
+      <c r="AB25" s="36" t="n"/>
+      <c r="AC25" s="37" t="n"/>
+      <c r="AD25" s="38" t="n"/>
+      <c r="AE25" s="17" t="n"/>
+      <c r="AF25" s="19" t="n"/>
     </row>
     <row r="26" ht="30" customHeight="1">
-      <c r="A26" s="28" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="B26" s="28" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C26" s="28" t="inlineStr">
-        <is>
-          <t>22VEIK79</t>
-        </is>
-      </c>
-      <c r="D26" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E26" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F26" s="31" t="inlineStr">
-        <is>
-          <t>05-01-2022</t>
-        </is>
-      </c>
-      <c r="G26" s="31" t="inlineStr">
-        <is>
-          <t>28-02-2022</t>
-        </is>
-      </c>
-      <c r="H26" s="22" t="inlineStr">
-        <is>
-          <t>VEIK - UAE</t>
-        </is>
-      </c>
-      <c r="I26" s="12" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="J26" s="9" t="inlineStr">
-        <is>
-          <t>CFR</t>
-        </is>
-      </c>
-      <c r="K26" s="33" t="n">
-        <v>30586.48</v>
-      </c>
-      <c r="L26" s="34" t="n">
-        <v>18763.025</v>
-      </c>
-      <c r="M26" s="34" t="n">
-        <v>4295.016</v>
-      </c>
-      <c r="N26" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" s="34" t="n">
-        <v>566.08</v>
-      </c>
-      <c r="P26" s="34" t="n">
-        <v>51.24</v>
-      </c>
-      <c r="Q26" s="35" t="n">
-        <v>26.72</v>
-      </c>
-      <c r="R26" s="35" t="n">
-        <v>825</v>
-      </c>
-      <c r="S26" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" s="35" t="n">
-        <v>2600</v>
-      </c>
-      <c r="U26" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="36" t="n">
-        <v>53</v>
-      </c>
-      <c r="AB26" s="36" t="n">
-        <v>18.13</v>
-      </c>
-      <c r="AC26" s="37" t="n">
-        <v>27198.211</v>
-      </c>
-      <c r="AD26" s="38" t="n">
-        <v>3388.269</v>
-      </c>
-      <c r="AE26" s="17" t="n">
-        <v>49909.20237</v>
-      </c>
-      <c r="AF26" s="19" t="inlineStr">
-        <is>
-          <t>04-04-2022</t>
-        </is>
-      </c>
+      <c r="A26" s="28" t="n"/>
+      <c r="B26" s="28" t="n"/>
+      <c r="C26" s="28" t="n"/>
+      <c r="D26" s="30" t="n"/>
+      <c r="E26" s="30" t="n"/>
+      <c r="F26" s="31" t="n"/>
+      <c r="G26" s="31" t="n"/>
+      <c r="H26" s="22" t="n"/>
+      <c r="I26" s="12" t="n"/>
+      <c r="J26" s="9" t="n"/>
+      <c r="K26" s="33" t="n"/>
+      <c r="L26" s="34" t="n"/>
+      <c r="M26" s="34" t="n"/>
+      <c r="N26" s="34" t="n"/>
+      <c r="O26" s="34" t="n"/>
+      <c r="P26" s="34" t="n"/>
+      <c r="Q26" s="35" t="n"/>
+      <c r="R26" s="35" t="n"/>
+      <c r="S26" s="35" t="n"/>
+      <c r="T26" s="35" t="n"/>
+      <c r="U26" s="35" t="n"/>
+      <c r="V26" s="35" t="n"/>
+      <c r="W26" s="35" t="n"/>
+      <c r="X26" s="35" t="n"/>
+      <c r="Y26" s="36" t="n"/>
+      <c r="Z26" s="36" t="n"/>
+      <c r="AA26" s="36" t="n"/>
+      <c r="AB26" s="36" t="n"/>
+      <c r="AC26" s="37" t="n"/>
+      <c r="AD26" s="38" t="n"/>
+      <c r="AE26" s="17" t="n"/>
+      <c r="AF26" s="19" t="n"/>
     </row>
     <row r="27" ht="30" customHeight="1">
-      <c r="A27" s="28" t="inlineStr">
-        <is>
-          <t>Mehmet</t>
-        </is>
-      </c>
-      <c r="B27" s="28" t="inlineStr">
-        <is>
-          <t>Semih</t>
-        </is>
-      </c>
-      <c r="C27" s="28" t="inlineStr">
-        <is>
-          <t>22BERNARD01-1</t>
-        </is>
-      </c>
-      <c r="D27" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E27" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F27" s="31" t="inlineStr">
-        <is>
-          <t>23-02-2022</t>
-        </is>
-      </c>
-      <c r="G27" s="31" t="inlineStr">
-        <is>
-          <t>07-03-2022</t>
-        </is>
-      </c>
-      <c r="H27" s="22" t="inlineStr">
-        <is>
-          <t>Bernard Osei - Ghana</t>
-        </is>
-      </c>
-      <c r="I27" s="12" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="J27" s="9" t="inlineStr">
-        <is>
-          <t>CFR</t>
-        </is>
-      </c>
-      <c r="K27" s="33" t="n">
-        <v>13127.6</v>
-      </c>
-      <c r="L27" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="34" t="n">
-        <v>4277.04</v>
-      </c>
-      <c r="O27" s="34" t="n">
-        <v>174.23</v>
-      </c>
-      <c r="P27" s="34" t="n">
-        <v>30.04</v>
-      </c>
-      <c r="Q27" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="35" t="n">
-        <v>431.36</v>
-      </c>
-      <c r="S27" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="35" t="n">
-        <v>5800</v>
-      </c>
-      <c r="U27" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="36" t="n">
-        <v>20.11</v>
-      </c>
-      <c r="AC27" s="37" t="n">
-        <v>10732.78</v>
-      </c>
-      <c r="AD27" s="38" t="n">
-        <v>2394.82</v>
-      </c>
-      <c r="AE27" s="17" t="n">
-        <v>33120.3606</v>
-      </c>
-      <c r="AF27" s="19" t="inlineStr">
-        <is>
-          <t>23-02-2022</t>
-        </is>
-      </c>
+      <c r="A27" s="28" t="n"/>
+      <c r="B27" s="28" t="n"/>
+      <c r="C27" s="28" t="n"/>
+      <c r="D27" s="30" t="n"/>
+      <c r="E27" s="30" t="n"/>
+      <c r="F27" s="31" t="n"/>
+      <c r="G27" s="31" t="n"/>
+      <c r="H27" s="22" t="n"/>
+      <c r="I27" s="12" t="n"/>
+      <c r="J27" s="9" t="n"/>
+      <c r="K27" s="33" t="n"/>
+      <c r="L27" s="34" t="n"/>
+      <c r="M27" s="34" t="n"/>
+      <c r="N27" s="34" t="n"/>
+      <c r="O27" s="34" t="n"/>
+      <c r="P27" s="34" t="n"/>
+      <c r="Q27" s="35" t="n"/>
+      <c r="R27" s="35" t="n"/>
+      <c r="S27" s="35" t="n"/>
+      <c r="T27" s="35" t="n"/>
+      <c r="U27" s="35" t="n"/>
+      <c r="V27" s="35" t="n"/>
+      <c r="W27" s="35" t="n"/>
+      <c r="X27" s="35" t="n"/>
+      <c r="Y27" s="36" t="n"/>
+      <c r="Z27" s="36" t="n"/>
+      <c r="AA27" s="36" t="n"/>
+      <c r="AB27" s="36" t="n"/>
+      <c r="AC27" s="37" t="n"/>
+      <c r="AD27" s="38" t="n"/>
+      <c r="AE27" s="17" t="n"/>
+      <c r="AF27" s="19" t="n"/>
     </row>
     <row r="28" ht="30" customHeight="1">
-      <c r="A28" s="28" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="B28" s="28" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C28" s="28" t="inlineStr">
-        <is>
-          <t>22GEMAG01</t>
-        </is>
-      </c>
-      <c r="D28" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E28" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F28" s="31" t="inlineStr">
-        <is>
-          <t>02-01-2022</t>
-        </is>
-      </c>
-      <c r="G28" s="31" t="inlineStr">
-        <is>
-          <t>07-03-2022</t>
-        </is>
-      </c>
-      <c r="H28" s="22" t="inlineStr">
-        <is>
-          <t>Hamza Boumaza - Algeria</t>
-        </is>
-      </c>
-      <c r="I28" s="12" t="inlineStr">
-        <is>
-          <t>Algeria</t>
-        </is>
-      </c>
-      <c r="J28" s="9" t="inlineStr">
-        <is>
-          <t>CFR</t>
-        </is>
-      </c>
-      <c r="K28" s="33" t="n">
-        <v>8175.84</v>
-      </c>
-      <c r="L28" s="34" t="n">
-        <v>5674.464</v>
-      </c>
-      <c r="M28" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" s="34" t="n">
-        <v>291.67</v>
-      </c>
-      <c r="P28" s="34" t="n">
-        <v>24.26</v>
-      </c>
-      <c r="Q28" s="35" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="R28" s="35" t="n">
-        <v>400</v>
-      </c>
-      <c r="S28" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" s="35" t="n">
-        <v>1350</v>
-      </c>
-      <c r="U28" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="36" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB28" s="36" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="AC28" s="37" t="n">
-        <v>7940.704</v>
-      </c>
-      <c r="AD28" s="38" t="n">
-        <v>235.136</v>
-      </c>
-      <c r="AE28" s="17" t="n">
-        <v>3454.14784</v>
-      </c>
-      <c r="AF28" s="19" t="inlineStr">
-        <is>
-          <t>20-04-2022</t>
-        </is>
-      </c>
+      <c r="A28" s="28" t="n"/>
+      <c r="B28" s="28" t="n"/>
+      <c r="C28" s="28" t="n"/>
+      <c r="D28" s="30" t="n"/>
+      <c r="E28" s="30" t="n"/>
+      <c r="F28" s="31" t="n"/>
+      <c r="G28" s="31" t="n"/>
+      <c r="H28" s="22" t="n"/>
+      <c r="I28" s="12" t="n"/>
+      <c r="J28" s="9" t="n"/>
+      <c r="K28" s="33" t="n"/>
+      <c r="L28" s="34" t="n"/>
+      <c r="M28" s="34" t="n"/>
+      <c r="N28" s="34" t="n"/>
+      <c r="O28" s="34" t="n"/>
+      <c r="P28" s="34" t="n"/>
+      <c r="Q28" s="35" t="n"/>
+      <c r="R28" s="35" t="n"/>
+      <c r="S28" s="35" t="n"/>
+      <c r="T28" s="35" t="n"/>
+      <c r="U28" s="35" t="n"/>
+      <c r="V28" s="35" t="n"/>
+      <c r="W28" s="35" t="n"/>
+      <c r="X28" s="35" t="n"/>
+      <c r="Y28" s="36" t="n"/>
+      <c r="Z28" s="36" t="n"/>
+      <c r="AA28" s="36" t="n"/>
+      <c r="AB28" s="36" t="n"/>
+      <c r="AC28" s="37" t="n"/>
+      <c r="AD28" s="38" t="n"/>
+      <c r="AE28" s="17" t="n"/>
+      <c r="AF28" s="19" t="n"/>
     </row>
     <row r="29" ht="30" customHeight="1">
-      <c r="A29" s="28" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="B29" s="28" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C29" s="28" t="inlineStr">
-        <is>
-          <t>21PDG07-1</t>
-        </is>
-      </c>
-      <c r="D29" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E29" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F29" s="31" t="inlineStr">
-        <is>
-          <t>07-12-2021</t>
-        </is>
-      </c>
-      <c r="G29" s="31" t="inlineStr">
-        <is>
-          <t>08-03-2022</t>
-        </is>
-      </c>
-      <c r="H29" s="22" t="inlineStr">
-        <is>
-          <t>David, PDG - Australia</t>
-        </is>
-      </c>
-      <c r="I29" s="12" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="J29" s="9" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
-      <c r="K29" s="33" t="n">
-        <v>46061.67</v>
-      </c>
-      <c r="L29" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="34" t="n">
-        <v>30077.495</v>
-      </c>
-      <c r="O29" s="34" t="n">
-        <v>411.88</v>
-      </c>
-      <c r="P29" s="34" t="n">
-        <v>62.12</v>
-      </c>
-      <c r="Q29" s="35" t="n">
-        <v>134.18</v>
-      </c>
-      <c r="R29" s="35" t="n">
-        <v>675</v>
-      </c>
-      <c r="S29" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" s="35" t="n">
-        <v>4350</v>
-      </c>
-      <c r="U29" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="36" t="n">
-        <v>56.47</v>
-      </c>
-      <c r="AB29" s="36" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="AC29" s="37" t="n">
-        <v>35785.865</v>
-      </c>
-      <c r="AD29" s="38" t="n">
-        <v>10275.805</v>
-      </c>
-      <c r="AE29" s="17" t="n">
-        <v>167701.1376</v>
-      </c>
-      <c r="AF29" s="19" t="inlineStr">
-        <is>
-          <t>25-05-2022</t>
-        </is>
-      </c>
+      <c r="A29" s="28" t="n"/>
+      <c r="B29" s="28" t="n"/>
+      <c r="C29" s="28" t="n"/>
+      <c r="D29" s="30" t="n"/>
+      <c r="E29" s="30" t="n"/>
+      <c r="F29" s="31" t="n"/>
+      <c r="G29" s="31" t="n"/>
+      <c r="H29" s="22" t="n"/>
+      <c r="I29" s="12" t="n"/>
+      <c r="J29" s="9" t="n"/>
+      <c r="K29" s="33" t="n"/>
+      <c r="L29" s="34" t="n"/>
+      <c r="M29" s="34" t="n"/>
+      <c r="N29" s="34" t="n"/>
+      <c r="O29" s="34" t="n"/>
+      <c r="P29" s="34" t="n"/>
+      <c r="Q29" s="35" t="n"/>
+      <c r="R29" s="35" t="n"/>
+      <c r="S29" s="35" t="n"/>
+      <c r="T29" s="35" t="n"/>
+      <c r="U29" s="35" t="n"/>
+      <c r="V29" s="35" t="n"/>
+      <c r="W29" s="35" t="n"/>
+      <c r="X29" s="35" t="n"/>
+      <c r="Y29" s="36" t="n"/>
+      <c r="Z29" s="36" t="n"/>
+      <c r="AA29" s="36" t="n"/>
+      <c r="AB29" s="36" t="n"/>
+      <c r="AC29" s="37" t="n"/>
+      <c r="AD29" s="38" t="n"/>
+      <c r="AE29" s="17" t="n"/>
+      <c r="AF29" s="19" t="n"/>
     </row>
     <row r="30" ht="30" customHeight="1">
-      <c r="A30" s="28" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="B30" s="28" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C30" s="28" t="inlineStr">
-        <is>
-          <t>21PDG07-2</t>
-        </is>
-      </c>
-      <c r="D30" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E30" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F30" s="31" t="inlineStr">
-        <is>
-          <t>07-12-2021</t>
-        </is>
-      </c>
-      <c r="G30" s="31" t="inlineStr">
-        <is>
-          <t>15-03-2022</t>
-        </is>
-      </c>
-      <c r="H30" s="22" t="inlineStr">
-        <is>
-          <t>David, PDG - Australia</t>
-        </is>
-      </c>
-      <c r="I30" s="12" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="J30" s="9" t="inlineStr">
-        <is>
-          <t>CIF</t>
-        </is>
-      </c>
-      <c r="K30" s="33" t="n">
-        <v>1120.6</v>
-      </c>
-      <c r="L30" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="34" t="n">
-        <v>470.8</v>
-      </c>
-      <c r="O30" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" s="34" t="n">
-        <v>17.58</v>
-      </c>
-      <c r="Q30" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" s="35" t="n">
-        <v>200</v>
-      </c>
-      <c r="S30" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" s="35" t="n">
-        <v>195</v>
-      </c>
-      <c r="U30" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="36" t="n">
-        <v>18.91</v>
-      </c>
-      <c r="AC30" s="37" t="n">
-        <v>902.29</v>
-      </c>
-      <c r="AD30" s="38" t="n">
-        <v>218.31</v>
-      </c>
-      <c r="AE30" s="17" t="n">
-        <v>3562.8192</v>
-      </c>
-      <c r="AF30" s="19" t="inlineStr">
-        <is>
-          <t>25-05-2022</t>
-        </is>
-      </c>
+      <c r="A30" s="28" t="n"/>
+      <c r="B30" s="28" t="n"/>
+      <c r="C30" s="28" t="n"/>
+      <c r="D30" s="30" t="n"/>
+      <c r="E30" s="30" t="n"/>
+      <c r="F30" s="31" t="n"/>
+      <c r="G30" s="31" t="n"/>
+      <c r="H30" s="22" t="n"/>
+      <c r="I30" s="12" t="n"/>
+      <c r="J30" s="9" t="n"/>
+      <c r="K30" s="33" t="n"/>
+      <c r="L30" s="34" t="n"/>
+      <c r="M30" s="34" t="n"/>
+      <c r="N30" s="34" t="n"/>
+      <c r="O30" s="34" t="n"/>
+      <c r="P30" s="34" t="n"/>
+      <c r="Q30" s="35" t="n"/>
+      <c r="R30" s="35" t="n"/>
+      <c r="S30" s="35" t="n"/>
+      <c r="T30" s="35" t="n"/>
+      <c r="U30" s="35" t="n"/>
+      <c r="V30" s="35" t="n"/>
+      <c r="W30" s="35" t="n"/>
+      <c r="X30" s="35" t="n"/>
+      <c r="Y30" s="36" t="n"/>
+      <c r="Z30" s="36" t="n"/>
+      <c r="AA30" s="36" t="n"/>
+      <c r="AB30" s="36" t="n"/>
+      <c r="AC30" s="37" t="n"/>
+      <c r="AD30" s="38" t="n"/>
+      <c r="AE30" s="17" t="n"/>
+      <c r="AF30" s="19" t="n"/>
     </row>
     <row r="31" ht="30" customHeight="1">
-      <c r="A31" s="28" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="B31" s="28" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="C31" s="28" t="inlineStr">
-        <is>
-          <t>22HAMAD02-1</t>
-        </is>
-      </c>
-      <c r="D31" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E31" s="30" t="inlineStr">
-        <is>
-          <t>Efes</t>
-        </is>
-      </c>
-      <c r="F31" s="31" t="inlineStr">
-        <is>
-          <t>03-01-2022</t>
-        </is>
-      </c>
-      <c r="G31" s="31" t="inlineStr">
-        <is>
-          <t>15-03-2022</t>
-        </is>
-      </c>
-      <c r="H31" s="22" t="inlineStr">
-        <is>
-          <t>Hamad - Oman</t>
-        </is>
-      </c>
-      <c r="I31" s="12" t="inlineStr">
-        <is>
-          <t>Oman</t>
-        </is>
-      </c>
-      <c r="J31" s="9" t="inlineStr">
-        <is>
-          <t>CFR</t>
-        </is>
-      </c>
-      <c r="K31" s="33" t="n">
-        <v>16330.4</v>
-      </c>
-      <c r="L31" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="34" t="n">
-        <v>14305.6228</v>
-      </c>
-      <c r="O31" s="34" t="n">
-        <v>312.13</v>
-      </c>
-      <c r="P31" s="34" t="n">
-        <v>59.16</v>
-      </c>
-      <c r="Q31" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" s="35" t="n">
-        <v>475</v>
-      </c>
-      <c r="S31" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" s="35" t="n">
-        <v>1450</v>
-      </c>
-      <c r="U31" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="36" t="n">
-        <v>17.81</v>
-      </c>
-      <c r="AC31" s="37" t="n">
-        <v>16619.7228</v>
-      </c>
-      <c r="AD31" s="38" t="n">
-        <v>-289.3228</v>
-      </c>
-      <c r="AE31" s="17" t="n">
-        <v>-4244.365476</v>
-      </c>
-      <c r="AF31" s="19" t="inlineStr">
-        <is>
-          <t>18-04-2022</t>
-        </is>
-      </c>
+      <c r="A31" s="28" t="n"/>
+      <c r="B31" s="28" t="n"/>
+      <c r="C31" s="28" t="n"/>
+      <c r="D31" s="30" t="n"/>
+      <c r="E31" s="30" t="n"/>
+      <c r="F31" s="31" t="n"/>
+      <c r="G31" s="31" t="n"/>
+      <c r="H31" s="22" t="n"/>
+      <c r="I31" s="12" t="n"/>
+      <c r="J31" s="9" t="n"/>
+      <c r="K31" s="33" t="n"/>
+      <c r="L31" s="34" t="n"/>
+      <c r="M31" s="34" t="n"/>
+      <c r="N31" s="34" t="n"/>
+      <c r="O31" s="34" t="n"/>
+      <c r="P31" s="34" t="n"/>
+      <c r="Q31" s="35" t="n"/>
+      <c r="R31" s="35" t="n"/>
+      <c r="S31" s="35" t="n"/>
+      <c r="T31" s="35" t="n"/>
+      <c r="U31" s="35" t="n"/>
+      <c r="V31" s="35" t="n"/>
+      <c r="W31" s="35" t="n"/>
+      <c r="X31" s="35" t="n"/>
+      <c r="Y31" s="36" t="n"/>
+      <c r="Z31" s="36" t="n"/>
+      <c r="AA31" s="36" t="n"/>
+      <c r="AB31" s="36" t="n"/>
+      <c r="AC31" s="37" t="n"/>
+      <c r="AD31" s="38" t="n"/>
+      <c r="AE31" s="17" t="n"/>
+      <c r="AF31" s="19" t="n"/>
     </row>
     <row r="32" ht="30" customHeight="1">
-      <c r="A32" s="28" t="inlineStr">
-        <is>
-          <t>Mehmet</t>
-        </is>
-      </c>
-      <c r="B32" s="28" t="inlineStr">
-        <is>
-          <t>Semih</t>
-        </is>
-      </c>
-      <c r="C32" s="28" t="inlineStr">
-        <is>
-          <t>22BERNARD01-2</t>
-        </is>
-      </c>
-      <c r="D32" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E32" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F32" s="31" t="inlineStr">
-        <is>
-          <t>23-02-2022</t>
-        </is>
-      </c>
-      <c r="G32" s="31" t="inlineStr">
-        <is>
-          <t>18-03-2022</t>
-        </is>
-      </c>
-      <c r="H32" s="22" t="inlineStr">
-        <is>
-          <t>Bernard Osei - Ghana</t>
-        </is>
-      </c>
-      <c r="I32" s="12" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="J32" s="9" t="inlineStr">
-        <is>
-          <t>CFR</t>
-        </is>
-      </c>
-      <c r="K32" s="33" t="n">
-        <v>12910.1</v>
-      </c>
-      <c r="L32" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="34" t="n">
-        <v>3957.54</v>
-      </c>
-      <c r="O32" s="34" t="n">
-        <v>215.27</v>
-      </c>
-      <c r="P32" s="34" t="n">
-        <v>29.45</v>
-      </c>
-      <c r="Q32" s="35" t="n">
-        <v>39.85</v>
-      </c>
-      <c r="R32" s="35" t="n">
-        <v>400</v>
-      </c>
-      <c r="S32" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" s="35" t="n">
-        <v>6500</v>
-      </c>
-      <c r="U32" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="36" t="n">
-        <v>45</v>
-      </c>
-      <c r="AB32" s="36" t="n">
-        <v>20.47</v>
-      </c>
-      <c r="AC32" s="37" t="n">
-        <v>11207.58</v>
-      </c>
-      <c r="AD32" s="38" t="n">
-        <v>1702.52</v>
-      </c>
-      <c r="AE32" s="17" t="n">
-        <v>25010.0188</v>
-      </c>
-      <c r="AF32" s="19" t="inlineStr">
-        <is>
-          <t>30-03-2022</t>
-        </is>
-      </c>
+      <c r="A32" s="28" t="n"/>
+      <c r="B32" s="28" t="n"/>
+      <c r="C32" s="28" t="n"/>
+      <c r="D32" s="30" t="n"/>
+      <c r="E32" s="30" t="n"/>
+      <c r="F32" s="31" t="n"/>
+      <c r="G32" s="31" t="n"/>
+      <c r="H32" s="22" t="n"/>
+      <c r="I32" s="12" t="n"/>
+      <c r="J32" s="9" t="n"/>
+      <c r="K32" s="33" t="n"/>
+      <c r="L32" s="34" t="n"/>
+      <c r="M32" s="34" t="n"/>
+      <c r="N32" s="34" t="n"/>
+      <c r="O32" s="34" t="n"/>
+      <c r="P32" s="34" t="n"/>
+      <c r="Q32" s="35" t="n"/>
+      <c r="R32" s="35" t="n"/>
+      <c r="S32" s="35" t="n"/>
+      <c r="T32" s="35" t="n"/>
+      <c r="U32" s="35" t="n"/>
+      <c r="V32" s="35" t="n"/>
+      <c r="W32" s="35" t="n"/>
+      <c r="X32" s="35" t="n"/>
+      <c r="Y32" s="36" t="n"/>
+      <c r="Z32" s="36" t="n"/>
+      <c r="AA32" s="36" t="n"/>
+      <c r="AB32" s="36" t="n"/>
+      <c r="AC32" s="37" t="n"/>
+      <c r="AD32" s="38" t="n"/>
+      <c r="AE32" s="17" t="n"/>
+      <c r="AF32" s="19" t="n"/>
     </row>
     <row r="33" ht="30" customHeight="1">
-      <c r="A33" s="28" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="B33" s="28" t="inlineStr">
-        <is>
-          <t>Ozlem</t>
-        </is>
-      </c>
-      <c r="C33" s="28" t="inlineStr">
-        <is>
-          <t>21ESI01-1</t>
-        </is>
-      </c>
-      <c r="D33" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E33" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F33" s="31" t="inlineStr">
-        <is>
-          <t>22-09-2021</t>
-        </is>
-      </c>
-      <c r="G33" s="31" t="inlineStr">
-        <is>
-          <t>19-03-2022</t>
-        </is>
-      </c>
-      <c r="H33" s="22" t="inlineStr">
-        <is>
-          <t>Esi Okyere - Ghana</t>
-        </is>
-      </c>
-      <c r="I33" s="12" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
-      </c>
-      <c r="J33" s="9" t="inlineStr">
-        <is>
-          <t>CFR</t>
-        </is>
-      </c>
-      <c r="K33" s="33" t="n">
-        <v>21853.8</v>
-      </c>
-      <c r="L33" s="34" t="n">
-        <v>1975.589</v>
-      </c>
-      <c r="M33" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="34" t="n">
-        <v>10654.6</v>
-      </c>
-      <c r="O33" s="34" t="n">
-        <v>411.73</v>
-      </c>
-      <c r="P33" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" s="35" t="n">
-        <v>400</v>
-      </c>
-      <c r="S33" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" s="35" t="n">
-        <v>2765</v>
-      </c>
-      <c r="U33" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="36" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB33" s="36" t="n">
-        <v>20.47</v>
-      </c>
-      <c r="AC33" s="37" t="n">
-        <v>16257.389</v>
-      </c>
-      <c r="AD33" s="38" t="n">
-        <v>5596.411</v>
-      </c>
-      <c r="AE33" s="17" t="n">
-        <v>82603.02636</v>
-      </c>
-      <c r="AF33" s="19" t="inlineStr">
-        <is>
-          <t>22-04-2022</t>
-        </is>
-      </c>
+      <c r="A33" s="28" t="n"/>
+      <c r="B33" s="28" t="n"/>
+      <c r="C33" s="28" t="n"/>
+      <c r="D33" s="30" t="n"/>
+      <c r="E33" s="30" t="n"/>
+      <c r="F33" s="31" t="n"/>
+      <c r="G33" s="31" t="n"/>
+      <c r="H33" s="22" t="n"/>
+      <c r="I33" s="12" t="n"/>
+      <c r="J33" s="9" t="n"/>
+      <c r="K33" s="33" t="n"/>
+      <c r="L33" s="34" t="n"/>
+      <c r="M33" s="34" t="n"/>
+      <c r="N33" s="34" t="n"/>
+      <c r="O33" s="34" t="n"/>
+      <c r="P33" s="34" t="n"/>
+      <c r="Q33" s="35" t="n"/>
+      <c r="R33" s="35" t="n"/>
+      <c r="S33" s="35" t="n"/>
+      <c r="T33" s="35" t="n"/>
+      <c r="U33" s="35" t="n"/>
+      <c r="V33" s="35" t="n"/>
+      <c r="W33" s="35" t="n"/>
+      <c r="X33" s="35" t="n"/>
+      <c r="Y33" s="36" t="n"/>
+      <c r="Z33" s="36" t="n"/>
+      <c r="AA33" s="36" t="n"/>
+      <c r="AB33" s="36" t="n"/>
+      <c r="AC33" s="37" t="n"/>
+      <c r="AD33" s="38" t="n"/>
+      <c r="AE33" s="17" t="n"/>
+      <c r="AF33" s="19" t="n"/>
     </row>
     <row r="34" ht="30" customHeight="1">
-      <c r="A34" s="28" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="B34" s="28" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="C34" s="28" t="inlineStr">
-        <is>
-          <t>22VEIK80-1</t>
-        </is>
-      </c>
-      <c r="D34" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E34" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F34" s="31" t="inlineStr">
-        <is>
-          <t>02-03-2022</t>
-        </is>
-      </c>
-      <c r="G34" s="31" t="inlineStr">
-        <is>
-          <t>21-03-2022</t>
-        </is>
-      </c>
-      <c r="H34" s="22" t="inlineStr">
-        <is>
-          <t>VEIK - UAE</t>
-        </is>
-      </c>
-      <c r="I34" s="12" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="J34" s="9" t="inlineStr">
-        <is>
-          <t>CFR</t>
-        </is>
-      </c>
-      <c r="K34" s="33" t="n">
-        <v>15047.98</v>
-      </c>
-      <c r="L34" s="34" t="n">
-        <v>11962.176</v>
-      </c>
-      <c r="M34" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" s="34" t="n">
-        <v>310.58</v>
-      </c>
-      <c r="P34" s="34" t="n">
-        <v>32.24</v>
-      </c>
-      <c r="Q34" s="35" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="R34" s="35" t="n">
-        <v>600</v>
-      </c>
-      <c r="S34" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" s="35" t="n">
-        <v>1150</v>
-      </c>
-      <c r="U34" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="36" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB34" s="36" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="AC34" s="37" t="n">
-        <v>14135.686</v>
-      </c>
-      <c r="AD34" s="38" t="n">
-        <v>912.294</v>
-      </c>
-      <c r="AE34" s="17" t="n">
-        <v>13465.45944</v>
-      </c>
-      <c r="AF34" s="19" t="inlineStr">
-        <is>
-          <t>11-04-2022</t>
-        </is>
-      </c>
+      <c r="A34" s="28" t="n"/>
+      <c r="B34" s="28" t="n"/>
+      <c r="C34" s="28" t="n"/>
+      <c r="D34" s="30" t="n"/>
+      <c r="E34" s="30" t="n"/>
+      <c r="F34" s="31" t="n"/>
+      <c r="G34" s="31" t="n"/>
+      <c r="H34" s="22" t="n"/>
+      <c r="I34" s="12" t="n"/>
+      <c r="J34" s="9" t="n"/>
+      <c r="K34" s="33" t="n"/>
+      <c r="L34" s="34" t="n"/>
+      <c r="M34" s="34" t="n"/>
+      <c r="N34" s="34" t="n"/>
+      <c r="O34" s="34" t="n"/>
+      <c r="P34" s="34" t="n"/>
+      <c r="Q34" s="35" t="n"/>
+      <c r="R34" s="35" t="n"/>
+      <c r="S34" s="35" t="n"/>
+      <c r="T34" s="35" t="n"/>
+      <c r="U34" s="35" t="n"/>
+      <c r="V34" s="35" t="n"/>
+      <c r="W34" s="35" t="n"/>
+      <c r="X34" s="35" t="n"/>
+      <c r="Y34" s="36" t="n"/>
+      <c r="Z34" s="36" t="n"/>
+      <c r="AA34" s="36" t="n"/>
+      <c r="AB34" s="36" t="n"/>
+      <c r="AC34" s="37" t="n"/>
+      <c r="AD34" s="38" t="n"/>
+      <c r="AE34" s="17" t="n"/>
+      <c r="AF34" s="19" t="n"/>
     </row>
     <row r="35" ht="30" customHeight="1">
-      <c r="A35" s="28" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="C35" s="28" t="inlineStr">
-        <is>
-          <t>21ZKI02</t>
-        </is>
-      </c>
-      <c r="D35" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E35" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F35" s="31" t="inlineStr">
-        <is>
-          <t>14-12-2021</t>
-        </is>
-      </c>
-      <c r="G35" s="31" t="inlineStr">
-        <is>
-          <t>22-03-2022</t>
-        </is>
-      </c>
-      <c r="H35" s="22" t="inlineStr">
-        <is>
-          <t>Roland - AU</t>
-        </is>
-      </c>
-      <c r="I35" s="12" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="J35" s="9" t="inlineStr">
-        <is>
-          <t>CFR</t>
-        </is>
-      </c>
-      <c r="K35" s="33" t="n">
-        <v>46377.12</v>
-      </c>
-      <c r="L35" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="34" t="n">
-        <v>18712.3925</v>
-      </c>
-      <c r="O35" s="34" t="n">
-        <v>228.88</v>
-      </c>
-      <c r="P35" s="34" t="n">
-        <v>57.47</v>
-      </c>
-      <c r="Q35" s="35" t="n">
-        <v>300</v>
-      </c>
-      <c r="R35" s="35" t="n">
-        <v>1800</v>
-      </c>
-      <c r="S35" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" s="35" t="n">
-        <v>17250</v>
-      </c>
-      <c r="U35" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="36" t="n">
-        <v>18.91</v>
-      </c>
-      <c r="AC35" s="37" t="n">
-        <v>38367.6525</v>
-      </c>
-      <c r="AD35" s="38" t="n">
-        <v>8009.4675</v>
-      </c>
-      <c r="AE35" s="17" t="n">
-        <v>138083.2197</v>
-      </c>
-      <c r="AF35" s="19" t="inlineStr">
-        <is>
-          <t>06-07-2022</t>
-        </is>
-      </c>
+      <c r="A35" s="28" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="28" t="n"/>
+      <c r="D35" s="30" t="n"/>
+      <c r="E35" s="30" t="n"/>
+      <c r="F35" s="31" t="n"/>
+      <c r="G35" s="31" t="n"/>
+      <c r="H35" s="22" t="n"/>
+      <c r="I35" s="12" t="n"/>
+      <c r="J35" s="9" t="n"/>
+      <c r="K35" s="33" t="n"/>
+      <c r="L35" s="34" t="n"/>
+      <c r="M35" s="34" t="n"/>
+      <c r="N35" s="34" t="n"/>
+      <c r="O35" s="34" t="n"/>
+      <c r="P35" s="34" t="n"/>
+      <c r="Q35" s="35" t="n"/>
+      <c r="R35" s="35" t="n"/>
+      <c r="S35" s="35" t="n"/>
+      <c r="T35" s="35" t="n"/>
+      <c r="U35" s="35" t="n"/>
+      <c r="V35" s="35" t="n"/>
+      <c r="W35" s="35" t="n"/>
+      <c r="X35" s="35" t="n"/>
+      <c r="Y35" s="36" t="n"/>
+      <c r="Z35" s="36" t="n"/>
+      <c r="AA35" s="36" t="n"/>
+      <c r="AB35" s="36" t="n"/>
+      <c r="AC35" s="37" t="n"/>
+      <c r="AD35" s="38" t="n"/>
+      <c r="AE35" s="17" t="n"/>
+      <c r="AF35" s="19" t="n"/>
     </row>
     <row r="36" ht="30" customHeight="1">
-      <c r="A36" s="28" t="inlineStr">
-        <is>
-          <t>Gizem</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="C36" s="28" t="inlineStr">
-        <is>
-          <t>22HAMAD02-2</t>
-        </is>
-      </c>
-      <c r="D36" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E36" s="30" t="inlineStr">
-        <is>
-          <t>Efes</t>
-        </is>
-      </c>
-      <c r="F36" s="31" t="inlineStr">
-        <is>
-          <t>03-01-2022</t>
-        </is>
-      </c>
-      <c r="G36" s="31" t="inlineStr">
-        <is>
-          <t>22-03-2022</t>
-        </is>
-      </c>
-      <c r="H36" s="22" t="inlineStr">
-        <is>
-          <t>Hamad - Oman</t>
-        </is>
-      </c>
-      <c r="I36" s="12" t="inlineStr">
-        <is>
-          <t>Oman</t>
-        </is>
-      </c>
-      <c r="J36" s="9" t="inlineStr">
-        <is>
-          <t>CFR</t>
-        </is>
-      </c>
-      <c r="K36" s="33" t="n">
-        <v>14696</v>
-      </c>
-      <c r="L36" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="34" t="n">
-        <v>12640</v>
-      </c>
-      <c r="O36" s="34" t="n">
-        <v>311.56</v>
-      </c>
-      <c r="P36" s="34" t="n">
-        <v>50.19</v>
-      </c>
-      <c r="Q36" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" s="35" t="n">
-        <v>475</v>
-      </c>
-      <c r="S36" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" s="35" t="n">
-        <v>1550</v>
-      </c>
-      <c r="U36" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="36" t="n">
-        <v>118.76</v>
-      </c>
-      <c r="AB36" s="36" t="n">
-        <v>17.81</v>
-      </c>
-      <c r="AC36" s="37" t="n">
-        <v>15163.32</v>
-      </c>
-      <c r="AD36" s="38" t="n">
-        <v>-467.32</v>
-      </c>
-      <c r="AE36" s="17" t="n">
-        <v>-7762.1852</v>
-      </c>
-      <c r="AF36" s="19" t="inlineStr">
-        <is>
-          <t>06-06-2022</t>
-        </is>
-      </c>
+      <c r="A36" s="28" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="28" t="n"/>
+      <c r="D36" s="30" t="n"/>
+      <c r="E36" s="30" t="n"/>
+      <c r="F36" s="31" t="n"/>
+      <c r="G36" s="31" t="n"/>
+      <c r="H36" s="22" t="n"/>
+      <c r="I36" s="12" t="n"/>
+      <c r="J36" s="9" t="n"/>
+      <c r="K36" s="33" t="n"/>
+      <c r="L36" s="34" t="n"/>
+      <c r="M36" s="34" t="n"/>
+      <c r="N36" s="34" t="n"/>
+      <c r="O36" s="34" t="n"/>
+      <c r="P36" s="34" t="n"/>
+      <c r="Q36" s="35" t="n"/>
+      <c r="R36" s="35" t="n"/>
+      <c r="S36" s="35" t="n"/>
+      <c r="T36" s="35" t="n"/>
+      <c r="U36" s="35" t="n"/>
+      <c r="V36" s="35" t="n"/>
+      <c r="W36" s="35" t="n"/>
+      <c r="X36" s="35" t="n"/>
+      <c r="Y36" s="36" t="n"/>
+      <c r="Z36" s="36" t="n"/>
+      <c r="AA36" s="36" t="n"/>
+      <c r="AB36" s="36" t="n"/>
+      <c r="AC36" s="37" t="n"/>
+      <c r="AD36" s="38" t="n"/>
+      <c r="AE36" s="17" t="n"/>
+      <c r="AF36" s="19" t="n"/>
     </row>
     <row r="37" ht="30" customHeight="1">
-      <c r="A37" s="28" t="inlineStr">
-        <is>
-          <t>Mehmet</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="C37" s="28" t="inlineStr">
-        <is>
-          <t>22AAC03</t>
-        </is>
-      </c>
-      <c r="D37" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E37" s="30" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F37" s="31" t="inlineStr">
-        <is>
-          <t>21-03-2022</t>
-        </is>
-      </c>
-      <c r="G37" s="31" t="inlineStr">
-        <is>
-          <t>23-03-2022</t>
-        </is>
-      </c>
-      <c r="H37" s="22" t="inlineStr">
-        <is>
-          <t>Veysi &amp; Assham - Libya</t>
-        </is>
-      </c>
-      <c r="I37" s="12" t="inlineStr">
-        <is>
-          <t>Libya</t>
-        </is>
-      </c>
-      <c r="J37" s="9" t="inlineStr">
-        <is>
-          <t>FCA</t>
-        </is>
-      </c>
-      <c r="K37" s="33" t="n">
-        <v>14511.2</v>
-      </c>
-      <c r="L37" s="34" t="n">
-        <v>12947.08</v>
-      </c>
-      <c r="M37" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" s="34" t="n">
-        <v>300.69</v>
-      </c>
-      <c r="P37" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="37" t="n">
-        <v>13247.77</v>
-      </c>
-      <c r="AD37" s="38" t="n">
-        <v>1263.43</v>
-      </c>
-      <c r="AE37" s="17" t="n">
-        <v>18585.0553</v>
-      </c>
-      <c r="AF37" s="19" t="inlineStr">
-        <is>
-          <t>01-04-2022</t>
-        </is>
-      </c>
+      <c r="A37" s="28" t="n"/>
+      <c r="B37" s="28" t="n"/>
+      <c r="C37" s="28" t="n"/>
+      <c r="D37" s="30" t="n"/>
+      <c r="E37" s="30" t="n"/>
+      <c r="F37" s="31" t="n"/>
+      <c r="G37" s="31" t="n"/>
+      <c r="H37" s="22" t="n"/>
+      <c r="I37" s="12" t="n"/>
+      <c r="J37" s="9" t="n"/>
+      <c r="K37" s="33" t="n"/>
+      <c r="L37" s="34" t="n"/>
+      <c r="M37" s="34" t="n"/>
+      <c r="N37" s="34" t="n"/>
+      <c r="O37" s="34" t="n"/>
+      <c r="P37" s="34" t="n"/>
+      <c r="Q37" s="35" t="n"/>
+      <c r="R37" s="35" t="n"/>
+      <c r="S37" s="35" t="n"/>
+      <c r="T37" s="35" t="n"/>
+      <c r="U37" s="35" t="n"/>
+      <c r="V37" s="35" t="n"/>
+      <c r="W37" s="35" t="n"/>
+      <c r="X37" s="35" t="n"/>
+      <c r="Y37" s="36" t="n"/>
+      <c r="Z37" s="36" t="n"/>
+      <c r="AA37" s="36" t="n"/>
+      <c r="AB37" s="36" t="n"/>
+      <c r="AC37" s="37" t="n"/>
+      <c r="AD37" s="38" t="n"/>
+      <c r="AE37" s="17" t="n"/>
+      <c r="AF37" s="19" t="n"/>
     </row>
     <row r="38" ht="30" customHeight="1">
       <c r="A38" s="28" t="n"/>

--- a/resource_api/maliyet_raporlar/dosyalar/ayo_maliyet_listesi.xlsx
+++ b/resource_api/maliyet_raporlar/dosyalar/ayo_maliyet_listesi.xlsx
@@ -843,17 +843,17 @@
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Hakan</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Hakan</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>22JAT01</t>
+          <t>23FRAN01</t>
         </is>
       </c>
       <c r="D2" s="22" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="F2" s="32" t="inlineStr">
         <is>
-          <t>14-09-2022</t>
+          <t>22-02-2023</t>
         </is>
       </c>
       <c r="G2" s="32" t="inlineStr">
         <is>
-          <t>06-10-2022</t>
+          <t>01-04-2023</t>
         </is>
       </c>
       <c r="H2" s="12" t="inlineStr">
         <is>
-          <t>Jacob Tyroller- USA</t>
+          <t>Franchesta - USA</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -888,11 +888,11 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>DDP</t>
+          <t>FOB</t>
         </is>
       </c>
       <c r="K2" s="33" t="n">
-        <v>2558.99</v>
+        <v>31252.8</v>
       </c>
       <c r="L2" s="34" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="N2" s="34" t="n">
-        <v>1758.33</v>
+        <v>0</v>
       </c>
       <c r="O2" s="34" t="n">
         <v>0</v>
       </c>
       <c r="P2" s="34" t="n">
-        <v>0</v>
+        <v>126.81</v>
       </c>
       <c r="Q2" s="35" t="n">
-        <v>0</v>
+        <v>171.01</v>
       </c>
       <c r="R2" s="35" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="35" t="n">
-        <v>334.92</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="36" t="n">
         <v>0</v>
@@ -940,40 +940,40 @@
         <v>0</v>
       </c>
       <c r="AA2" s="36" t="n">
-        <v>89.79000000000001</v>
+        <v>31.11</v>
       </c>
       <c r="AB2" s="36" t="n">
         <v>0</v>
       </c>
       <c r="AC2" s="37" t="n">
-        <v>2183.04</v>
+        <v>352.25</v>
       </c>
       <c r="AD2" s="38" t="n">
-        <v>375.95</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="17" t="n">
-        <v>6876.1255</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="19" t="inlineStr">
         <is>
-          <t>14-09-2022</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>Mehmet</t>
+          <t>Gizem</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>Semih</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>22PRIM02-3</t>
+          <t>22COS29</t>
         </is>
       </c>
       <c r="D3" s="22" t="inlineStr">
@@ -988,64 +988,64 @@
       </c>
       <c r="F3" s="32" t="inlineStr">
         <is>
-          <t>08-03-2022</t>
+          <t>10-11-2022</t>
         </is>
       </c>
       <c r="G3" s="32" t="inlineStr">
         <is>
-          <t>08-10-2022</t>
+          <t>03-04-2023</t>
         </is>
       </c>
       <c r="H3" s="12" t="inlineStr">
         <is>
-          <t>Prim Rose - Ghana</t>
+          <t>Kirill - Russia</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t>CFR</t>
+          <t>FOB</t>
         </is>
       </c>
       <c r="K3" s="33" t="n">
-        <v>60922.32</v>
+        <v>19917.99</v>
       </c>
       <c r="L3" s="34" t="n">
-        <v>39569.075</v>
+        <v>5427</v>
       </c>
       <c r="M3" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="34" t="n">
+        <v>4700.16</v>
+      </c>
+      <c r="O3" s="34" t="n">
+        <v>467.72</v>
+      </c>
+      <c r="P3" s="34" t="n">
+        <v>52.64</v>
+      </c>
+      <c r="Q3" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="O3" s="34" t="n">
-        <v>540.55</v>
-      </c>
-      <c r="P3" s="34" t="n">
-        <v>74.51000000000001</v>
-      </c>
-      <c r="Q3" s="35" t="n">
-        <v>40.27</v>
-      </c>
       <c r="R3" s="35" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="S3" s="35" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="35" t="n">
-        <v>4840</v>
+        <v>0</v>
       </c>
       <c r="U3" s="35" t="n">
-        <v>3800</v>
+        <v>267</v>
       </c>
       <c r="V3" s="35" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="W3" s="35" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Y3" s="36" t="n">
-        <v>0</v>
+        <v>2589</v>
       </c>
       <c r="Z3" s="36" t="n">
         <v>0</v>
@@ -1063,27 +1063,27 @@
         <v>0</v>
       </c>
       <c r="AB3" s="36" t="n">
-        <v>18.13</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="37" t="n">
-        <v>49682.535</v>
+        <v>15060.01</v>
       </c>
       <c r="AD3" s="38" t="n">
-        <v>11239.785</v>
+        <v>4857.98</v>
       </c>
       <c r="AE3" s="17" t="n">
-        <v>202316.13</v>
+        <v>93321.79579999999</v>
       </c>
       <c r="AF3" s="19" t="inlineStr">
         <is>
-          <t>03-08-2022</t>
+          <t>30-03-2023</t>
         </is>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>22KET01 - 2</t>
+          <t>23TSE01-1</t>
         </is>
       </c>
       <c r="D4" s="22" t="inlineStr">
@@ -1108,49 +1108,49 @@
       </c>
       <c r="F4" s="32" t="inlineStr">
         <is>
-          <t>21-09-2022</t>
+          <t>11-03-2023</t>
         </is>
       </c>
       <c r="G4" s="32" t="inlineStr">
         <is>
-          <t>15-10-2022</t>
+          <t>03-04-2023</t>
         </is>
       </c>
       <c r="H4" s="12" t="inlineStr">
         <is>
-          <t>Keith Tabor - USA</t>
+          <t>KWABENA OSEI BONSU - Ghana</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>DDP</t>
+          <t>CFR</t>
         </is>
       </c>
       <c r="K4" s="33" t="n">
-        <v>3537.28</v>
+        <v>24647.44</v>
       </c>
       <c r="L4" s="34" t="n">
-        <v>1052.8</v>
+        <v>12361.482</v>
       </c>
       <c r="M4" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N4" s="34" t="n">
-        <v>0</v>
+        <v>6150.87</v>
       </c>
       <c r="O4" s="34" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="34" t="n">
-        <v>0</v>
+        <v>48.73</v>
       </c>
       <c r="Q4" s="35" t="n">
-        <v>0</v>
+        <v>10.36</v>
       </c>
       <c r="R4" s="35" t="n">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="35" t="n">
-        <v>961.4</v>
+        <v>0</v>
       </c>
       <c r="U4" s="35" t="n">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="35" t="n">
-        <v>293.34</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="36" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="AB4" s="36" t="n">
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="AC4" s="37" t="n">
-        <v>2307.54</v>
+        <v>18603.612</v>
       </c>
       <c r="AD4" s="38" t="n">
         <v>0</v>
@@ -1203,17 +1203,17 @@
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Su</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>Ozlem</t>
+          <t>Semih</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>22KET01 - 1</t>
+          <t>23SU112</t>
         </is>
       </c>
       <c r="D5" s="22" t="inlineStr">
@@ -1228,34 +1228,34 @@
       </c>
       <c r="F5" s="32" t="inlineStr">
         <is>
-          <t>21-09-2022</t>
+          <t>13-03-2023</t>
         </is>
       </c>
       <c r="G5" s="32" t="inlineStr">
         <is>
-          <t>15-10-2022</t>
+          <t>04-04-2023</t>
         </is>
       </c>
       <c r="H5" s="12" t="inlineStr">
         <is>
-          <t>Keith Tabor - USA</t>
+          <t>Tamer ($)</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>DDP</t>
+          <t>EXW</t>
         </is>
       </c>
       <c r="K5" s="33" t="n">
-        <v>743</v>
+        <v>1762</v>
       </c>
       <c r="L5" s="34" t="n">
-        <v>0</v>
+        <v>1285.2</v>
       </c>
       <c r="M5" s="34" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="35" t="n">
-        <v>83.7</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="36" t="n">
         <v>0</v>
@@ -1306,34 +1306,34 @@
         <v>0</v>
       </c>
       <c r="AC5" s="37" t="n">
-        <v>83.7</v>
+        <v>1285.2</v>
       </c>
       <c r="AD5" s="38" t="n">
-        <v>659.3</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="17" t="n">
-        <v>12104.748</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="19" t="inlineStr">
         <is>
-          <t>21-09-2022</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>22LLP01</t>
+          <t>23MICK02</t>
         </is>
       </c>
       <c r="D6" s="22" t="inlineStr">
@@ -1343,51 +1343,51 @@
       </c>
       <c r="E6" s="22" t="inlineStr">
         <is>
-          <t>Efes</t>
+          <t>Mekmar</t>
         </is>
       </c>
       <c r="F6" s="32" t="inlineStr">
         <is>
-          <t>31-05-2022</t>
+          <t>19-01-2023</t>
         </is>
       </c>
       <c r="G6" s="32" t="inlineStr">
         <is>
-          <t>17-10-2022</t>
+          <t>04-04-2023</t>
         </is>
       </c>
       <c r="H6" s="12" t="inlineStr">
         <is>
-          <t>Sherzod Tairov - Kazakhstan</t>
+          <t xml:space="preserve">Michael - Germany </t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t>FOB</t>
+          <t>FCA</t>
         </is>
       </c>
       <c r="K6" s="33" t="n">
-        <v>18000</v>
+        <v>7221.68</v>
       </c>
       <c r="L6" s="34" t="n">
-        <v>0</v>
+        <v>4801.0425</v>
       </c>
       <c r="M6" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="34" t="n">
-        <v>10494.4</v>
+        <v>263</v>
       </c>
       <c r="O6" s="34" t="n">
-        <v>152.82</v>
+        <v>0</v>
       </c>
       <c r="P6" s="34" t="n">
-        <v>68.17</v>
+        <v>31.76</v>
       </c>
       <c r="Q6" s="35" t="n">
         <v>0</v>
@@ -1420,30 +1420,30 @@
         <v>0</v>
       </c>
       <c r="AA6" s="36" t="n">
+        <v>123.45</v>
+      </c>
+      <c r="AB6" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="AB6" s="36" t="n">
-        <v>16.54</v>
-      </c>
       <c r="AC6" s="37" t="n">
-        <v>10731.93</v>
+        <v>5219.2525</v>
       </c>
       <c r="AD6" s="38" t="n">
-        <v>7268.07</v>
+        <v>2002.4275</v>
       </c>
       <c r="AE6" s="17" t="n">
-        <v>119705.1129</v>
+        <v>37805.8312</v>
       </c>
       <c r="AF6" s="19" t="inlineStr">
         <is>
-          <t>01-06-2022</t>
+          <t>15-02-2023</t>
         </is>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Hakan</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>22WS23</t>
+          <t>23BPO01</t>
         </is>
       </c>
       <c r="D7" s="22" t="inlineStr">
@@ -1468,22 +1468,22 @@
       </c>
       <c r="F7" s="32" t="inlineStr">
         <is>
-          <t>19-08-2022</t>
+          <t>01-03-2023</t>
         </is>
       </c>
       <c r="G7" s="32" t="inlineStr">
         <is>
-          <t>17-10-2022</t>
+          <t>04-04-2023</t>
         </is>
       </c>
       <c r="H7" s="12" t="inlineStr">
         <is>
-          <t>Radu &amp; Eugen - USA</t>
+          <t>Alexander Endrody - Slovakia</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="K7" s="33" t="n">
-        <v>36568.18</v>
+        <v>30890.39</v>
       </c>
       <c r="L7" s="34" t="n">
-        <v>25183.5645</v>
+        <v>21278.1525</v>
       </c>
       <c r="M7" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N7" s="34" t="n">
-        <v>3976</v>
+        <v>3901.5</v>
       </c>
       <c r="O7" s="34" t="n">
-        <v>889.17</v>
+        <v>0</v>
       </c>
       <c r="P7" s="34" t="n">
-        <v>81.86</v>
+        <v>80.25</v>
       </c>
       <c r="Q7" s="35" t="n">
-        <v>48.31</v>
+        <v>0</v>
       </c>
       <c r="R7" s="35" t="n">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="S7" s="35" t="n">
         <v>0</v>
@@ -1537,43 +1537,43 @@
         <v>0</v>
       </c>
       <c r="Z7" s="36" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="AA7" s="36" t="n">
-        <v>36</v>
+        <v>56.11</v>
       </c>
       <c r="AB7" s="36" t="n">
         <v>0</v>
       </c>
       <c r="AC7" s="37" t="n">
-        <v>31264.9045</v>
+        <v>25759.3325</v>
       </c>
       <c r="AD7" s="38" t="n">
-        <v>5303.2755</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="17" t="n">
-        <v>98853.05532</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="19" t="inlineStr">
         <is>
-          <t>10-11-2022</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="13" t="inlineStr">
         <is>
-          <t>Gizem</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>22WS24</t>
+          <t>23AOTEC01</t>
         </is>
       </c>
       <c r="D8" s="22" t="inlineStr">
@@ -1588,40 +1588,40 @@
       </c>
       <c r="F8" s="32" t="inlineStr">
         <is>
-          <t>19-08-2022</t>
+          <t>08-03-2023</t>
         </is>
       </c>
       <c r="G8" s="32" t="inlineStr">
         <is>
-          <t>17-10-2022</t>
+          <t>07-04-2023</t>
         </is>
       </c>
       <c r="H8" s="12" t="inlineStr">
         <is>
-          <t>Radu &amp; Eugen - USA</t>
+          <t>Oday Mosalam - Germany</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
-          <t>FOB</t>
+          <t>CFR</t>
         </is>
       </c>
       <c r="K8" s="33" t="n">
-        <v>12159.19</v>
+        <v>15556.41</v>
       </c>
       <c r="L8" s="34" t="n">
-        <v>10364.5905</v>
+        <v>0</v>
       </c>
       <c r="M8" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="34" t="n">
-        <v>0</v>
+        <v>10159.4688</v>
       </c>
       <c r="O8" s="34" t="n">
         <v>0</v>
@@ -1639,10 +1639,10 @@
         <v>0</v>
       </c>
       <c r="T8" s="35" t="n">
-        <v>0</v>
+        <v>1075</v>
       </c>
       <c r="U8" s="35" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="V8" s="35" t="n">
         <v>0</v>
@@ -1666,34 +1666,34 @@
         <v>0</v>
       </c>
       <c r="AC8" s="37" t="n">
-        <v>10364.5905</v>
+        <v>11484.4688</v>
       </c>
       <c r="AD8" s="38" t="n">
-        <v>1794.5995</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="17" t="n">
-        <v>33451.33468</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="19" t="inlineStr">
         <is>
-          <t>10-11-2022</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="13" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Mehmet</t>
         </is>
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>Hakan</t>
+          <t>Ozlem</t>
         </is>
       </c>
       <c r="C9" s="13" t="inlineStr">
         <is>
-          <t>22APP16</t>
+          <t>23TSE01-2</t>
         </is>
       </c>
       <c r="D9" s="22" t="inlineStr">
@@ -1708,46 +1708,46 @@
       </c>
       <c r="F9" s="32" t="inlineStr">
         <is>
-          <t>03-10-2022</t>
+          <t>11-03-2023</t>
         </is>
       </c>
       <c r="G9" s="32" t="inlineStr">
         <is>
-          <t>21-10-2022</t>
+          <t>08-04-2023</t>
         </is>
       </c>
       <c r="H9" s="12" t="inlineStr">
         <is>
-          <t>Appia Marmi - Italy</t>
+          <t>KWABENA OSEI BONSU - Ghana</t>
         </is>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
-          <t>FCA</t>
+          <t>CFR</t>
         </is>
       </c>
       <c r="K9" s="33" t="n">
-        <v>1403</v>
+        <v>37563.61</v>
       </c>
       <c r="L9" s="34" t="n">
-        <v>1199</v>
+        <v>0</v>
       </c>
       <c r="M9" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N9" s="34" t="n">
-        <v>0</v>
+        <v>22057.92</v>
       </c>
       <c r="O9" s="34" t="n">
         <v>0</v>
       </c>
       <c r="P9" s="34" t="n">
-        <v>15.9</v>
+        <v>70.73999999999999</v>
       </c>
       <c r="Q9" s="35" t="n">
         <v>0</v>
@@ -1780,265 +1780,93 @@
         <v>0</v>
       </c>
       <c r="AA9" s="36" t="n">
-        <v>28.5</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="36" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="AC9" s="37" t="n">
+        <v>22153.21</v>
+      </c>
+      <c r="AD9" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="AC9" s="37" t="n">
-        <v>1243.4</v>
-      </c>
-      <c r="AD9" s="38" t="n">
-        <v>159.6</v>
-      </c>
       <c r="AE9" s="17" t="n">
-        <v>2973.348</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="19" t="inlineStr">
-        <is>
-          <t>18-10-2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="30" customHeight="1">
-      <c r="A10" s="13" t="inlineStr">
-        <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="B10" s="13" t="inlineStr">
-        <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="C10" s="13" t="inlineStr">
-        <is>
-          <t>22OLI21</t>
-        </is>
-      </c>
-      <c r="D10" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E10" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F10" s="32" t="inlineStr">
-        <is>
-          <t>05-10-2022</t>
-        </is>
-      </c>
-      <c r="G10" s="32" t="inlineStr">
-        <is>
-          <t>21-10-2022</t>
-        </is>
-      </c>
-      <c r="H10" s="12" t="inlineStr">
-        <is>
-          <t>Daniela, OLI - Austria</t>
-        </is>
-      </c>
-      <c r="I10" s="3" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="J10" s="3" t="inlineStr">
-        <is>
-          <t>FCA</t>
-        </is>
-      </c>
-      <c r="K10" s="33" t="n">
-        <v>525</v>
-      </c>
-      <c r="L10" s="34" t="n">
-        <v>450</v>
-      </c>
-      <c r="M10" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="34" t="n">
-        <v>18.69</v>
-      </c>
-      <c r="Q10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="37" t="n">
-        <v>468.69</v>
-      </c>
-      <c r="AD10" s="38" t="n">
-        <v>56.31</v>
-      </c>
-      <c r="AE10" s="17" t="n">
-        <v>1047.9291</v>
-      </c>
-      <c r="AF10" s="19" t="inlineStr">
-        <is>
-          <t>04-10-2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="30" customHeight="1">
-      <c r="A11" s="13" t="inlineStr">
-        <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="B11" s="13" t="inlineStr">
-        <is>
-          <t>Hakan</t>
-        </is>
-      </c>
-      <c r="C11" s="13" t="inlineStr">
-        <is>
-          <t>22BRP09</t>
-        </is>
-      </c>
-      <c r="D11" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="E11" s="22" t="inlineStr">
-        <is>
-          <t>Mekmar</t>
-        </is>
-      </c>
-      <c r="F11" s="32" t="inlineStr">
-        <is>
-          <t>13-09-2022</t>
-        </is>
-      </c>
-      <c r="G11" s="32" t="inlineStr">
-        <is>
-          <t>24-10-2022</t>
-        </is>
-      </c>
-      <c r="H11" s="12" t="inlineStr">
-        <is>
-          <t>Tracy - AU</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>FCA</t>
-        </is>
-      </c>
-      <c r="K11" s="33" t="n">
-        <v>13245.5</v>
-      </c>
-      <c r="L11" s="34" t="n">
-        <v>1095.072</v>
-      </c>
-      <c r="M11" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="34" t="n">
-        <v>8930.100399999999</v>
-      </c>
-      <c r="O11" s="34" t="n">
-        <v>503.28</v>
-      </c>
-      <c r="P11" s="34" t="n">
-        <v>33.32</v>
-      </c>
-      <c r="Q11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="36" t="n">
-        <v>464</v>
-      </c>
-      <c r="AA11" s="36" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AB11" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="37" t="n">
-        <v>11026.4924</v>
-      </c>
-      <c r="AD11" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
+    </row>
+    <row r="10" ht="30" customHeight="1">
+      <c r="A10" s="13" t="n"/>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="13" t="n"/>
+      <c r="D10" s="22" t="n"/>
+      <c r="E10" s="22" t="n"/>
+      <c r="F10" s="32" t="n"/>
+      <c r="G10" s="32" t="n"/>
+      <c r="H10" s="12" t="n"/>
+      <c r="I10" s="3" t="n"/>
+      <c r="J10" s="3" t="n"/>
+      <c r="K10" s="33" t="n"/>
+      <c r="L10" s="34" t="n"/>
+      <c r="M10" s="34" t="n"/>
+      <c r="N10" s="34" t="n"/>
+      <c r="O10" s="34" t="n"/>
+      <c r="P10" s="34" t="n"/>
+      <c r="Q10" s="35" t="n"/>
+      <c r="R10" s="35" t="n"/>
+      <c r="S10" s="35" t="n"/>
+      <c r="T10" s="35" t="n"/>
+      <c r="U10" s="35" t="n"/>
+      <c r="V10" s="35" t="n"/>
+      <c r="W10" s="35" t="n"/>
+      <c r="X10" s="35" t="n"/>
+      <c r="Y10" s="36" t="n"/>
+      <c r="Z10" s="36" t="n"/>
+      <c r="AA10" s="36" t="n"/>
+      <c r="AB10" s="36" t="n"/>
+      <c r="AC10" s="37" t="n"/>
+      <c r="AD10" s="38" t="n"/>
+      <c r="AE10" s="17" t="n"/>
+      <c r="AF10" s="19" t="n"/>
+    </row>
+    <row r="11" ht="30" customHeight="1">
+      <c r="A11" s="13" t="n"/>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="13" t="n"/>
+      <c r="D11" s="22" t="n"/>
+      <c r="E11" s="22" t="n"/>
+      <c r="F11" s="32" t="n"/>
+      <c r="G11" s="32" t="n"/>
+      <c r="H11" s="12" t="n"/>
+      <c r="I11" s="3" t="n"/>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="33" t="n"/>
+      <c r="L11" s="34" t="n"/>
+      <c r="M11" s="34" t="n"/>
+      <c r="N11" s="34" t="n"/>
+      <c r="O11" s="34" t="n"/>
+      <c r="P11" s="34" t="n"/>
+      <c r="Q11" s="35" t="n"/>
+      <c r="R11" s="35" t="n"/>
+      <c r="S11" s="35" t="n"/>
+      <c r="T11" s="35" t="n"/>
+      <c r="U11" s="35" t="n"/>
+      <c r="V11" s="35" t="n"/>
+      <c r="W11" s="35" t="n"/>
+      <c r="X11" s="35" t="n"/>
+      <c r="Y11" s="36" t="n"/>
+      <c r="Z11" s="36" t="n"/>
+      <c r="AA11" s="36" t="n"/>
+      <c r="AB11" s="36" t="n"/>
+      <c r="AC11" s="37" t="n"/>
+      <c r="AD11" s="38" t="n"/>
+      <c r="AE11" s="17" t="n"/>
+      <c r="AF11" s="19" t="n"/>
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="13" t="n"/>
